--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>042670</t>
+          <t>067160</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HD현대인프라코어</t>
+          <t>아프리카TV</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-12417922920</v>
+        <v>9501425500</v>
       </c>
       <c r="D2" t="n">
-        <v>38951973930</v>
+        <v>12374742400</v>
       </c>
       <c r="E2" t="n">
-        <v>26534051010</v>
+        <v>21876167900</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>000150</t>
+          <t>126700</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>두산</t>
+          <t>하이비젼시스템</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10308600</v>
+        <v>3117499740</v>
       </c>
       <c r="D3" t="n">
-        <v>14289253400</v>
+        <v>13279914840</v>
       </c>
       <c r="E3" t="n">
-        <v>14299562000</v>
+        <v>16397414580</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>103590</t>
+          <t>282880</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>일진전기</t>
+          <t>코윈테크</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1282771540</v>
+        <v>5096582550</v>
       </c>
       <c r="D4" t="n">
-        <v>4456413630</v>
+        <v>6650114050</v>
       </c>
       <c r="E4" t="n">
-        <v>5739185170</v>
+        <v>11746696600</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>278280</t>
+          <t>011930</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>천보</t>
+          <t>신성이엔지</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4459194000</v>
+        <v>1803749335</v>
       </c>
       <c r="D5" t="n">
-        <v>825022400</v>
+        <v>5632276165</v>
       </c>
       <c r="E5" t="n">
-        <v>5284216400</v>
+        <v>7436025500</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>033500</t>
+          <t>053610</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>동성화인텍</t>
+          <t>프로텍</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1803932720</v>
+        <v>2538015150</v>
       </c>
       <c r="D6" t="n">
-        <v>2937715570</v>
+        <v>335837800</v>
       </c>
       <c r="E6" t="n">
-        <v>4741648290</v>
+        <v>2873852950</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>043260</t>
+          <t>092040</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>성호전자</t>
+          <t>아미코젠</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>99741410</v>
+        <v>-230187960</v>
       </c>
       <c r="D7" t="n">
-        <v>4233501089</v>
+        <v>2597873570</v>
       </c>
       <c r="E7" t="n">
-        <v>4333242499</v>
+        <v>2367685610</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>210540</t>
+          <t>011150</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>디와이파워</t>
+          <t>CJ씨푸드</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1996212110</v>
+        <v>196054315</v>
       </c>
       <c r="D8" t="n">
-        <v>1210437100</v>
+        <v>1597785400</v>
       </c>
       <c r="E8" t="n">
-        <v>3206649210</v>
+        <v>1793839715</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>009290</t>
+          <t>003960</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>광동제약</t>
+          <t>사조대림</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2840105470</v>
+        <v>1505737800</v>
       </c>
       <c r="D9" t="n">
-        <v>289386000</v>
+        <v>205258950</v>
       </c>
       <c r="E9" t="n">
-        <v>3129491470</v>
+        <v>1710996750</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>290550</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>디케이티</t>
+          <t>한국프랜지</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1917617010</v>
+        <v>-1485350440</v>
       </c>
       <c r="D10" t="n">
-        <v>954242720</v>
+        <v>3076148350</v>
       </c>
       <c r="E10" t="n">
-        <v>2871859730</v>
+        <v>1590797910</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>263600</t>
+          <t>126640</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>덕우전자</t>
+          <t>화신정공</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2577304350</v>
+        <v>242151649</v>
       </c>
       <c r="D11" t="n">
-        <v>152149280</v>
+        <v>1205801994</v>
       </c>
       <c r="E11" t="n">
-        <v>2729453630</v>
+        <v>1447953643</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>060150</t>
+          <t>377480</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>인선이엔티</t>
+          <t>마음AI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1570239850</v>
+        <v>2426946800</v>
       </c>
       <c r="D12" t="n">
-        <v>4215454670</v>
+        <v>-1129583650</v>
       </c>
       <c r="E12" t="n">
-        <v>2645214820</v>
+        <v>1297363150</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>088130</t>
+          <t>136480</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>동아엘텍</t>
+          <t>하림</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2654882910</v>
+        <v>251497795</v>
       </c>
       <c r="D13" t="n">
-        <v>-318244280</v>
+        <v>849903925</v>
       </c>
       <c r="E13" t="n">
-        <v>2336638630</v>
+        <v>1101401720</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>066980</t>
+          <t>164060</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이엔코퍼레이션</t>
+          <t>이루다</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-222260285</v>
+        <v>-886053470</v>
       </c>
       <c r="D14" t="n">
-        <v>2139806290</v>
+        <v>1861725450</v>
       </c>
       <c r="E14" t="n">
-        <v>1917546005</v>
+        <v>975671980</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>264450</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>한국프랜지</t>
+          <t>유비쿼스</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1506941655</v>
+        <v>532628300</v>
       </c>
       <c r="D15" t="n">
-        <v>3364950930</v>
+        <v>338348980</v>
       </c>
       <c r="E15" t="n">
-        <v>1858009275</v>
+        <v>870977280</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>044490</t>
+          <t>040300</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>태웅</t>
+          <t>YTN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1538533770</v>
+        <v>465801410</v>
       </c>
       <c r="D16" t="n">
-        <v>3057912810</v>
+        <v>312348280</v>
       </c>
       <c r="E16" t="n">
-        <v>1519379040</v>
+        <v>778149690</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>007690</t>
+          <t>105840</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>국도화학</t>
+          <t>우진</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>148114800</v>
+        <v>162027830</v>
       </c>
       <c r="D17" t="n">
-        <v>1323926500</v>
+        <v>614931090</v>
       </c>
       <c r="E17" t="n">
-        <v>1472041300</v>
+        <v>776958920</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>014620</t>
+          <t>224110</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>성광벤드</t>
+          <t>에이텍모빌리티</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-856890230</v>
+        <v>-168294820</v>
       </c>
       <c r="D18" t="n">
-        <v>2315085430</v>
+        <v>945007050</v>
       </c>
       <c r="E18" t="n">
-        <v>1458195200</v>
+        <v>776712230</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>147830</t>
+          <t>114630</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>제룡산업</t>
+          <t>폴라리스우노</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>495270385</v>
+        <v>-28673212</v>
       </c>
       <c r="D19" t="n">
-        <v>881756920</v>
+        <v>770714038</v>
       </c>
       <c r="E19" t="n">
-        <v>1377027305</v>
+        <v>742040826</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>088290</t>
+          <t>027740</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이원컴포텍</t>
+          <t>마니커</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>168991300</v>
+        <v>83690364</v>
       </c>
       <c r="D20" t="n">
-        <v>935536815</v>
+        <v>653178506</v>
       </c>
       <c r="E20" t="n">
-        <v>1104528115</v>
+        <v>736868870</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>011320</t>
+          <t>208140</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>유니크</t>
+          <t>정다운</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>15587130</v>
+        <v>458697985</v>
       </c>
       <c r="D21" t="n">
-        <v>1006174790</v>
+        <v>266789685</v>
       </c>
       <c r="E21" t="n">
-        <v>1021761920</v>
+        <v>725487670</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>115440</t>
+          <t>120240</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>우리넷</t>
+          <t>대정화금</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>72718630</v>
+        <v>-5011130</v>
       </c>
       <c r="D22" t="n">
-        <v>893654130</v>
+        <v>681311980</v>
       </c>
       <c r="E22" t="n">
-        <v>966372760</v>
+        <v>676300850</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>352910</t>
+          <t>041020</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>오비고</t>
+          <t>폴라리스오피스</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-194541710</v>
+        <v>531463285</v>
       </c>
       <c r="D23" t="n">
-        <v>1046452710</v>
+        <v>115958975</v>
       </c>
       <c r="E23" t="n">
-        <v>851911000</v>
+        <v>647422260</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>289220</t>
+          <t>073490</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>자이언트스텝</t>
+          <t>이노와이어리스</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-26355500</v>
+        <v>167442950</v>
       </c>
       <c r="D24" t="n">
-        <v>788502890</v>
+        <v>450157150</v>
       </c>
       <c r="E24" t="n">
-        <v>762147390</v>
+        <v>617600100</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>041020</t>
+          <t>000300</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>폴라리스오피스</t>
+          <t>대유플러스</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>567823460</v>
+        <v>-48135529</v>
       </c>
       <c r="D25" t="n">
-        <v>106433980</v>
+        <v>530515423</v>
       </c>
       <c r="E25" t="n">
-        <v>674257440</v>
+        <v>482379894</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>088910</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>에이프로젠</t>
+          <t>동우팜투테이블</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-878137575</v>
+        <v>312767740</v>
       </c>
       <c r="D26" t="n">
-        <v>1340017227</v>
+        <v>147318235</v>
       </c>
       <c r="E26" t="n">
-        <v>461879652</v>
+        <v>460085975</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>179900</t>
+          <t>158430</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>유티아이</t>
+          <t>아톤</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>413519650</v>
+        <v>79603690</v>
       </c>
       <c r="D27" t="n">
-        <v>31882550</v>
+        <v>364360650</v>
       </c>
       <c r="E27" t="n">
-        <v>445402200</v>
+        <v>443964340</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>377030</t>
+          <t>255220</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>맥스트</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>74737860</v>
+        <v>55838754</v>
       </c>
       <c r="D28" t="n">
-        <v>366936170</v>
+        <v>363956697</v>
       </c>
       <c r="E28" t="n">
-        <v>441674030</v>
+        <v>419795451</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,22 +1119,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>068050</t>
+          <t>045660</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>팬엔터테인먼트</t>
+          <t>에이텍</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-1591418905</v>
+        <v>31900</v>
       </c>
       <c r="D29" t="n">
-        <v>2015754425</v>
+        <v>399327170</v>
       </c>
       <c r="E29" t="n">
-        <v>424335520</v>
+        <v>399359070</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1143,22 +1143,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>393210</t>
+          <t>196450</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>토마토시스템</t>
+          <t>코아시아씨엠</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>525682020</v>
+        <v>-7829402</v>
       </c>
       <c r="D30" t="n">
-        <v>-107093110</v>
+        <v>406594555</v>
       </c>
       <c r="E30" t="n">
-        <v>418588910</v>
+        <v>398765153</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
@@ -1167,22 +1167,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>234080</t>
+          <t>123010</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JW생명과학</t>
+          <t>아이윈플러스</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-10910340</v>
+        <v>69721360</v>
       </c>
       <c r="D31" t="n">
-        <v>340978760</v>
+        <v>225186590</v>
       </c>
       <c r="E31" t="n">
-        <v>330068420</v>
+        <v>294907950</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
@@ -1191,22 +1191,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>036580</t>
+          <t>025870</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>팜스코</t>
+          <t>신라에스지</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>576581015</v>
+        <v>-5252000</v>
       </c>
       <c r="D32" t="n">
-        <v>-297276465</v>
+        <v>277381920</v>
       </c>
       <c r="E32" t="n">
-        <v>279304550</v>
+        <v>272129920</v>
       </c>
       <c r="F32" t="n">
         <v>31</v>
@@ -1215,22 +1215,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>041460</t>
+          <t>900340</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한국전자인증</t>
+          <t>윙입푸드</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>832420</v>
+        <v>-645899</v>
       </c>
       <c r="D33" t="n">
-        <v>219305410</v>
+        <v>244054789</v>
       </c>
       <c r="E33" t="n">
-        <v>220137830</v>
+        <v>243408890</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
@@ -1239,22 +1239,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>175250</t>
+          <t>046120</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>아이큐어</t>
+          <t>오르비텍</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40554290</v>
+        <v>-80433885</v>
       </c>
       <c r="D34" t="n">
-        <v>147720595</v>
+        <v>320505300</v>
       </c>
       <c r="E34" t="n">
-        <v>188274885</v>
+        <v>240071415</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
@@ -1263,22 +1263,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>056360</t>
+          <t>226340</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>코위버</t>
+          <t>본느</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>64493870</v>
+        <v>-131439789</v>
       </c>
       <c r="D35" t="n">
-        <v>119060070</v>
+        <v>349401068</v>
       </c>
       <c r="E35" t="n">
-        <v>183553940</v>
+        <v>217961279</v>
       </c>
       <c r="F35" t="n">
         <v>34</v>
@@ -1287,22 +1287,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>046310</t>
+          <t>003280</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>백금T&amp;A</t>
+          <t>흥아해운</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>151135465</v>
+        <v>44805246</v>
       </c>
       <c r="D36" t="n">
-        <v>31152015</v>
+        <v>165405700</v>
       </c>
       <c r="E36" t="n">
-        <v>182287480</v>
+        <v>210210946</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
@@ -1311,22 +1311,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>206560</t>
+          <t>045390</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>덱스터</t>
+          <t>대아티아이</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-1021144660</v>
+        <v>-21436225</v>
       </c>
       <c r="D37" t="n">
-        <v>1164307550</v>
+        <v>198792095</v>
       </c>
       <c r="E37" t="n">
-        <v>143162890</v>
+        <v>177355870</v>
       </c>
       <c r="F37" t="n">
         <v>36</v>
@@ -1335,22 +1335,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>017480</t>
+          <t>066130</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>삼현철강</t>
+          <t>하츠</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>28493710</v>
+        <v>1231080</v>
       </c>
       <c r="D38" t="n">
-        <v>46612280</v>
+        <v>172103120</v>
       </c>
       <c r="E38" t="n">
-        <v>75105990</v>
+        <v>173334200</v>
       </c>
       <c r="F38" t="n">
         <v>37</v>
@@ -1359,22 +1359,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>012160</t>
+          <t>290720</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>영흥</t>
+          <t>푸드나무</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>40028886</v>
+        <v>141865170</v>
       </c>
       <c r="D39" t="n">
-        <v>-30450744</v>
+        <v>-23300200</v>
       </c>
       <c r="E39" t="n">
-        <v>9578142</v>
+        <v>118564970</v>
       </c>
       <c r="F39" t="n">
         <v>38</v>
@@ -1383,22 +1383,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>376290</t>
+          <t>238120</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>씨유테크</t>
+          <t>얼라인드</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>642935</v>
+        <v>51519170</v>
       </c>
       <c r="D40" t="n">
-        <v>7213375</v>
+        <v>62258340</v>
       </c>
       <c r="E40" t="n">
-        <v>7856310</v>
+        <v>113777510</v>
       </c>
       <c r="F40" t="n">
         <v>39</v>
@@ -1407,25 +1407,193 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>250930</t>
+          <t>003680</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>예선테크</t>
+          <t>한성기업</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>81605817</v>
+        <v>33617020</v>
       </c>
       <c r="D41" t="n">
-        <v>-75025481</v>
+        <v>77523480</v>
       </c>
       <c r="E41" t="n">
-        <v>6580336</v>
+        <v>111140500</v>
       </c>
       <c r="F41" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>347700</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>라이프시맨틱스</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>12672270</v>
+      </c>
+      <c r="D42" t="n">
+        <v>59990325</v>
+      </c>
+      <c r="E42" t="n">
+        <v>72662595</v>
+      </c>
+      <c r="F42" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>115960</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>연우</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-99586780</v>
+      </c>
+      <c r="D43" t="n">
+        <v>160280110</v>
+      </c>
+      <c r="E43" t="n">
+        <v>60693330</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>006090</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>사조오양</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>129153140</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-74747330</v>
+      </c>
+      <c r="E44" t="n">
+        <v>54405810</v>
+      </c>
+      <c r="F44" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>196700</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>웹스</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-10986110</v>
+      </c>
+      <c r="D45" t="n">
+        <v>61678620</v>
+      </c>
+      <c r="E45" t="n">
+        <v>50692510</v>
+      </c>
+      <c r="F45" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>부국증권</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>23279040</v>
+      </c>
+      <c r="D46" t="n">
+        <v>23889230</v>
+      </c>
+      <c r="E46" t="n">
+        <v>47168270</v>
+      </c>
+      <c r="F46" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>129890</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>앱코</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-164801745</v>
+      </c>
+      <c r="D47" t="n">
+        <v>204466865</v>
+      </c>
+      <c r="E47" t="n">
+        <v>39665120</v>
+      </c>
+      <c r="F47" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>065770</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-5489854</v>
+      </c>
+      <c r="D48" t="n">
+        <v>41930507</v>
+      </c>
+      <c r="E48" t="n">
+        <v>36440653</v>
+      </c>
+      <c r="F48" t="n">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>067160</t>
+          <t>086280</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>아프리카TV</t>
+          <t>현대글로비스</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9501425500</v>
+        <v>13295847600</v>
       </c>
       <c r="D2" t="n">
-        <v>12374742400</v>
+        <v>37185888400</v>
       </c>
       <c r="E2" t="n">
-        <v>21876167900</v>
+        <v>50481736000</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>126700</t>
+          <t>067310</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>하이비젼시스템</t>
+          <t>하나마이크론</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3117499740</v>
+        <v>26053035610</v>
       </c>
       <c r="D3" t="n">
-        <v>13279914840</v>
+        <v>12951542240</v>
       </c>
       <c r="E3" t="n">
-        <v>16397414580</v>
+        <v>39004577850</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>282880</t>
+          <t>047050</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>코윈테크</t>
+          <t>포스코인터내셔널</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5096582550</v>
+        <v>-31278532650</v>
       </c>
       <c r="D4" t="n">
-        <v>6650114050</v>
+        <v>50340611000</v>
       </c>
       <c r="E4" t="n">
-        <v>11746696600</v>
+        <v>19062078350</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>011930</t>
+          <t>036540</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>신성이엔지</t>
+          <t>SFA반도체</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1803749335</v>
+        <v>10121617990</v>
       </c>
       <c r="D5" t="n">
-        <v>5632276165</v>
+        <v>5215602330</v>
       </c>
       <c r="E5" t="n">
-        <v>7436025500</v>
+        <v>15337220320</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>053610</t>
+          <t>001120</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>프로텍</t>
+          <t>LX인터내셔널</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2538015150</v>
+        <v>11990012000</v>
       </c>
       <c r="D6" t="n">
-        <v>335837800</v>
+        <v>2185882700</v>
       </c>
       <c r="E6" t="n">
-        <v>2873852950</v>
+        <v>14175894700</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>092040</t>
+          <t>004000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>아미코젠</t>
+          <t>롯데정밀화학</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-230187960</v>
+        <v>2263003800</v>
       </c>
       <c r="D7" t="n">
-        <v>2597873570</v>
+        <v>7443121200</v>
       </c>
       <c r="E7" t="n">
-        <v>2367685610</v>
+        <v>9706125000</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>011150</t>
+          <t>059210</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CJ씨푸드</t>
+          <t>메타바이오메드</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>196054315</v>
+        <v>1685478155</v>
       </c>
       <c r="D8" t="n">
-        <v>1597785400</v>
+        <v>7571773900</v>
       </c>
       <c r="E8" t="n">
-        <v>1793839715</v>
+        <v>9257252055</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>003960</t>
+          <t>000490</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>사조대림</t>
+          <t>대동</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1505737800</v>
+        <v>3460975140</v>
       </c>
       <c r="D9" t="n">
-        <v>205258950</v>
+        <v>3451948900</v>
       </c>
       <c r="E9" t="n">
-        <v>1710996750</v>
+        <v>6912924040</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>049070</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>한국프랜지</t>
+          <t>인탑스</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1485350440</v>
+        <v>14233862100</v>
       </c>
       <c r="D10" t="n">
-        <v>3076148350</v>
+        <v>-7482314700</v>
       </c>
       <c r="E10" t="n">
-        <v>1590797910</v>
+        <v>6751547400</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>126640</t>
+          <t>179290</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>화신정공</t>
+          <t>엠아이텍</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>242151649</v>
+        <v>10369800460</v>
       </c>
       <c r="D11" t="n">
-        <v>1205801994</v>
+        <v>-5749197560</v>
       </c>
       <c r="E11" t="n">
-        <v>1447953643</v>
+        <v>4620602900</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>377480</t>
+          <t>002900</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>마음AI</t>
+          <t>TYM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2426946800</v>
+        <v>1625767770</v>
       </c>
       <c r="D12" t="n">
-        <v>-1129583650</v>
+        <v>2020496860</v>
       </c>
       <c r="E12" t="n">
-        <v>1297363150</v>
+        <v>3646264630</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>136480</t>
+          <t>004920</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>하림</t>
+          <t>씨아이테크</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>251497795</v>
+        <v>4094604891</v>
       </c>
       <c r="D13" t="n">
-        <v>849903925</v>
+        <v>-604604211</v>
       </c>
       <c r="E13" t="n">
-        <v>1101401720</v>
+        <v>3490000680</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>164060</t>
+          <t>300720</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>이루다</t>
+          <t>한일시멘트</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-886053470</v>
+        <v>1417046890</v>
       </c>
       <c r="D14" t="n">
-        <v>1861725450</v>
+        <v>1253537330</v>
       </c>
       <c r="E14" t="n">
-        <v>975671980</v>
+        <v>2670584220</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>264450</t>
+          <t>083930</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>유비쿼스</t>
+          <t>아바코</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>532628300</v>
+        <v>1662633410</v>
       </c>
       <c r="D15" t="n">
-        <v>338348980</v>
+        <v>792814240</v>
       </c>
       <c r="E15" t="n">
-        <v>870977280</v>
+        <v>2455447650</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>040300</t>
+          <t>256840</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>YTN</t>
+          <t>한국비엔씨</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>465801410</v>
+        <v>-343729475</v>
       </c>
       <c r="D16" t="n">
-        <v>312348280</v>
+        <v>2692652945</v>
       </c>
       <c r="E16" t="n">
-        <v>778149690</v>
+        <v>2348923470</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>105840</t>
+          <t>085620</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>우진</t>
+          <t>미래에셋생명</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>162027830</v>
+        <v>3793316480</v>
       </c>
       <c r="D17" t="n">
-        <v>614931090</v>
+        <v>-1647278920</v>
       </c>
       <c r="E17" t="n">
-        <v>776958920</v>
+        <v>2146037560</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>224110</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>에이텍모빌리티</t>
+          <t>한국프랜지</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-168294820</v>
+        <v>-1516955850</v>
       </c>
       <c r="D18" t="n">
-        <v>945007050</v>
+        <v>3305997215</v>
       </c>
       <c r="E18" t="n">
-        <v>776712230</v>
+        <v>1789041365</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>114630</t>
+          <t>053030</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>폴라리스우노</t>
+          <t>바이넥스</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-28673212</v>
+        <v>-4873536690</v>
       </c>
       <c r="D19" t="n">
-        <v>770714038</v>
+        <v>6612999710</v>
       </c>
       <c r="E19" t="n">
-        <v>742040826</v>
+        <v>1739463020</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>027740</t>
+          <t>196490</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>마니커</t>
+          <t>디에이테크놀로지</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>83690364</v>
+        <v>254386645</v>
       </c>
       <c r="D20" t="n">
-        <v>653178506</v>
+        <v>1254013200</v>
       </c>
       <c r="E20" t="n">
-        <v>736868870</v>
+        <v>1508399845</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>208140</t>
+          <t>102710</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>정다운</t>
+          <t>이엔에프테크놀로지</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>458697985</v>
+        <v>451855160</v>
       </c>
       <c r="D21" t="n">
-        <v>266789685</v>
+        <v>1052495530</v>
       </c>
       <c r="E21" t="n">
-        <v>725487670</v>
+        <v>1504350690</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>120240</t>
+          <t>044340</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>대정화금</t>
+          <t>위닉스</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-5011130</v>
+        <v>119255180</v>
       </c>
       <c r="D22" t="n">
-        <v>681311980</v>
+        <v>1143842830</v>
       </c>
       <c r="E22" t="n">
-        <v>676300850</v>
+        <v>1263098010</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>041020</t>
+          <t>001080</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>폴라리스오피스</t>
+          <t>만호제강</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>531463285</v>
+        <v>2780632000</v>
       </c>
       <c r="D23" t="n">
-        <v>115958975</v>
+        <v>-1564277300</v>
       </c>
       <c r="E23" t="n">
-        <v>647422260</v>
+        <v>1216354700</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>073490</t>
+          <t>053610</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>이노와이어리스</t>
+          <t>프로텍</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>167442950</v>
+        <v>-1077384800</v>
       </c>
       <c r="D24" t="n">
-        <v>450157150</v>
+        <v>2113821950</v>
       </c>
       <c r="E24" t="n">
-        <v>617600100</v>
+        <v>1036437150</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>000300</t>
+          <t>036580</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>대유플러스</t>
+          <t>팜스코</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-48135529</v>
+        <v>774704990</v>
       </c>
       <c r="D25" t="n">
-        <v>530515423</v>
+        <v>251189395</v>
       </c>
       <c r="E25" t="n">
-        <v>482379894</v>
+        <v>1025894385</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>088910</t>
+          <t>218150</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>동우팜투테이블</t>
+          <t>미래생명자원</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>312767740</v>
+        <v>503854610</v>
       </c>
       <c r="D26" t="n">
-        <v>147318235</v>
+        <v>493372710</v>
       </c>
       <c r="E26" t="n">
-        <v>460085975</v>
+        <v>997227320</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>158430</t>
+          <t>224110</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>아톤</t>
+          <t>에이텍모빌리티</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>79603690</v>
+        <v>-220026370</v>
       </c>
       <c r="D27" t="n">
-        <v>364360650</v>
+        <v>1135069250</v>
       </c>
       <c r="E27" t="n">
-        <v>443964340</v>
+        <v>915042880</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>255220</t>
+          <t>149980</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>하이로닉</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>55838754</v>
+        <v>910291560</v>
       </c>
       <c r="D28" t="n">
-        <v>363956697</v>
+        <v>1428460</v>
       </c>
       <c r="E28" t="n">
-        <v>419795451</v>
+        <v>911720020</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,22 +1119,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>045660</t>
+          <t>105740</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>에이텍</t>
+          <t>디케이락</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>31900</v>
+        <v>-2324871270</v>
       </c>
       <c r="D29" t="n">
-        <v>399327170</v>
+        <v>3219868510</v>
       </c>
       <c r="E29" t="n">
-        <v>399359070</v>
+        <v>894997240</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1143,22 +1143,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>196450</t>
+          <t>134580</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>코아시아씨엠</t>
+          <t>탑코미디어</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-7829402</v>
+        <v>114398220</v>
       </c>
       <c r="D30" t="n">
-        <v>406594555</v>
+        <v>621550070</v>
       </c>
       <c r="E30" t="n">
-        <v>398765153</v>
+        <v>735948290</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
@@ -1167,22 +1167,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>123010</t>
+          <t>017650</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>아이윈플러스</t>
+          <t>대림제지</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>69721360</v>
+        <v>613893770</v>
       </c>
       <c r="D31" t="n">
-        <v>225186590</v>
+        <v>99122510</v>
       </c>
       <c r="E31" t="n">
-        <v>294907950</v>
+        <v>713016280</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
@@ -1191,22 +1191,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>025870</t>
+          <t>025860</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>신라에스지</t>
+          <t>남해화학</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-5252000</v>
+        <v>-304067270</v>
       </c>
       <c r="D32" t="n">
-        <v>277381920</v>
+        <v>947513050</v>
       </c>
       <c r="E32" t="n">
-        <v>272129920</v>
+        <v>643445780</v>
       </c>
       <c r="F32" t="n">
         <v>31</v>
@@ -1215,22 +1215,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>900340</t>
+          <t>080470</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>윙입푸드</t>
+          <t>성창오토텍</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-645899</v>
+        <v>-46030000</v>
       </c>
       <c r="D33" t="n">
-        <v>244054789</v>
+        <v>641542820</v>
       </c>
       <c r="E33" t="n">
-        <v>243408890</v>
+        <v>595512820</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
@@ -1239,22 +1239,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>046120</t>
+          <t>003310</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>오르비텍</t>
+          <t>대주산업</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-80433885</v>
+        <v>248991755</v>
       </c>
       <c r="D34" t="n">
-        <v>320505300</v>
+        <v>291211850</v>
       </c>
       <c r="E34" t="n">
-        <v>240071415</v>
+        <v>540203605</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
@@ -1263,22 +1263,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>226340</t>
+          <t>020180</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>본느</t>
+          <t>대신정보통신</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-131439789</v>
+        <v>10318239</v>
       </c>
       <c r="D35" t="n">
-        <v>349401068</v>
+        <v>518741081</v>
       </c>
       <c r="E35" t="n">
-        <v>217961279</v>
+        <v>529059320</v>
       </c>
       <c r="F35" t="n">
         <v>34</v>
@@ -1287,22 +1287,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>003280</t>
+          <t>389030</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>흥아해운</t>
+          <t>지니너스</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>44805246</v>
+        <v>301979205</v>
       </c>
       <c r="D36" t="n">
-        <v>165405700</v>
+        <v>203741675</v>
       </c>
       <c r="E36" t="n">
-        <v>210210946</v>
+        <v>505720880</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
@@ -1311,22 +1311,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>045390</t>
+          <t>023410</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>대아티아이</t>
+          <t>유진기업</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-21436225</v>
+        <v>-790373440</v>
       </c>
       <c r="D37" t="n">
-        <v>198792095</v>
+        <v>1269604425</v>
       </c>
       <c r="E37" t="n">
-        <v>177355870</v>
+        <v>479230985</v>
       </c>
       <c r="F37" t="n">
         <v>36</v>
@@ -1335,22 +1335,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>066130</t>
+          <t>322180</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>하츠</t>
+          <t>티라유텍</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1231080</v>
+        <v>19639000</v>
       </c>
       <c r="D38" t="n">
-        <v>172103120</v>
+        <v>383223250</v>
       </c>
       <c r="E38" t="n">
-        <v>173334200</v>
+        <v>402862250</v>
       </c>
       <c r="F38" t="n">
         <v>37</v>
@@ -1359,22 +1359,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>290720</t>
+          <t>108380</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>푸드나무</t>
+          <t>대양전기공업</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>141865170</v>
+        <v>97022530</v>
       </c>
       <c r="D39" t="n">
-        <v>-23300200</v>
+        <v>301824620</v>
       </c>
       <c r="E39" t="n">
-        <v>118564970</v>
+        <v>398847150</v>
       </c>
       <c r="F39" t="n">
         <v>38</v>
@@ -1383,22 +1383,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>238120</t>
+          <t>105840</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>얼라인드</t>
+          <t>우진</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>51519170</v>
+        <v>214221510</v>
       </c>
       <c r="D40" t="n">
-        <v>62258340</v>
+        <v>168467690</v>
       </c>
       <c r="E40" t="n">
-        <v>113777510</v>
+        <v>382689200</v>
       </c>
       <c r="F40" t="n">
         <v>39</v>
@@ -1407,22 +1407,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>003680</t>
+          <t>025890</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한성기업</t>
+          <t>한국주강</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33617020</v>
+        <v>35573195</v>
       </c>
       <c r="D41" t="n">
-        <v>77523480</v>
+        <v>346819515</v>
       </c>
       <c r="E41" t="n">
-        <v>111140500</v>
+        <v>382392710</v>
       </c>
       <c r="F41" t="n">
         <v>40</v>
@@ -1431,22 +1431,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>347700</t>
+          <t>191410</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>라이프시맨틱스</t>
+          <t>육일씨엔에쓰</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>12672270</v>
+        <v>-45701995</v>
       </c>
       <c r="D42" t="n">
-        <v>59990325</v>
+        <v>367817225</v>
       </c>
       <c r="E42" t="n">
-        <v>72662595</v>
+        <v>322115230</v>
       </c>
       <c r="F42" t="n">
         <v>41</v>
@@ -1455,22 +1455,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>115960</t>
+          <t>004140</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>연우</t>
+          <t>동방</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-99586780</v>
+        <v>3128340</v>
       </c>
       <c r="D43" t="n">
-        <v>160280110</v>
+        <v>280892725</v>
       </c>
       <c r="E43" t="n">
-        <v>60693330</v>
+        <v>284021065</v>
       </c>
       <c r="F43" t="n">
         <v>42</v>
@@ -1479,22 +1479,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>006090</t>
+          <t>040300</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>사조오양</t>
+          <t>YTN</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>129153140</v>
+        <v>811484200</v>
       </c>
       <c r="D44" t="n">
-        <v>-74747330</v>
+        <v>-528332330</v>
       </c>
       <c r="E44" t="n">
-        <v>54405810</v>
+        <v>283151870</v>
       </c>
       <c r="F44" t="n">
         <v>43</v>
@@ -1503,22 +1503,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>196700</t>
+          <t>008830</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>웹스</t>
+          <t>대동기어</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-10986110</v>
+        <v>-24177660</v>
       </c>
       <c r="D45" t="n">
-        <v>61678620</v>
+        <v>271870130</v>
       </c>
       <c r="E45" t="n">
-        <v>50692510</v>
+        <v>247692470</v>
       </c>
       <c r="F45" t="n">
         <v>44</v>
@@ -1527,22 +1527,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>001550</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>부국증권</t>
+          <t>조비</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23279040</v>
+        <v>-72039630</v>
       </c>
       <c r="D46" t="n">
-        <v>23889230</v>
+        <v>295748960</v>
       </c>
       <c r="E46" t="n">
-        <v>47168270</v>
+        <v>223709330</v>
       </c>
       <c r="F46" t="n">
         <v>45</v>
@@ -1551,22 +1551,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>129890</t>
+          <t>026890</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>스틱인베스트먼트</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-164801745</v>
+        <v>563359210</v>
       </c>
       <c r="D47" t="n">
-        <v>204466865</v>
+        <v>-348412190</v>
       </c>
       <c r="E47" t="n">
-        <v>39665120</v>
+        <v>214947020</v>
       </c>
       <c r="F47" t="n">
         <v>46</v>
@@ -1575,25 +1575,337 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>065770</t>
+          <t>158430</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>아톤</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-5489854</v>
+        <v>83544840</v>
       </c>
       <c r="D48" t="n">
-        <v>41930507</v>
+        <v>106963870</v>
       </c>
       <c r="E48" t="n">
-        <v>36440653</v>
+        <v>190508710</v>
       </c>
       <c r="F48" t="n">
         <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>097870</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>효성오앤비</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>-49345760</v>
+      </c>
+      <c r="D49" t="n">
+        <v>217227080</v>
+      </c>
+      <c r="E49" t="n">
+        <v>167881320</v>
+      </c>
+      <c r="F49" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>035200</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>프럼파스트</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>71410600</v>
+      </c>
+      <c r="D50" t="n">
+        <v>86194165</v>
+      </c>
+      <c r="E50" t="n">
+        <v>157604765</v>
+      </c>
+      <c r="F50" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>041590</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>플래스크</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>44377382</v>
+      </c>
+      <c r="D51" t="n">
+        <v>89020608</v>
+      </c>
+      <c r="E51" t="n">
+        <v>133397990</v>
+      </c>
+      <c r="F51" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>069540</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>라이트론</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>-46059290</v>
+      </c>
+      <c r="D52" t="n">
+        <v>151526145</v>
+      </c>
+      <c r="E52" t="n">
+        <v>105466855</v>
+      </c>
+      <c r="F52" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>006910</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>보성파워텍</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>-31722055</v>
+      </c>
+      <c r="D53" t="n">
+        <v>115890990</v>
+      </c>
+      <c r="E53" t="n">
+        <v>84168935</v>
+      </c>
+      <c r="F53" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>196700</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>웹스</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-12531570</v>
+      </c>
+      <c r="D54" t="n">
+        <v>94122455</v>
+      </c>
+      <c r="E54" t="n">
+        <v>81590885</v>
+      </c>
+      <c r="F54" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>017900</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>광전자</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>-167804495</v>
+      </c>
+      <c r="D55" t="n">
+        <v>243420530</v>
+      </c>
+      <c r="E55" t="n">
+        <v>75616035</v>
+      </c>
+      <c r="F55" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>950200</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>소마젠</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>-509120</v>
+      </c>
+      <c r="D56" t="n">
+        <v>42826940</v>
+      </c>
+      <c r="E56" t="n">
+        <v>42317820</v>
+      </c>
+      <c r="F56" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>023790</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>동일철강</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>25275193</v>
+      </c>
+      <c r="D57" t="n">
+        <v>15362557</v>
+      </c>
+      <c r="E57" t="n">
+        <v>40637750</v>
+      </c>
+      <c r="F57" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>006570</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>대림통상</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>44966130</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-10023575</v>
+      </c>
+      <c r="E58" t="n">
+        <v>34942555</v>
+      </c>
+      <c r="F58" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>290270</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>휴네시온</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>54080205</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-29710515</v>
+      </c>
+      <c r="E59" t="n">
+        <v>24369690</v>
+      </c>
+      <c r="F59" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>017180</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>명문제약</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>82059490</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-68682825</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13376665</v>
+      </c>
+      <c r="F60" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>039980</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>리노스</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>-38766441</v>
+      </c>
+      <c r="D61" t="n">
+        <v>51823646</v>
+      </c>
+      <c r="E61" t="n">
+        <v>13057205</v>
+      </c>
+      <c r="F61" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>086280</t>
+          <t>034020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>현대글로비스</t>
+          <t>두산에너빌리티</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13295847600</v>
+        <v>60557573750</v>
       </c>
       <c r="D2" t="n">
-        <v>37185888400</v>
+        <v>185757425350</v>
       </c>
       <c r="E2" t="n">
-        <v>50481736000</v>
+        <v>246314999100</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>067310</t>
+          <t>085370</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>하나마이크론</t>
+          <t>루트로닉</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26053035610</v>
+        <v>105701785000</v>
       </c>
       <c r="D3" t="n">
-        <v>12951542240</v>
+        <v>54751291100</v>
       </c>
       <c r="E3" t="n">
-        <v>39004577850</v>
+        <v>160453076100</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>047050</t>
+          <t>007660</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>포스코인터내셔널</t>
+          <t>이수페타시스</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-31278532650</v>
+        <v>27487836160</v>
       </c>
       <c r="D4" t="n">
-        <v>50340611000</v>
+        <v>56097605860</v>
       </c>
       <c r="E4" t="n">
-        <v>19062078350</v>
+        <v>83585442020</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>036540</t>
+          <t>009900</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SFA반도체</t>
+          <t>명신산업</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10121617990</v>
+        <v>15398410520</v>
       </c>
       <c r="D5" t="n">
-        <v>5215602330</v>
+        <v>21304463320</v>
       </c>
       <c r="E5" t="n">
-        <v>15337220320</v>
+        <v>36702873840</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>001120</t>
+          <t>048410</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LX인터내셔널</t>
+          <t>현대바이오</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11990012000</v>
+        <v>428971160</v>
       </c>
       <c r="D6" t="n">
-        <v>2185882700</v>
+        <v>27400096930</v>
       </c>
       <c r="E6" t="n">
-        <v>14175894700</v>
+        <v>27829068090</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>004000</t>
+          <t>287410</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>롯데정밀화학</t>
+          <t>제이시스메디칼</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2263003800</v>
+        <v>14063352020</v>
       </c>
       <c r="D7" t="n">
-        <v>7443121200</v>
+        <v>9922734030</v>
       </c>
       <c r="E7" t="n">
-        <v>9706125000</v>
+        <v>23986086050</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>059210</t>
+          <t>257720</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>메타바이오메드</t>
+          <t>실리콘투</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1685478155</v>
+        <v>5448117820</v>
       </c>
       <c r="D8" t="n">
-        <v>7571773900</v>
+        <v>12754679575</v>
       </c>
       <c r="E8" t="n">
-        <v>9257252055</v>
+        <v>18202797395</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>000490</t>
+          <t>282880</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>대동</t>
+          <t>코윈테크</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3460975140</v>
+        <v>6756340700</v>
       </c>
       <c r="D9" t="n">
-        <v>3451948900</v>
+        <v>8008441700</v>
       </c>
       <c r="E9" t="n">
-        <v>6912924040</v>
+        <v>14764782400</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>049070</t>
+          <t>078600</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>인탑스</t>
+          <t>대주전자재료</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14233862100</v>
+        <v>12128343600</v>
       </c>
       <c r="D10" t="n">
-        <v>-7482314700</v>
+        <v>-4912526100</v>
       </c>
       <c r="E10" t="n">
-        <v>6751547400</v>
+        <v>7215817500</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>179290</t>
+          <t>166090</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>엠아이텍</t>
+          <t>하나머티리얼즈</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10369800460</v>
+        <v>6776141300</v>
       </c>
       <c r="D11" t="n">
-        <v>-5749197560</v>
+        <v>317200300</v>
       </c>
       <c r="E11" t="n">
-        <v>4620602900</v>
+        <v>7093341600</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>002900</t>
+          <t>091120</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TYM</t>
+          <t>이엠텍</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1625767770</v>
+        <v>2059503700</v>
       </c>
       <c r="D12" t="n">
-        <v>2020496860</v>
+        <v>3940436500</v>
       </c>
       <c r="E12" t="n">
-        <v>3646264630</v>
+        <v>5999940200</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>004920</t>
+          <t>083650</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>씨아이테크</t>
+          <t>비에이치아이</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4094604891</v>
+        <v>3924159500</v>
       </c>
       <c r="D13" t="n">
-        <v>-604604211</v>
+        <v>1646488910</v>
       </c>
       <c r="E13" t="n">
-        <v>3490000680</v>
+        <v>5570648410</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>300720</t>
+          <t>017940</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>한일시멘트</t>
+          <t>E1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1417046890</v>
+        <v>1705978900</v>
       </c>
       <c r="D14" t="n">
-        <v>1253537330</v>
+        <v>2901202350</v>
       </c>
       <c r="E14" t="n">
-        <v>2670584220</v>
+        <v>4607181250</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>083930</t>
+          <t>060370</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>아바코</t>
+          <t>KT서브마린</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1662633410</v>
+        <v>2074700100</v>
       </c>
       <c r="D15" t="n">
-        <v>792814240</v>
+        <v>973725920</v>
       </c>
       <c r="E15" t="n">
-        <v>2455447650</v>
+        <v>3048426020</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>256840</t>
+          <t>005860</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>한국비엔씨</t>
+          <t>한일사료</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-343729475</v>
+        <v>216995720</v>
       </c>
       <c r="D16" t="n">
-        <v>2692652945</v>
+        <v>2131282070</v>
       </c>
       <c r="E16" t="n">
-        <v>2348923470</v>
+        <v>2348277790</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>085620</t>
+          <t>053690</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>미래에셋생명</t>
+          <t>한미글로벌</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3793316480</v>
+        <v>-1691532700</v>
       </c>
       <c r="D17" t="n">
-        <v>-1647278920</v>
+        <v>3919085550</v>
       </c>
       <c r="E17" t="n">
-        <v>2146037560</v>
+        <v>2227552850</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>164060</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>한국프랜지</t>
+          <t>이루다</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1516955850</v>
+        <v>-3514327060</v>
       </c>
       <c r="D18" t="n">
-        <v>3305997215</v>
+        <v>5585882710</v>
       </c>
       <c r="E18" t="n">
-        <v>1789041365</v>
+        <v>2071555650</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>053030</t>
+          <t>174900</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>바이넥스</t>
+          <t>앱클론</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-4873536690</v>
+        <v>-702408250</v>
       </c>
       <c r="D19" t="n">
-        <v>6612999710</v>
+        <v>2684915240</v>
       </c>
       <c r="E19" t="n">
-        <v>1739463020</v>
+        <v>1982506990</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>196490</t>
+          <t>063170</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>디에이테크놀로지</t>
+          <t>서울옥션</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>254386645</v>
+        <v>182609470</v>
       </c>
       <c r="D20" t="n">
-        <v>1254013200</v>
+        <v>1637306990</v>
       </c>
       <c r="E20" t="n">
-        <v>1508399845</v>
+        <v>1819916460</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>102710</t>
+          <t>236810</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>이엔에프테크놀로지</t>
+          <t>엔비티</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>451855160</v>
+        <v>1420470870</v>
       </c>
       <c r="D21" t="n">
-        <v>1052495530</v>
+        <v>389367050</v>
       </c>
       <c r="E21" t="n">
-        <v>1504350690</v>
+        <v>1809837920</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>044340</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>위닉스</t>
+          <t>한국프랜지</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>119255180</v>
+        <v>-1548578460</v>
       </c>
       <c r="D22" t="n">
-        <v>1143842830</v>
+        <v>3305684060</v>
       </c>
       <c r="E22" t="n">
-        <v>1263098010</v>
+        <v>1757105600</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>001080</t>
+          <t>149980</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>만호제강</t>
+          <t>하이로닉</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2780632000</v>
+        <v>267120310</v>
       </c>
       <c r="D23" t="n">
-        <v>-1564277300</v>
+        <v>1487417140</v>
       </c>
       <c r="E23" t="n">
-        <v>1216354700</v>
+        <v>1754537450</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>053610</t>
+          <t>094480</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>프로텍</t>
+          <t>갤럭시아머니트리</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1077384800</v>
+        <v>-755358240</v>
       </c>
       <c r="D24" t="n">
-        <v>2113821950</v>
+        <v>1617038660</v>
       </c>
       <c r="E24" t="n">
-        <v>1036437150</v>
+        <v>861680420</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>036580</t>
+          <t>099190</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>팜스코</t>
+          <t>아이센스</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>774704990</v>
+        <v>4648668490</v>
       </c>
       <c r="D25" t="n">
-        <v>251189395</v>
+        <v>-3848047390</v>
       </c>
       <c r="E25" t="n">
-        <v>1025894385</v>
+        <v>800621100</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>218150</t>
+          <t>016880</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>미래생명자원</t>
+          <t>웅진</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>503854610</v>
+        <v>942500064</v>
       </c>
       <c r="D26" t="n">
-        <v>493372710</v>
+        <v>-218760418</v>
       </c>
       <c r="E26" t="n">
-        <v>997227320</v>
+        <v>723739646</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>224110</t>
+          <t>347770</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>에이텍모빌리티</t>
+          <t>핌스</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-220026370</v>
+        <v>-42773960</v>
       </c>
       <c r="D27" t="n">
-        <v>1135069250</v>
+        <v>684872180</v>
       </c>
       <c r="E27" t="n">
-        <v>915042880</v>
+        <v>642098220</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>149980</t>
+          <t>191410</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>하이로닉</t>
+          <t>육일씨엔에쓰</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>910291560</v>
+        <v>-40677830</v>
       </c>
       <c r="D28" t="n">
-        <v>1428460</v>
+        <v>570134705</v>
       </c>
       <c r="E28" t="n">
-        <v>911720020</v>
+        <v>529456875</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,22 +1119,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>105740</t>
+          <t>032750</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>디케이락</t>
+          <t>삼진</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-2324871270</v>
+        <v>205381040</v>
       </c>
       <c r="D29" t="n">
-        <v>3219868510</v>
+        <v>309924470</v>
       </c>
       <c r="E29" t="n">
-        <v>894997240</v>
+        <v>515305510</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1143,22 +1143,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>134580</t>
+          <t>226400</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>탑코미디어</t>
+          <t>오스테오닉</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>114398220</v>
+        <v>-36817500</v>
       </c>
       <c r="D30" t="n">
-        <v>621550070</v>
+        <v>537308945</v>
       </c>
       <c r="E30" t="n">
-        <v>735948290</v>
+        <v>500491445</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
@@ -1167,22 +1167,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>017650</t>
+          <t>293780</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>대림제지</t>
+          <t>압타바이오</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>613893770</v>
+        <v>676125500</v>
       </c>
       <c r="D31" t="n">
-        <v>99122510</v>
+        <v>-191820960</v>
       </c>
       <c r="E31" t="n">
-        <v>713016280</v>
+        <v>484304540</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
@@ -1191,22 +1191,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>025860</t>
+          <t>011420</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>남해화학</t>
+          <t>갤럭시아에스엠</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-304067270</v>
+        <v>14904380</v>
       </c>
       <c r="D32" t="n">
-        <v>947513050</v>
+        <v>466646945</v>
       </c>
       <c r="E32" t="n">
-        <v>643445780</v>
+        <v>481551325</v>
       </c>
       <c r="F32" t="n">
         <v>31</v>
@@ -1215,22 +1215,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>080470</t>
+          <t>056080</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>성창오토텍</t>
+          <t>유진로봇</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-46030000</v>
+        <v>700790</v>
       </c>
       <c r="D33" t="n">
-        <v>641542820</v>
+        <v>475647750</v>
       </c>
       <c r="E33" t="n">
-        <v>595512820</v>
+        <v>476348540</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
@@ -1239,22 +1239,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>003310</t>
+          <t>032580</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>대주산업</t>
+          <t>피델릭스</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>248991755</v>
+        <v>213948424</v>
       </c>
       <c r="D34" t="n">
-        <v>291211850</v>
+        <v>235278849</v>
       </c>
       <c r="E34" t="n">
-        <v>540203605</v>
+        <v>449227273</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
@@ -1263,22 +1263,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>020180</t>
+          <t>175140</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>대신정보통신</t>
+          <t>인포마크</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10318239</v>
+        <v>333902770</v>
       </c>
       <c r="D35" t="n">
-        <v>518741081</v>
+        <v>51804370</v>
       </c>
       <c r="E35" t="n">
-        <v>529059320</v>
+        <v>385707140</v>
       </c>
       <c r="F35" t="n">
         <v>34</v>
@@ -1287,22 +1287,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>389030</t>
+          <t>003280</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>지니너스</t>
+          <t>흥아해운</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>301979205</v>
+        <v>22677827</v>
       </c>
       <c r="D36" t="n">
-        <v>203741675</v>
+        <v>335878957</v>
       </c>
       <c r="E36" t="n">
-        <v>505720880</v>
+        <v>358556784</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
@@ -1311,22 +1311,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>023410</t>
+          <t>069540</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>유진기업</t>
+          <t>라이트론</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-790373440</v>
+        <v>497850290</v>
       </c>
       <c r="D37" t="n">
-        <v>1269604425</v>
+        <v>-191294415</v>
       </c>
       <c r="E37" t="n">
-        <v>479230985</v>
+        <v>306555875</v>
       </c>
       <c r="F37" t="n">
         <v>36</v>
@@ -1335,22 +1335,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>322180</t>
+          <t>003300</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>티라유텍</t>
+          <t>한일홀딩스</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>19639000</v>
+        <v>114934880</v>
       </c>
       <c r="D38" t="n">
-        <v>383223250</v>
+        <v>116933810</v>
       </c>
       <c r="E38" t="n">
-        <v>402862250</v>
+        <v>231868690</v>
       </c>
       <c r="F38" t="n">
         <v>37</v>
@@ -1359,22 +1359,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>108380</t>
+          <t>006880</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>대양전기공업</t>
+          <t>신송홀딩스</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>97022530</v>
+        <v>-34577100</v>
       </c>
       <c r="D39" t="n">
-        <v>301824620</v>
+        <v>263096980</v>
       </c>
       <c r="E39" t="n">
-        <v>398847150</v>
+        <v>228519880</v>
       </c>
       <c r="F39" t="n">
         <v>38</v>
@@ -1383,22 +1383,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>105840</t>
+          <t>007980</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>우진</t>
+          <t>태평양물산</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>214221510</v>
+        <v>87748587</v>
       </c>
       <c r="D40" t="n">
-        <v>168467690</v>
+        <v>120801842</v>
       </c>
       <c r="E40" t="n">
-        <v>382689200</v>
+        <v>208550429</v>
       </c>
       <c r="F40" t="n">
         <v>39</v>
@@ -1407,22 +1407,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>025890</t>
+          <t>081580</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한국주강</t>
+          <t>성우전자</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35573195</v>
+        <v>-13002285</v>
       </c>
       <c r="D41" t="n">
-        <v>346819515</v>
+        <v>192411810</v>
       </c>
       <c r="E41" t="n">
-        <v>382392710</v>
+        <v>179409525</v>
       </c>
       <c r="F41" t="n">
         <v>40</v>
@@ -1431,22 +1431,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>191410</t>
+          <t>084730</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>육일씨엔에쓰</t>
+          <t>팅크웨어</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-45701995</v>
+        <v>6125470</v>
       </c>
       <c r="D42" t="n">
-        <v>367817225</v>
+        <v>127387860</v>
       </c>
       <c r="E42" t="n">
-        <v>322115230</v>
+        <v>133513330</v>
       </c>
       <c r="F42" t="n">
         <v>41</v>
@@ -1455,22 +1455,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>004140</t>
+          <t>027710</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>동방</t>
+          <t>팜스토리</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3128340</v>
+        <v>-7664841</v>
       </c>
       <c r="D43" t="n">
-        <v>280892725</v>
+        <v>134375490</v>
       </c>
       <c r="E43" t="n">
-        <v>284021065</v>
+        <v>126710649</v>
       </c>
       <c r="F43" t="n">
         <v>42</v>
@@ -1479,22 +1479,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>040300</t>
+          <t>265740</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>YTN</t>
+          <t>엔에프씨</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>811484200</v>
+        <v>98734100</v>
       </c>
       <c r="D44" t="n">
-        <v>-528332330</v>
+        <v>-1884120</v>
       </c>
       <c r="E44" t="n">
-        <v>283151870</v>
+        <v>96849980</v>
       </c>
       <c r="F44" t="n">
         <v>43</v>
@@ -1503,22 +1503,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>008830</t>
+          <t>065570</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>대동기어</t>
+          <t>삼영이엔씨</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-24177660</v>
+        <v>80341925</v>
       </c>
       <c r="D45" t="n">
-        <v>271870130</v>
+        <v>-8352970</v>
       </c>
       <c r="E45" t="n">
-        <v>247692470</v>
+        <v>71988955</v>
       </c>
       <c r="F45" t="n">
         <v>44</v>
@@ -1527,385 +1527,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>001550</t>
+          <t>001290</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>조비</t>
+          <t>상상인증권</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-72039630</v>
+        <v>29456277</v>
       </c>
       <c r="D46" t="n">
-        <v>295748960</v>
+        <v>-17961635</v>
       </c>
       <c r="E46" t="n">
-        <v>223709330</v>
+        <v>11494642</v>
       </c>
       <c r="F46" t="n">
         <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>026890</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>스틱인베스트먼트</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>563359210</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-348412190</v>
-      </c>
-      <c r="E47" t="n">
-        <v>214947020</v>
-      </c>
-      <c r="F47" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>158430</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>아톤</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>83544840</v>
-      </c>
-      <c r="D48" t="n">
-        <v>106963870</v>
-      </c>
-      <c r="E48" t="n">
-        <v>190508710</v>
-      </c>
-      <c r="F48" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>097870</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>효성오앤비</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>-49345760</v>
-      </c>
-      <c r="D49" t="n">
-        <v>217227080</v>
-      </c>
-      <c r="E49" t="n">
-        <v>167881320</v>
-      </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>035200</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>프럼파스트</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>71410600</v>
-      </c>
-      <c r="D50" t="n">
-        <v>86194165</v>
-      </c>
-      <c r="E50" t="n">
-        <v>157604765</v>
-      </c>
-      <c r="F50" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>041590</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>플래스크</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>44377382</v>
-      </c>
-      <c r="D51" t="n">
-        <v>89020608</v>
-      </c>
-      <c r="E51" t="n">
-        <v>133397990</v>
-      </c>
-      <c r="F51" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>069540</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>라이트론</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>-46059290</v>
-      </c>
-      <c r="D52" t="n">
-        <v>151526145</v>
-      </c>
-      <c r="E52" t="n">
-        <v>105466855</v>
-      </c>
-      <c r="F52" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>006910</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>보성파워텍</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>-31722055</v>
-      </c>
-      <c r="D53" t="n">
-        <v>115890990</v>
-      </c>
-      <c r="E53" t="n">
-        <v>84168935</v>
-      </c>
-      <c r="F53" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>196700</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>웹스</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>-12531570</v>
-      </c>
-      <c r="D54" t="n">
-        <v>94122455</v>
-      </c>
-      <c r="E54" t="n">
-        <v>81590885</v>
-      </c>
-      <c r="F54" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>017900</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>광전자</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>-167804495</v>
-      </c>
-      <c r="D55" t="n">
-        <v>243420530</v>
-      </c>
-      <c r="E55" t="n">
-        <v>75616035</v>
-      </c>
-      <c r="F55" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>950200</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>소마젠</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>-509120</v>
-      </c>
-      <c r="D56" t="n">
-        <v>42826940</v>
-      </c>
-      <c r="E56" t="n">
-        <v>42317820</v>
-      </c>
-      <c r="F56" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>023790</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>동일철강</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>25275193</v>
-      </c>
-      <c r="D57" t="n">
-        <v>15362557</v>
-      </c>
-      <c r="E57" t="n">
-        <v>40637750</v>
-      </c>
-      <c r="F57" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>006570</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>대림통상</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>44966130</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-10023575</v>
-      </c>
-      <c r="E58" t="n">
-        <v>34942555</v>
-      </c>
-      <c r="F58" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>290270</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>휴네시온</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>54080205</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-29710515</v>
-      </c>
-      <c r="E59" t="n">
-        <v>24369690</v>
-      </c>
-      <c r="F59" t="n">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>017180</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>명문제약</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>82059490</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-68682825</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13376665</v>
-      </c>
-      <c r="F60" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>039980</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>리노스</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>-38766441</v>
-      </c>
-      <c r="D61" t="n">
-        <v>51823646</v>
-      </c>
-      <c r="E61" t="n">
-        <v>13057205</v>
-      </c>
-      <c r="F61" t="n">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>034020</t>
+          <t>281740</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>두산에너빌리티</t>
+          <t>레이크머티리얼즈</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60557573750</v>
+        <v>7596945050</v>
       </c>
       <c r="D2" t="n">
-        <v>185757425350</v>
+        <v>30360289900</v>
       </c>
       <c r="E2" t="n">
-        <v>246314999100</v>
+        <v>37957234950</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>085370</t>
+          <t>356860</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>루트로닉</t>
+          <t>티엘비</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>105701785000</v>
+        <v>16063575450</v>
       </c>
       <c r="D3" t="n">
-        <v>54751291100</v>
+        <v>3650034520</v>
       </c>
       <c r="E3" t="n">
-        <v>160453076100</v>
+        <v>19713609970</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>007660</t>
+          <t>214150</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이수페타시스</t>
+          <t>클래시스</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27487836160</v>
+        <v>-11959155150</v>
       </c>
       <c r="D4" t="n">
-        <v>56097605860</v>
+        <v>18363839200</v>
       </c>
       <c r="E4" t="n">
-        <v>83585442020</v>
+        <v>6404684050</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>009900</t>
+          <t>382800</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>명신산업</t>
+          <t>지앤비에스 에코</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15398410520</v>
+        <v>-628012640</v>
       </c>
       <c r="D5" t="n">
-        <v>21304463320</v>
+        <v>5514281170</v>
       </c>
       <c r="E5" t="n">
-        <v>36702873840</v>
+        <v>4886268530</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>048410</t>
+          <t>051370</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>현대바이오</t>
+          <t>인터플렉스</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>428971160</v>
+        <v>101068990</v>
       </c>
       <c r="D6" t="n">
-        <v>27400096930</v>
+        <v>2459469210</v>
       </c>
       <c r="E6" t="n">
-        <v>27829068090</v>
+        <v>2560538200</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>287410</t>
+          <t>009450</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>제이시스메디칼</t>
+          <t>경동나비엔</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14063352020</v>
+        <v>-1391070500</v>
       </c>
       <c r="D7" t="n">
-        <v>9922734030</v>
+        <v>3764951100</v>
       </c>
       <c r="E7" t="n">
-        <v>23986086050</v>
+        <v>2373880600</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>257720</t>
+          <t>019010</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>실리콘투</t>
+          <t>베뉴지</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5448117820</v>
+        <v>1092958690</v>
       </c>
       <c r="D8" t="n">
-        <v>12754679575</v>
+        <v>84845385</v>
       </c>
       <c r="E8" t="n">
-        <v>18202797395</v>
+        <v>1177804075</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>282880</t>
+          <t>093640</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>코윈테크</t>
+          <t>케이알엠</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6756340700</v>
+        <v>-1783078770</v>
       </c>
       <c r="D9" t="n">
-        <v>8008441700</v>
+        <v>2870426930</v>
       </c>
       <c r="E9" t="n">
-        <v>14764782400</v>
+        <v>1087348160</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>078600</t>
+          <t>003960</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>대주전자재료</t>
+          <t>사조대림</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12128343600</v>
+        <v>1098880050</v>
       </c>
       <c r="D10" t="n">
-        <v>-4912526100</v>
+        <v>-14876650</v>
       </c>
       <c r="E10" t="n">
-        <v>7215817500</v>
+        <v>1084003400</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>166090</t>
+          <t>086890</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>하나머티리얼즈</t>
+          <t>이수앱지스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6776141300</v>
+        <v>62066370</v>
       </c>
       <c r="D11" t="n">
-        <v>317200300</v>
+        <v>919906200</v>
       </c>
       <c r="E11" t="n">
-        <v>7093341600</v>
+        <v>981972570</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>091120</t>
+          <t>096350</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>이엠텍</t>
+          <t>대창솔루션</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2059503700</v>
+        <v>71844520</v>
       </c>
       <c r="D12" t="n">
-        <v>3940436500</v>
+        <v>853901195</v>
       </c>
       <c r="E12" t="n">
-        <v>5999940200</v>
+        <v>925745715</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>083650</t>
+          <t>072950</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>비에이치아이</t>
+          <t>빛샘전자</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3924159500</v>
+        <v>21695945</v>
       </c>
       <c r="D13" t="n">
-        <v>1646488910</v>
+        <v>645589185</v>
       </c>
       <c r="E13" t="n">
-        <v>5570648410</v>
+        <v>667285130</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>017940</t>
+          <t>095270</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>E1</t>
+          <t>웨이브일렉트로</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1705978900</v>
+        <v>1237764260</v>
       </c>
       <c r="D14" t="n">
-        <v>2901202350</v>
+        <v>-596189840</v>
       </c>
       <c r="E14" t="n">
-        <v>4607181250</v>
+        <v>641574420</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>060370</t>
+          <t>294630</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KT서브마린</t>
+          <t>서남</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2074700100</v>
+        <v>135327670</v>
       </c>
       <c r="D15" t="n">
-        <v>973725920</v>
+        <v>397296350</v>
       </c>
       <c r="E15" t="n">
-        <v>3048426020</v>
+        <v>532624020</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>005860</t>
+          <t>230980</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>한일사료</t>
+          <t>에이트원</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>216995720</v>
+        <v>103142986</v>
       </c>
       <c r="D16" t="n">
-        <v>2131282070</v>
+        <v>404296197</v>
       </c>
       <c r="E16" t="n">
-        <v>2348277790</v>
+        <v>507439183</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>053690</t>
+          <t>352940</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>한미글로벌</t>
+          <t>인바이오</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1691532700</v>
+        <v>-74428545</v>
       </c>
       <c r="D17" t="n">
-        <v>3919085550</v>
+        <v>534133565</v>
       </c>
       <c r="E17" t="n">
-        <v>2227552850</v>
+        <v>459705020</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>164060</t>
+          <t>186230</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>이루다</t>
+          <t>그린플러스</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-3514327060</v>
+        <v>-69005850</v>
       </c>
       <c r="D18" t="n">
-        <v>5585882710</v>
+        <v>436872500</v>
       </c>
       <c r="E18" t="n">
-        <v>2071555650</v>
+        <v>367866650</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>174900</t>
+          <t>032580</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>앱클론</t>
+          <t>피델릭스</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-702408250</v>
+        <v>100127034</v>
       </c>
       <c r="D19" t="n">
-        <v>2684915240</v>
+        <v>190413574</v>
       </c>
       <c r="E19" t="n">
-        <v>1982506990</v>
+        <v>290540608</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>063170</t>
+          <t>297570</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>서울옥션</t>
+          <t>알로이스</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>182609470</v>
+        <v>10125700</v>
       </c>
       <c r="D20" t="n">
-        <v>1637306990</v>
+        <v>247580660</v>
       </c>
       <c r="E20" t="n">
-        <v>1819916460</v>
+        <v>257706360</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>236810</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>엔비티</t>
+          <t>호전실업</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1420470870</v>
+        <v>-50011030</v>
       </c>
       <c r="D21" t="n">
-        <v>389367050</v>
+        <v>301757290</v>
       </c>
       <c r="E21" t="n">
-        <v>1809837920</v>
+        <v>251746260</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>041830</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한국프랜지</t>
+          <t>인바디</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-1548578460</v>
+        <v>-298552600</v>
       </c>
       <c r="D22" t="n">
-        <v>3305684060</v>
+        <v>528572350</v>
       </c>
       <c r="E22" t="n">
-        <v>1757105600</v>
+        <v>230019750</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>149980</t>
+          <t>351320</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>하이로닉</t>
+          <t>에스에이티이엔지</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>267120310</v>
+        <v>8353915</v>
       </c>
       <c r="D23" t="n">
-        <v>1487417140</v>
+        <v>194407705</v>
       </c>
       <c r="E23" t="n">
-        <v>1754537450</v>
+        <v>202761620</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>094480</t>
+          <t>065650</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>갤럭시아머니트리</t>
+          <t>메디프론</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-755358240</v>
+        <v>1744164</v>
       </c>
       <c r="D24" t="n">
-        <v>1617038660</v>
+        <v>147873168</v>
       </c>
       <c r="E24" t="n">
-        <v>861680420</v>
+        <v>149617332</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>099190</t>
+          <t>001000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>아이센스</t>
+          <t>신라섬유</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4648668490</v>
+        <v>7611150</v>
       </c>
       <c r="D25" t="n">
-        <v>-3848047390</v>
+        <v>115606305</v>
       </c>
       <c r="E25" t="n">
-        <v>800621100</v>
+        <v>123217455</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,505 +1047,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>016880</t>
+          <t>059090</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>웅진</t>
+          <t>미코</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>942500064</v>
+        <v>-409821990</v>
       </c>
       <c r="D26" t="n">
-        <v>-218760418</v>
+        <v>519146060</v>
       </c>
       <c r="E26" t="n">
-        <v>723739646</v>
+        <v>109324070</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>347770</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>핌스</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>-42773960</v>
-      </c>
-      <c r="D27" t="n">
-        <v>684872180</v>
-      </c>
-      <c r="E27" t="n">
-        <v>642098220</v>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>191410</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>육일씨엔에쓰</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>-40677830</v>
-      </c>
-      <c r="D28" t="n">
-        <v>570134705</v>
-      </c>
-      <c r="E28" t="n">
-        <v>529456875</v>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>032750</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>삼진</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>205381040</v>
-      </c>
-      <c r="D29" t="n">
-        <v>309924470</v>
-      </c>
-      <c r="E29" t="n">
-        <v>515305510</v>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>226400</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>오스테오닉</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>-36817500</v>
-      </c>
-      <c r="D30" t="n">
-        <v>537308945</v>
-      </c>
-      <c r="E30" t="n">
-        <v>500491445</v>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>293780</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>압타바이오</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>676125500</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-191820960</v>
-      </c>
-      <c r="E31" t="n">
-        <v>484304540</v>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>011420</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>갤럭시아에스엠</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>14904380</v>
-      </c>
-      <c r="D32" t="n">
-        <v>466646945</v>
-      </c>
-      <c r="E32" t="n">
-        <v>481551325</v>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>056080</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>유진로봇</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>700790</v>
-      </c>
-      <c r="D33" t="n">
-        <v>475647750</v>
-      </c>
-      <c r="E33" t="n">
-        <v>476348540</v>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>032580</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>피델릭스</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>213948424</v>
-      </c>
-      <c r="D34" t="n">
-        <v>235278849</v>
-      </c>
-      <c r="E34" t="n">
-        <v>449227273</v>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>175140</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>인포마크</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>333902770</v>
-      </c>
-      <c r="D35" t="n">
-        <v>51804370</v>
-      </c>
-      <c r="E35" t="n">
-        <v>385707140</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>003280</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>흥아해운</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>22677827</v>
-      </c>
-      <c r="D36" t="n">
-        <v>335878957</v>
-      </c>
-      <c r="E36" t="n">
-        <v>358556784</v>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>069540</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>라이트론</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>497850290</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-191294415</v>
-      </c>
-      <c r="E37" t="n">
-        <v>306555875</v>
-      </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>003300</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>한일홀딩스</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>114934880</v>
-      </c>
-      <c r="D38" t="n">
-        <v>116933810</v>
-      </c>
-      <c r="E38" t="n">
-        <v>231868690</v>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>006880</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>신송홀딩스</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>-34577100</v>
-      </c>
-      <c r="D39" t="n">
-        <v>263096980</v>
-      </c>
-      <c r="E39" t="n">
-        <v>228519880</v>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>007980</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>태평양물산</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>87748587</v>
-      </c>
-      <c r="D40" t="n">
-        <v>120801842</v>
-      </c>
-      <c r="E40" t="n">
-        <v>208550429</v>
-      </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>081580</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>성우전자</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>-13002285</v>
-      </c>
-      <c r="D41" t="n">
-        <v>192411810</v>
-      </c>
-      <c r="E41" t="n">
-        <v>179409525</v>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>084730</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>팅크웨어</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>6125470</v>
-      </c>
-      <c r="D42" t="n">
-        <v>127387860</v>
-      </c>
-      <c r="E42" t="n">
-        <v>133513330</v>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>027710</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>팜스토리</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>-7664841</v>
-      </c>
-      <c r="D43" t="n">
-        <v>134375490</v>
-      </c>
-      <c r="E43" t="n">
-        <v>126710649</v>
-      </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>265740</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>엔에프씨</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>98734100</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-1884120</v>
-      </c>
-      <c r="E44" t="n">
-        <v>96849980</v>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>065570</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>삼영이엔씨</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>80341925</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-8352970</v>
-      </c>
-      <c r="E45" t="n">
-        <v>71988955</v>
-      </c>
-      <c r="F45" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>001290</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>상상인증권</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>29456277</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-17961635</v>
-      </c>
-      <c r="E46" t="n">
-        <v>11494642</v>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>281740</t>
+          <t>012450</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>레이크머티리얼즈</t>
+          <t>한화에어로스페이스</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7596945050</v>
+        <v>-10445972800</v>
       </c>
       <c r="D2" t="n">
-        <v>30360289900</v>
+        <v>128616548400</v>
       </c>
       <c r="E2" t="n">
-        <v>37957234950</v>
+        <v>118170575600</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>356860</t>
+          <t>047810</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>티엘비</t>
+          <t>한국항공우주</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16063575450</v>
+        <v>43951989500</v>
       </c>
       <c r="D3" t="n">
-        <v>3650034520</v>
+        <v>-1257989300</v>
       </c>
       <c r="E3" t="n">
-        <v>19713609970</v>
+        <v>42694000200</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>214150</t>
+          <t>000880</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>클래시스</t>
+          <t>한화</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-11959155150</v>
+        <v>7132702250</v>
       </c>
       <c r="D4" t="n">
-        <v>18363839200</v>
+        <v>31945945600</v>
       </c>
       <c r="E4" t="n">
-        <v>6404684050</v>
+        <v>39078647850</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>382800</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>지앤비에스 에코</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-628012640</v>
+        <v>103946176200</v>
       </c>
       <c r="D5" t="n">
-        <v>5514281170</v>
+        <v>-76216181150</v>
       </c>
       <c r="E5" t="n">
-        <v>4886268530</v>
+        <v>27729995050</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>051370</t>
+          <t>092230</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>인터플렉스</t>
+          <t>KPX홀딩스</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>101068990</v>
+        <v>21595046600</v>
       </c>
       <c r="D6" t="n">
-        <v>2459469210</v>
+        <v>-1832267600</v>
       </c>
       <c r="E6" t="n">
-        <v>2560538200</v>
+        <v>19762779000</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>009450</t>
+          <t>089970</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>경동나비엔</t>
+          <t>에이피티씨</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1391070500</v>
+        <v>10630879790</v>
       </c>
       <c r="D7" t="n">
-        <v>3764951100</v>
+        <v>-2240299340</v>
       </c>
       <c r="E7" t="n">
-        <v>2373880600</v>
+        <v>8390580450</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>019010</t>
+          <t>272210</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>베뉴지</t>
+          <t>한화시스템</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1092958690</v>
+        <v>-10794241480</v>
       </c>
       <c r="D8" t="n">
-        <v>84845385</v>
+        <v>17535671270</v>
       </c>
       <c r="E8" t="n">
-        <v>1177804075</v>
+        <v>6741429790</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>093640</t>
+          <t>297090</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>케이알엠</t>
+          <t>씨에스베어링</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1783078770</v>
+        <v>-567688770</v>
       </c>
       <c r="D9" t="n">
-        <v>2870426930</v>
+        <v>6799615970</v>
       </c>
       <c r="E9" t="n">
-        <v>1087348160</v>
+        <v>6231927200</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>003960</t>
+          <t>006890</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>사조대림</t>
+          <t>태경케미컬</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1098880050</v>
+        <v>318814080</v>
       </c>
       <c r="D10" t="n">
-        <v>-14876650</v>
+        <v>3688494110</v>
       </c>
       <c r="E10" t="n">
-        <v>1084003400</v>
+        <v>4007308190</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>086890</t>
+          <t>082920</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이수앱지스</t>
+          <t>비츠로셀</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>62066370</v>
+        <v>-1206322320</v>
       </c>
       <c r="D11" t="n">
-        <v>919906200</v>
+        <v>5187461350</v>
       </c>
       <c r="E11" t="n">
-        <v>981972570</v>
+        <v>3981139030</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>096350</t>
+          <t>101390</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>대창솔루션</t>
+          <t>아이엠</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>71844520</v>
+        <v>388666400</v>
       </c>
       <c r="D12" t="n">
-        <v>853901195</v>
+        <v>3424597150</v>
       </c>
       <c r="E12" t="n">
-        <v>925745715</v>
+        <v>3813263550</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>072950</t>
+          <t>064960</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>빛샘전자</t>
+          <t>SNT모티브</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>21695945</v>
+        <v>-1065081100</v>
       </c>
       <c r="D13" t="n">
-        <v>645589185</v>
+        <v>4854083000</v>
       </c>
       <c r="E13" t="n">
-        <v>667285130</v>
+        <v>3789001900</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>095270</t>
+          <t>008260</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>웨이브일렉트로</t>
+          <t>NI스틸</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1237764260</v>
+        <v>702529990</v>
       </c>
       <c r="D14" t="n">
-        <v>-596189840</v>
+        <v>2484536810</v>
       </c>
       <c r="E14" t="n">
-        <v>641574420</v>
+        <v>3187066800</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>294630</t>
+          <t>086710</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>서남</t>
+          <t>선진뷰티사이언스</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>135327670</v>
+        <v>607124280</v>
       </c>
       <c r="D15" t="n">
-        <v>397296350</v>
+        <v>786411970</v>
       </c>
       <c r="E15" t="n">
-        <v>532624020</v>
+        <v>1393536250</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>230980</t>
+          <t>311320</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>에이트원</t>
+          <t>지오엘리먼트</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>103142986</v>
+        <v>266676320</v>
       </c>
       <c r="D16" t="n">
-        <v>404296197</v>
+        <v>1070386390</v>
       </c>
       <c r="E16" t="n">
-        <v>507439183</v>
+        <v>1337062710</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>352940</t>
+          <t>006490</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>인바이오</t>
+          <t>인스코비</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-74428545</v>
+        <v>-1368031430</v>
       </c>
       <c r="D17" t="n">
-        <v>534133565</v>
+        <v>2567061666</v>
       </c>
       <c r="E17" t="n">
-        <v>459705020</v>
+        <v>1199030236</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>186230</t>
+          <t>215360</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>그린플러스</t>
+          <t>우리산업</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-69005850</v>
+        <v>346637430</v>
       </c>
       <c r="D18" t="n">
-        <v>436872500</v>
+        <v>833122710</v>
       </c>
       <c r="E18" t="n">
-        <v>367866650</v>
+        <v>1179760140</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>032580</t>
+          <t>041440</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>피델릭스</t>
+          <t>현대에버다임</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>100127034</v>
+        <v>463376200</v>
       </c>
       <c r="D19" t="n">
-        <v>190413574</v>
+        <v>634391080</v>
       </c>
       <c r="E19" t="n">
-        <v>290540608</v>
+        <v>1097767280</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>297570</t>
+          <t>150900</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>알로이스</t>
+          <t>파수</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>10125700</v>
+        <v>-257350480</v>
       </c>
       <c r="D20" t="n">
-        <v>247580660</v>
+        <v>1162488010</v>
       </c>
       <c r="E20" t="n">
-        <v>257706360</v>
+        <v>905137530</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>035890</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>호전실업</t>
+          <t>서희건설</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-50011030</v>
+        <v>1147769265</v>
       </c>
       <c r="D21" t="n">
-        <v>301757290</v>
+        <v>-262023339</v>
       </c>
       <c r="E21" t="n">
-        <v>251746260</v>
+        <v>885745926</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>041830</t>
+          <t>054930</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>인바디</t>
+          <t>유신</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-298552600</v>
+        <v>-58464700</v>
       </c>
       <c r="D22" t="n">
-        <v>528572350</v>
+        <v>878019100</v>
       </c>
       <c r="E22" t="n">
-        <v>230019750</v>
+        <v>819554400</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>351320</t>
+          <t>017550</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>에스에이티이엔지</t>
+          <t>수산중공업</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8353915</v>
+        <v>-32961545</v>
       </c>
       <c r="D23" t="n">
-        <v>194407705</v>
+        <v>781468215</v>
       </c>
       <c r="E23" t="n">
-        <v>202761620</v>
+        <v>748506670</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>065650</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>메디프론</t>
+          <t>한국프랜지</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1744164</v>
+        <v>-470439965</v>
       </c>
       <c r="D24" t="n">
-        <v>147873168</v>
+        <v>1142285350</v>
       </c>
       <c r="E24" t="n">
-        <v>149617332</v>
+        <v>671845385</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>001000</t>
+          <t>001260</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>신라섬유</t>
+          <t>남광토건</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7611150</v>
+        <v>-21896520</v>
       </c>
       <c r="D25" t="n">
-        <v>115606305</v>
+        <v>682897730</v>
       </c>
       <c r="E25" t="n">
-        <v>123217455</v>
+        <v>661001210</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,25 +1047,529 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>059090</t>
+          <t>087010</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>미코</t>
+          <t>펩트론</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-409821990</v>
+        <v>-856646540</v>
       </c>
       <c r="D26" t="n">
-        <v>519146060</v>
+        <v>1273864480</v>
       </c>
       <c r="E26" t="n">
-        <v>109324070</v>
+        <v>417217940</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>013360</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>일성건설</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-14405445</v>
+      </c>
+      <c r="D27" t="n">
+        <v>405546460</v>
+      </c>
+      <c r="E27" t="n">
+        <v>391141015</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>042370</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>비츠로테크</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-62891810</v>
+      </c>
+      <c r="D28" t="n">
+        <v>453718610</v>
+      </c>
+      <c r="E28" t="n">
+        <v>390826800</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>058730</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>다스코</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>289441425</v>
+      </c>
+      <c r="D29" t="n">
+        <v>84049920</v>
+      </c>
+      <c r="E29" t="n">
+        <v>373491345</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>187870</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>디바이스이엔지</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-105229890</v>
+      </c>
+      <c r="D30" t="n">
+        <v>463076080</v>
+      </c>
+      <c r="E30" t="n">
+        <v>357846190</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>147760</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>피엠티</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-139068120</v>
+      </c>
+      <c r="D31" t="n">
+        <v>458395265</v>
+      </c>
+      <c r="E31" t="n">
+        <v>319327145</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>019770</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>서연탑메탈</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>11575695</v>
+      </c>
+      <c r="D32" t="n">
+        <v>253073080</v>
+      </c>
+      <c r="E32" t="n">
+        <v>264648775</v>
+      </c>
+      <c r="F32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>109610</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>에스와이</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>278343990</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-61308015</v>
+      </c>
+      <c r="E33" t="n">
+        <v>217035975</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>071460</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>위니아</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>23991885</v>
+      </c>
+      <c r="D34" t="n">
+        <v>189957775</v>
+      </c>
+      <c r="E34" t="n">
+        <v>213949660</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>045340</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>토탈소프트</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>-6403735</v>
+      </c>
+      <c r="D35" t="n">
+        <v>176468370</v>
+      </c>
+      <c r="E35" t="n">
+        <v>170064635</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>317240</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TS트릴리온</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>24980858</v>
+      </c>
+      <c r="D36" t="n">
+        <v>130285973</v>
+      </c>
+      <c r="E36" t="n">
+        <v>155266831</v>
+      </c>
+      <c r="F36" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>018310</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>삼목에스폼</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>95920210</v>
+      </c>
+      <c r="D37" t="n">
+        <v>56241530</v>
+      </c>
+      <c r="E37" t="n">
+        <v>152161740</v>
+      </c>
+      <c r="F37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>017510</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>세명전기</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>-1802875</v>
+      </c>
+      <c r="D38" t="n">
+        <v>128549735</v>
+      </c>
+      <c r="E38" t="n">
+        <v>126746860</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>091440</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>텔레필드</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>-16374380</v>
+      </c>
+      <c r="D39" t="n">
+        <v>128058425</v>
+      </c>
+      <c r="E39" t="n">
+        <v>111684045</v>
+      </c>
+      <c r="F39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>088290</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>이원컴포텍</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>157026440</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-63896160</v>
+      </c>
+      <c r="E40" t="n">
+        <v>93130280</v>
+      </c>
+      <c r="F40" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>004960</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>한신공영</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>-54735890</v>
+      </c>
+      <c r="D41" t="n">
+        <v>118430480</v>
+      </c>
+      <c r="E41" t="n">
+        <v>63694590</v>
+      </c>
+      <c r="F41" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>192390</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>윈하이텍</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>40178325</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-8487805</v>
+      </c>
+      <c r="E42" t="n">
+        <v>31690520</v>
+      </c>
+      <c r="F42" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>007110</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>일신석재</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>-153148937</v>
+      </c>
+      <c r="D43" t="n">
+        <v>179291961</v>
+      </c>
+      <c r="E43" t="n">
+        <v>26143024</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>129260</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>인터지스</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>25619085</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-8431775</v>
+      </c>
+      <c r="E44" t="n">
+        <v>17187310</v>
+      </c>
+      <c r="F44" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>017000</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>신원종합개발</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>-26078245</v>
+      </c>
+      <c r="D45" t="n">
+        <v>31831470</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5753225</v>
+      </c>
+      <c r="F45" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>066900</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>디에이피</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>-21972780</v>
+      </c>
+      <c r="D46" t="n">
+        <v>24499725</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2526945</v>
+      </c>
+      <c r="F46" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>039420</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>케이엘넷</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>-14459360</v>
+      </c>
+      <c r="D47" t="n">
+        <v>15037640</v>
+      </c>
+      <c r="E47" t="n">
+        <v>578280</v>
+      </c>
+      <c r="F47" t="n">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>012450</t>
+          <t>042670</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>한화에어로스페이스</t>
+          <t>HD현대인프라코어</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-10445972800</v>
+        <v>47148547940</v>
       </c>
       <c r="D2" t="n">
-        <v>128616548400</v>
+        <v>-2506527390</v>
       </c>
       <c r="E2" t="n">
-        <v>118170575600</v>
+        <v>44642020550</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>047810</t>
+          <t>178320</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>한국항공우주</t>
+          <t>서진시스템</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>43951989500</v>
+        <v>-1965133390</v>
       </c>
       <c r="D3" t="n">
-        <v>-1257989300</v>
+        <v>30425410020</v>
       </c>
       <c r="E3" t="n">
-        <v>42694000200</v>
+        <v>28460276630</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000880</t>
+          <t>225570</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>한화</t>
+          <t>넥슨게임즈</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7132702250</v>
+        <v>-3504201690</v>
       </c>
       <c r="D4" t="n">
-        <v>31945945600</v>
+        <v>29535167450</v>
       </c>
       <c r="E4" t="n">
-        <v>39078647850</v>
+        <v>26030965760</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>011780</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>금호석유</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>103946176200</v>
+        <v>23827110100</v>
       </c>
       <c r="D5" t="n">
-        <v>-76216181150</v>
+        <v>-886597500</v>
       </c>
       <c r="E5" t="n">
-        <v>27729995050</v>
+        <v>22940512600</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>092230</t>
+          <t>052690</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KPX홀딩스</t>
+          <t>한전기술</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21595046600</v>
+        <v>12719394100</v>
       </c>
       <c r="D6" t="n">
-        <v>-1832267600</v>
+        <v>10193894000</v>
       </c>
       <c r="E6" t="n">
-        <v>19762779000</v>
+        <v>22913288100</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>089970</t>
+          <t>950140</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>에이피티씨</t>
+          <t>잉글우드랩</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10630879790</v>
+        <v>-590304550</v>
       </c>
       <c r="D7" t="n">
-        <v>-2240299340</v>
+        <v>10606583920</v>
       </c>
       <c r="E7" t="n">
-        <v>8390580450</v>
+        <v>10016279370</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>272210</t>
+          <t>298020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>한화시스템</t>
+          <t>효성티앤씨</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-10794241480</v>
+        <v>-8655251500</v>
       </c>
       <c r="D8" t="n">
-        <v>17535671270</v>
+        <v>16204185500</v>
       </c>
       <c r="E8" t="n">
-        <v>6741429790</v>
+        <v>7548934000</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>297090</t>
+          <t>036930</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>씨에스베어링</t>
+          <t>주성엔지니어링</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-567688770</v>
+        <v>6256711790</v>
       </c>
       <c r="D9" t="n">
-        <v>6799615970</v>
+        <v>-677972110</v>
       </c>
       <c r="E9" t="n">
-        <v>6231927200</v>
+        <v>5578739680</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>006890</t>
+          <t>182360</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>태경케미컬</t>
+          <t>큐브엔터</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>318814080</v>
+        <v>2339405840</v>
       </c>
       <c r="D10" t="n">
-        <v>3688494110</v>
+        <v>2311540250</v>
       </c>
       <c r="E10" t="n">
-        <v>4007308190</v>
+        <v>4650946090</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>082920</t>
+          <t>033230</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>비츠로셀</t>
+          <t>인성정보</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1206322320</v>
+        <v>6651508170</v>
       </c>
       <c r="D11" t="n">
-        <v>5187461350</v>
+        <v>-2145662515</v>
       </c>
       <c r="E11" t="n">
-        <v>3981139030</v>
+        <v>4505845655</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>101390</t>
+          <t>042520</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>아이엠</t>
+          <t>한스바이오메드</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>388666400</v>
+        <v>1175061260</v>
       </c>
       <c r="D12" t="n">
-        <v>3424597150</v>
+        <v>3028842030</v>
       </c>
       <c r="E12" t="n">
-        <v>3813263550</v>
+        <v>4203903290</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>064960</t>
+          <t>094170</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SNT모티브</t>
+          <t>동운아나텍</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1065081100</v>
+        <v>242949920</v>
       </c>
       <c r="D13" t="n">
-        <v>4854083000</v>
+        <v>3151159700</v>
       </c>
       <c r="E13" t="n">
-        <v>3789001900</v>
+        <v>3394109620</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>008260</t>
+          <t>032850</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NI스틸</t>
+          <t>비트컴퓨터</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>702529990</v>
+        <v>317007550</v>
       </c>
       <c r="D14" t="n">
-        <v>2484536810</v>
+        <v>2229556020</v>
       </c>
       <c r="E14" t="n">
-        <v>3187066800</v>
+        <v>2546563570</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>086710</t>
+          <t>034830</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>선진뷰티사이언스</t>
+          <t>한국토지신탁</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>607124280</v>
+        <v>735949571</v>
       </c>
       <c r="D15" t="n">
-        <v>786411970</v>
+        <v>1181039967</v>
       </c>
       <c r="E15" t="n">
-        <v>1393536250</v>
+        <v>1916989538</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>311320</t>
+          <t>232140</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>지오엘리먼트</t>
+          <t>와이아이케이</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>266676320</v>
+        <v>625962240</v>
       </c>
       <c r="D16" t="n">
-        <v>1070386390</v>
+        <v>1073204920</v>
       </c>
       <c r="E16" t="n">
-        <v>1337062710</v>
+        <v>1699167160</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>006490</t>
+          <t>099430</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>인스코비</t>
+          <t>바이오플러스</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1368031430</v>
+        <v>-3112226510</v>
       </c>
       <c r="D17" t="n">
-        <v>2567061666</v>
+        <v>4669232140</v>
       </c>
       <c r="E17" t="n">
-        <v>1199030236</v>
+        <v>1557005630</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>215360</t>
+          <t>281820</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>우리산업</t>
+          <t>케이씨텍</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>346637430</v>
+        <v>274105160</v>
       </c>
       <c r="D18" t="n">
-        <v>833122710</v>
+        <v>1100599930</v>
       </c>
       <c r="E18" t="n">
-        <v>1179760140</v>
+        <v>1374705090</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>041440</t>
+          <t>025980</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>현대에버다임</t>
+          <t>아난티</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>463376200</v>
+        <v>-1296875750</v>
       </c>
       <c r="D19" t="n">
-        <v>634391080</v>
+        <v>2551588040</v>
       </c>
       <c r="E19" t="n">
-        <v>1097767280</v>
+        <v>1254712290</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>150900</t>
+          <t>092200</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>파수</t>
+          <t>디아이씨</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-257350480</v>
+        <v>522315825</v>
       </c>
       <c r="D20" t="n">
-        <v>1162488010</v>
+        <v>718733170</v>
       </c>
       <c r="E20" t="n">
-        <v>905137530</v>
+        <v>1241048995</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>035890</t>
+          <t>072770</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>서희건설</t>
+          <t>율호</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1147769265</v>
+        <v>-213756220</v>
       </c>
       <c r="D21" t="n">
-        <v>-262023339</v>
+        <v>1375740025</v>
       </c>
       <c r="E21" t="n">
-        <v>885745926</v>
+        <v>1161983805</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>054930</t>
+          <t>027050</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>유신</t>
+          <t>코리아나</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-58464700</v>
+        <v>1346153185</v>
       </c>
       <c r="D22" t="n">
-        <v>878019100</v>
+        <v>-262807365</v>
       </c>
       <c r="E22" t="n">
-        <v>819554400</v>
+        <v>1083345820</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>017550</t>
+          <t>196300</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>수산중공업</t>
+          <t>애니젠</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-32961545</v>
+        <v>-20987090</v>
       </c>
       <c r="D23" t="n">
-        <v>781468215</v>
+        <v>955453470</v>
       </c>
       <c r="E23" t="n">
-        <v>748506670</v>
+        <v>934466380</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>032680</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>한국프랜지</t>
+          <t>소프트센</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-470439965</v>
+        <v>389362837</v>
       </c>
       <c r="D24" t="n">
-        <v>1142285350</v>
+        <v>390187273</v>
       </c>
       <c r="E24" t="n">
-        <v>671845385</v>
+        <v>779550110</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>001260</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>남광토건</t>
+          <t>한국프랜지</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-21896520</v>
+        <v>-469308320</v>
       </c>
       <c r="D25" t="n">
-        <v>682897730</v>
+        <v>1076447915</v>
       </c>
       <c r="E25" t="n">
-        <v>661001210</v>
+        <v>607139595</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>087010</t>
+          <t>004090</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>펩트론</t>
+          <t>한국석유</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-856646540</v>
+        <v>129165830</v>
       </c>
       <c r="D26" t="n">
-        <v>1273864480</v>
+        <v>374903910</v>
       </c>
       <c r="E26" t="n">
-        <v>417217940</v>
+        <v>504069740</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>013360</t>
+          <t>337930</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>일성건설</t>
+          <t>브랜드엑스코퍼레이션</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-14405445</v>
+        <v>-1464448845</v>
       </c>
       <c r="D27" t="n">
-        <v>405546460</v>
+        <v>1913471515</v>
       </c>
       <c r="E27" t="n">
-        <v>391141015</v>
+        <v>449022670</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>042370</t>
+          <t>123890</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>비츠로테크</t>
+          <t>한국자산신탁</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-62891810</v>
+        <v>465141870</v>
       </c>
       <c r="D28" t="n">
-        <v>453718610</v>
+        <v>-29222935</v>
       </c>
       <c r="E28" t="n">
-        <v>390826800</v>
+        <v>435918935</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,22 +1119,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>058730</t>
+          <t>007160</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>다스코</t>
+          <t>사조산업</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>289441425</v>
+        <v>1314197250</v>
       </c>
       <c r="D29" t="n">
-        <v>84049920</v>
+        <v>-909941100</v>
       </c>
       <c r="E29" t="n">
-        <v>373491345</v>
+        <v>404256150</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1143,22 +1143,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>187870</t>
+          <t>033270</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>디바이스이엔지</t>
+          <t>유나이티드제약</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-105229890</v>
+        <v>-438764150</v>
       </c>
       <c r="D30" t="n">
-        <v>463076080</v>
+        <v>783283250</v>
       </c>
       <c r="E30" t="n">
-        <v>357846190</v>
+        <v>344519100</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
@@ -1167,22 +1167,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>147760</t>
+          <t>071850</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>피엠티</t>
+          <t>캐스텍코리아</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-139068120</v>
+        <v>-20930665</v>
       </c>
       <c r="D31" t="n">
-        <v>458395265</v>
+        <v>310136905</v>
       </c>
       <c r="E31" t="n">
-        <v>319327145</v>
+        <v>289206240</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
@@ -1191,22 +1191,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>019770</t>
+          <t>267790</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>서연탑메탈</t>
+          <t>배럴</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11575695</v>
+        <v>-1068600</v>
       </c>
       <c r="D32" t="n">
-        <v>253073080</v>
+        <v>274443650</v>
       </c>
       <c r="E32" t="n">
-        <v>264648775</v>
+        <v>273375050</v>
       </c>
       <c r="F32" t="n">
         <v>31</v>
@@ -1215,22 +1215,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>109610</t>
+          <t>226340</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>에스와이</t>
+          <t>본느</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>278343990</v>
+        <v>35496772</v>
       </c>
       <c r="D33" t="n">
-        <v>-61308015</v>
+        <v>233161872</v>
       </c>
       <c r="E33" t="n">
-        <v>217035975</v>
+        <v>268658644</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
@@ -1239,22 +1239,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>071460</t>
+          <t>009310</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>위니아</t>
+          <t>참엔지니어링</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>23991885</v>
+        <v>3915664</v>
       </c>
       <c r="D34" t="n">
-        <v>189957775</v>
+        <v>261551028</v>
       </c>
       <c r="E34" t="n">
-        <v>213949660</v>
+        <v>265466692</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
@@ -1263,22 +1263,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>045340</t>
+          <t>001880</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>토탈소프트</t>
+          <t>DL건설</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-6403735</v>
+        <v>324576490</v>
       </c>
       <c r="D35" t="n">
-        <v>176468370</v>
+        <v>-118663270</v>
       </c>
       <c r="E35" t="n">
-        <v>170064635</v>
+        <v>205913220</v>
       </c>
       <c r="F35" t="n">
         <v>34</v>
@@ -1287,22 +1287,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>317240</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TS트릴리온</t>
+          <t>오리엔트바이오</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>24980858</v>
+        <v>20307793</v>
       </c>
       <c r="D36" t="n">
-        <v>130285973</v>
+        <v>173135995</v>
       </c>
       <c r="E36" t="n">
-        <v>155266831</v>
+        <v>193443788</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
@@ -1311,22 +1311,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>018310</t>
+          <t>302550</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>삼목에스폼</t>
+          <t>리메드</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>95920210</v>
+        <v>184712460</v>
       </c>
       <c r="D37" t="n">
-        <v>56241530</v>
+        <v>-63681890</v>
       </c>
       <c r="E37" t="n">
-        <v>152161740</v>
+        <v>121030570</v>
       </c>
       <c r="F37" t="n">
         <v>36</v>
@@ -1335,22 +1335,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>017510</t>
+          <t>115610</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>세명전기</t>
+          <t>이미지스</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1802875</v>
+        <v>158278965</v>
       </c>
       <c r="D38" t="n">
-        <v>128549735</v>
+        <v>-60359110</v>
       </c>
       <c r="E38" t="n">
-        <v>126746860</v>
+        <v>97919855</v>
       </c>
       <c r="F38" t="n">
         <v>37</v>
@@ -1359,22 +1359,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>091440</t>
+          <t>018700</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>텔레필드</t>
+          <t>바른손</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-16374380</v>
+        <v>300971115</v>
       </c>
       <c r="D39" t="n">
-        <v>128058425</v>
+        <v>-217373755</v>
       </c>
       <c r="E39" t="n">
-        <v>111684045</v>
+        <v>83597360</v>
       </c>
       <c r="F39" t="n">
         <v>38</v>
@@ -1383,22 +1383,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>088290</t>
+          <t>020180</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>이원컴포텍</t>
+          <t>대신정보통신</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>157026440</v>
+        <v>17724923</v>
       </c>
       <c r="D40" t="n">
-        <v>-63896160</v>
+        <v>61540797</v>
       </c>
       <c r="E40" t="n">
-        <v>93130280</v>
+        <v>79265720</v>
       </c>
       <c r="F40" t="n">
         <v>39</v>
@@ -1407,22 +1407,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>004960</t>
+          <t>333430</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한신공영</t>
+          <t>일승</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-54735890</v>
+        <v>227908830</v>
       </c>
       <c r="D41" t="n">
-        <v>118430480</v>
+        <v>-152451365</v>
       </c>
       <c r="E41" t="n">
-        <v>63694590</v>
+        <v>75457465</v>
       </c>
       <c r="F41" t="n">
         <v>40</v>
@@ -1431,22 +1431,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>192390</t>
+          <t>054410</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>윈하이텍</t>
+          <t>케이피티유</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40178325</v>
+        <v>25371130</v>
       </c>
       <c r="D42" t="n">
-        <v>-8487805</v>
+        <v>17189750</v>
       </c>
       <c r="E42" t="n">
-        <v>31690520</v>
+        <v>42560880</v>
       </c>
       <c r="F42" t="n">
         <v>41</v>
@@ -1455,22 +1455,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>007110</t>
+          <t>044820</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>일신석재</t>
+          <t>코스맥스비티아이</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-153148937</v>
+        <v>26393110</v>
       </c>
       <c r="D43" t="n">
-        <v>179291961</v>
+        <v>16043490</v>
       </c>
       <c r="E43" t="n">
-        <v>26143024</v>
+        <v>42436600</v>
       </c>
       <c r="F43" t="n">
         <v>42</v>
@@ -1479,22 +1479,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>129260</t>
+          <t>053260</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>인터지스</t>
+          <t>금강철강</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>25619085</v>
+        <v>1869230</v>
       </c>
       <c r="D44" t="n">
-        <v>-8431775</v>
+        <v>38600140</v>
       </c>
       <c r="E44" t="n">
-        <v>17187310</v>
+        <v>40469370</v>
       </c>
       <c r="F44" t="n">
         <v>43</v>
@@ -1503,22 +1503,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>017000</t>
+          <t>323230</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>신원종합개발</t>
+          <t>엠에프엠코리아</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-26078245</v>
+        <v>-23119385</v>
       </c>
       <c r="D45" t="n">
-        <v>31831470</v>
+        <v>59569223</v>
       </c>
       <c r="E45" t="n">
-        <v>5753225</v>
+        <v>36449838</v>
       </c>
       <c r="F45" t="n">
         <v>44</v>
@@ -1527,22 +1527,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>066900</t>
+          <t>065500</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>디에이피</t>
+          <t>오리엔트정공</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-21972780</v>
+        <v>4029672</v>
       </c>
       <c r="D46" t="n">
-        <v>24499725</v>
+        <v>32203433</v>
       </c>
       <c r="E46" t="n">
-        <v>2526945</v>
+        <v>36233105</v>
       </c>
       <c r="F46" t="n">
         <v>45</v>
@@ -1551,25 +1551,49 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>039420</t>
+          <t>214330</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>케이엘넷</t>
+          <t>금호에이치티</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-14459360</v>
+        <v>79868994</v>
       </c>
       <c r="D47" t="n">
-        <v>15037640</v>
+        <v>-46111328</v>
       </c>
       <c r="E47" t="n">
-        <v>578280</v>
+        <v>33757666</v>
       </c>
       <c r="F47" t="n">
         <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>079650</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>서산</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>44412881</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-24933471</v>
+      </c>
+      <c r="E48" t="n">
+        <v>19479410</v>
+      </c>
+      <c r="F48" t="n">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47148547940</v>
+        <v>443</v>
       </c>
       <c r="D2" t="n">
-        <v>-2506527390</v>
+        <v>-17</v>
       </c>
       <c r="E2" t="n">
-        <v>44642020550</v>
+        <v>425</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1965133390</v>
+        <v>-8</v>
       </c>
       <c r="D3" t="n">
-        <v>30425410020</v>
+        <v>309</v>
       </c>
       <c r="E3" t="n">
-        <v>28460276630</v>
+        <v>300</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3504201690</v>
+        <v>-14</v>
       </c>
       <c r="D4" t="n">
-        <v>29535167450</v>
+        <v>306</v>
       </c>
       <c r="E4" t="n">
-        <v>26030965760</v>
+        <v>291</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>011780</t>
+          <t>052690</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>금호석유</t>
+          <t>한전기술</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23827110100</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>-886597500</v>
+        <v>98</v>
       </c>
       <c r="E5" t="n">
-        <v>22940512600</v>
+        <v>200</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>052690</t>
+          <t>011780</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>한전기술</t>
+          <t>금호석유</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12719394100</v>
+        <v>250</v>
       </c>
       <c r="D6" t="n">
-        <v>10193894000</v>
+        <v>-98</v>
       </c>
       <c r="E6" t="n">
-        <v>22913288100</v>
+        <v>151</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>950140</t>
+          <t>182360</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>잉글우드랩</t>
+          <t>큐브엔터</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-590304550</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>10606583920</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>10016279370</v>
+        <v>84</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -624,13 +624,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-8655251500</v>
+        <v>-50</v>
       </c>
       <c r="D8" t="n">
-        <v>16204185500</v>
+        <v>124</v>
       </c>
       <c r="E8" t="n">
-        <v>7548934000</v>
+        <v>74</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>036930</t>
+          <t>950140</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>주성엔지니어링</t>
+          <t>잉글우드랩</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6256711790</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>-677972110</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>5578739680</v>
+        <v>64</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>182360</t>
+          <t>042520</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>큐브엔터</t>
+          <t>한스바이오메드</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2339405840</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>2311540250</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>4650946090</v>
+        <v>48</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6651508170</v>
+        <v>66</v>
       </c>
       <c r="D11" t="n">
-        <v>-2145662515</v>
+        <v>-28</v>
       </c>
       <c r="E11" t="n">
-        <v>4505845655</v>
+        <v>37</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>042520</t>
+          <t>094170</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>한스바이오메드</t>
+          <t>동운아나텍</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1175061260</v>
+        <v>10</v>
       </c>
       <c r="D12" t="n">
-        <v>3028842030</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>4203903290</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>094170</t>
+          <t>361570</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>동운아나텍</t>
+          <t>알비더블유</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>242949920</v>
+        <v>-15</v>
       </c>
       <c r="D13" t="n">
-        <v>3151159700</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
-        <v>3394109620</v>
+        <v>25</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>032850</t>
+          <t>025980</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>비트컴퓨터</t>
+          <t>아난티</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>317007550</v>
+        <v>-10</v>
       </c>
       <c r="D14" t="n">
-        <v>2229556020</v>
+        <v>32</v>
       </c>
       <c r="E14" t="n">
-        <v>2546563570</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>034830</t>
+          <t>032850</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>한국토지신탁</t>
+          <t>비트컴퓨터</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>735949571</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1181039967</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>1916989538</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>232140</t>
+          <t>196300</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>와이아이케이</t>
+          <t>애니젠</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>625962240</v>
+        <v>-2</v>
       </c>
       <c r="D16" t="n">
-        <v>1073204920</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>1699167160</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>099430</t>
+          <t>281820</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>바이오플러스</t>
+          <t>케이씨텍</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-3112226510</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>4669232140</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>1557005630</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>281820</t>
+          <t>232140</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>케이씨텍</t>
+          <t>와이아이케이</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>274105160</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1100599930</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>1374705090</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>025980</t>
+          <t>027050</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>아난티</t>
+          <t>코리아나</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1296875750</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>2551588040</v>
+        <v>-4</v>
       </c>
       <c r="E19" t="n">
-        <v>1254712290</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>522315825</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>718733170</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>1241048995</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>072770</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>율호</t>
+          <t>한국프랜지</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-213756220</v>
+        <v>-4</v>
       </c>
       <c r="D21" t="n">
-        <v>1375740025</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
-        <v>1161983805</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>027050</t>
+          <t>004090</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>코리아나</t>
+          <t>한국석유</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1346153185</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-262807365</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1083345820</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>196300</t>
+          <t>007160</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>애니젠</t>
+          <t>사조산업</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-20987090</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>955453470</v>
+        <v>-8</v>
       </c>
       <c r="E23" t="n">
-        <v>934466380</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -1008,13 +1008,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>389362837</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>390187273</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>779550110</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>214330</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한국프랜지</t>
+          <t>금호에이치티</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-469308320</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1076447915</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>607139595</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>004090</t>
+          <t>009310</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한국석유</t>
+          <t>참엔지니어링</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>129165830</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>374903910</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>504069740</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>337930</t>
+          <t>226340</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>브랜드엑스코퍼레이션</t>
+          <t>본느</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1464448845</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1913471515</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>449022670</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>123890</t>
+          <t>020180</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한국자산신탁</t>
+          <t>대신정보통신</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>465141870</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-29222935</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>435918935</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,22 +1119,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>007160</t>
+          <t>123890</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>사조산업</t>
+          <t>한국자산신탁</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1314197250</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>-909941100</v>
+        <v>-2</v>
       </c>
       <c r="E29" t="n">
-        <v>404256150</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1143,22 +1143,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>033270</t>
+          <t>018700</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>유나이티드제약</t>
+          <t>바른손</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-438764150</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>783283250</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>344519100</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
@@ -1176,13 +1176,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-20930665</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>310136905</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>289206240</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-1068600</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>274443650</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>273375050</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>31</v>
@@ -1215,22 +1215,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>226340</t>
+          <t>065500</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>본느</t>
+          <t>오리엔트정공</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35496772</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>233161872</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>268658644</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
@@ -1239,22 +1239,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>009310</t>
+          <t>099430</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>참엔지니어링</t>
+          <t>바이오플러스</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3915664</v>
+        <v>-29</v>
       </c>
       <c r="D34" t="n">
-        <v>261551028</v>
+        <v>30</v>
       </c>
       <c r="E34" t="n">
-        <v>265466692</v>
+        <v>1</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
@@ -1263,22 +1263,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>001880</t>
+          <t>115610</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DL건설</t>
+          <t>이미지스</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>324576490</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>-118663270</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>205913220</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>34</v>
@@ -1287,313 +1287,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>226320</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>오리엔트바이오</t>
+          <t>잇츠한불</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>20307793</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>173135995</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>193443788</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>302550</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>리메드</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>184712460</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-63681890</v>
-      </c>
-      <c r="E37" t="n">
-        <v>121030570</v>
-      </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>115610</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>이미지스</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>158278965</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-60359110</v>
-      </c>
-      <c r="E38" t="n">
-        <v>97919855</v>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>018700</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>바른손</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>300971115</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-217373755</v>
-      </c>
-      <c r="E39" t="n">
-        <v>83597360</v>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>020180</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>대신정보통신</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>17724923</v>
-      </c>
-      <c r="D40" t="n">
-        <v>61540797</v>
-      </c>
-      <c r="E40" t="n">
-        <v>79265720</v>
-      </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>333430</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>일승</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>227908830</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-152451365</v>
-      </c>
-      <c r="E41" t="n">
-        <v>75457465</v>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>054410</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>케이피티유</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>25371130</v>
-      </c>
-      <c r="D42" t="n">
-        <v>17189750</v>
-      </c>
-      <c r="E42" t="n">
-        <v>42560880</v>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>044820</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>코스맥스비티아이</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>26393110</v>
-      </c>
-      <c r="D43" t="n">
-        <v>16043490</v>
-      </c>
-      <c r="E43" t="n">
-        <v>42436600</v>
-      </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>053260</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>금강철강</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1869230</v>
-      </c>
-      <c r="D44" t="n">
-        <v>38600140</v>
-      </c>
-      <c r="E44" t="n">
-        <v>40469370</v>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>323230</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>엠에프엠코리아</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>-23119385</v>
-      </c>
-      <c r="D45" t="n">
-        <v>59569223</v>
-      </c>
-      <c r="E45" t="n">
-        <v>36449838</v>
-      </c>
-      <c r="F45" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>065500</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>오리엔트정공</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>4029672</v>
-      </c>
-      <c r="D46" t="n">
-        <v>32203433</v>
-      </c>
-      <c r="E46" t="n">
-        <v>36233105</v>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>214330</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>금호에이치티</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>79868994</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-46111328</v>
-      </c>
-      <c r="E47" t="n">
-        <v>33757666</v>
-      </c>
-      <c r="F47" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>079650</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>서산</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>44412881</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-24933471</v>
-      </c>
-      <c r="E48" t="n">
-        <v>19479410</v>
-      </c>
-      <c r="F48" t="n">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>042670</t>
+          <t>007340</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HD현대인프라코어</t>
+          <t>DN오토모티브</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>443</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>-17</v>
+        <v>65</v>
       </c>
       <c r="E2" t="n">
-        <v>425</v>
+        <v>102</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>178320</t>
+          <t>009450</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>서진시스템</t>
+          <t>경동나비엔</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-8</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>309</v>
+        <v>58</v>
       </c>
       <c r="E3" t="n">
-        <v>300</v>
+        <v>81</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>225570</t>
+          <t>322510</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>넥슨게임즈</t>
+          <t>제이엘케이</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-14</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="E4" t="n">
-        <v>291</v>
+        <v>58</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>052690</t>
+          <t>001780</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>한전기술</t>
+          <t>알루코</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>011780</t>
+          <t>357780</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>금호석유</t>
+          <t>솔브레인</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>-98</v>
+        <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>182360</t>
+          <t>083930</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>큐브엔터</t>
+          <t>아바코</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>-110</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="E7" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>298020</t>
+          <t>117730</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>효성티앤씨</t>
+          <t>티로보틱스</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-50</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>950140</t>
+          <t>251970</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>잉글우드랩</t>
+          <t>펌텍코리아</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="n">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>042520</t>
+          <t>271940</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>한스바이오메드</t>
+          <t>일진하이솔루스</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>-21</v>
+      </c>
+      <c r="D10" t="n">
+        <v>44</v>
+      </c>
+      <c r="E10" t="n">
         <v>23</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>48</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>033230</t>
+          <t>090850</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>인성정보</t>
+          <t>현대이지웰</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D11" t="n">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>094170</t>
+          <t>089010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>동운아나텍</t>
+          <t>켐트로닉스</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>361570</t>
+          <t>101170</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>알비더블유</t>
+          <t>우림피티에스</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>025980</t>
+          <t>110990</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>아난티</t>
+          <t>디아이티</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>032850</t>
+          <t>236810</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>비트컴퓨터</t>
+          <t>엔비티</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>196300</t>
+          <t>063170</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>애니젠</t>
+          <t>서울옥션</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>-4</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>281820</t>
+          <t>311390</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>케이씨텍</t>
+          <t>네오크레마</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>232140</t>
+          <t>900310</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>와이아이케이</t>
+          <t>컬러레이</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>027050</t>
+          <t>073010</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>코리아나</t>
+          <t>케이에스피</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,19 +903,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>092200</t>
+          <t>238120</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>디아이씨</t>
+          <t>얼라인드</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>204020</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한국프랜지</t>
+          <t>그리티</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,19 +951,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>004090</t>
+          <t>216080</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한국석유</t>
+          <t>제테마</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -975,19 +975,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>007160</t>
+          <t>391710</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>사조산업</t>
+          <t>코닉오토메이션</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="D23" t="n">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>032680</t>
+          <t>124500</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>소프트센</t>
+          <t>아이티센</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,19 +1023,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>214330</t>
+          <t>012610</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>금호에이치티</t>
+          <t>경인양행</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
@@ -1047,19 +1047,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>009310</t>
+          <t>036580</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>참엔지니어링</t>
+          <t>팜스코</t>
         </is>
       </c>
       <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -1071,12 +1071,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>226340</t>
+          <t>065170</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>본느</t>
+          <t>비엘팜텍</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>020180</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>대신정보통신</t>
+          <t>한국프랜지</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="n">
         <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,193 +1119,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>123890</t>
+          <t>310200</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>한국자산신탁</t>
+          <t>애니플러스</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>018700</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>바른손</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>2</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>071850</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>캐스텍코리아</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>267790</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>배럴</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>065500</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>오리엔트정공</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>099430</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>바이오플러스</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>-29</v>
-      </c>
-      <c r="D34" t="n">
-        <v>30</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>115610</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>이미지스</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>226320</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>잇츠한불</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>007340</t>
+          <t>270520</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DN오토모티브</t>
+          <t>지오릿에너지</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>009450</t>
+          <t>140410</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>경동나비엔</t>
+          <t>메지온</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>-41</v>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="E3" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>322510</t>
+          <t>091120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>제이엘케이</t>
+          <t>이엠텍</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>001780</t>
+          <t>285490</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>알루코</t>
+          <t>노바텍</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>357780</t>
+          <t>214420</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>솔브레인</t>
+          <t>토니모리</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>083930</t>
+          <t>102710</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>아바코</t>
+          <t>이엔에프테크놀로지</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-110</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>117730</t>
+          <t>090850</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>티로보틱스</t>
+          <t>현대이지웰</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>251970</t>
+          <t>110990</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>펌텍코리아</t>
+          <t>디아이티</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,19 +663,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>271940</t>
+          <t>196490</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>일진하이솔루스</t>
+          <t>디에이테크놀로지</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>090850</t>
+          <t>025560</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>현대이지웰</t>
+          <t>미래산업</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,19 +711,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>089010</t>
+          <t>330860</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>켐트로닉스</t>
+          <t>네패스아크</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
         <v>14</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>101170</t>
+          <t>089030</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>우림피티에스</t>
+          <t>테크윙</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
         <v>3</v>
       </c>
-      <c r="D13" t="n">
-        <v>10</v>
-      </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>110990</t>
+          <t>089790</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>디아이티</t>
+          <t>제이티</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>236810</t>
+          <t>170790</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>엔비티</t>
+          <t>파이오링크</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>063170</t>
+          <t>025820</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>서울옥션</t>
+          <t>이구산업</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>-4</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>311390</t>
+          <t>053610</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>네오크레마</t>
+          <t>프로텍</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>-80</v>
       </c>
       <c r="D17" t="n">
+        <v>88</v>
+      </c>
+      <c r="E17" t="n">
         <v>7</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,19 +855,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>900310</t>
+          <t>011330</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>컬러레이</t>
+          <t>유니켐</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>073010</t>
+          <t>368770</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>케이에스피</t>
+          <t>파이버프로</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>238120</t>
+          <t>203690</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>얼라인드</t>
+          <t>프로스테믹스</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>204020</t>
+          <t>012610</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>그리티</t>
+          <t>경인양행</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,193 +951,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>216080</t>
+          <t>284620</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>제테마</t>
+          <t>카이노스메드</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>391710</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>코닉오토메이션</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>124500</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>아이티센</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>012610</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>경인양행</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>036580</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>팜스코</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>065170</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>비엘팜텍</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>한국프랜지</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D28" t="n">
-        <v>5</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>310200</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>애니플러스</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>270520</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>지오릿에너지</t>
+          <t>동진쎄미켐</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="E2" t="n">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>140410</t>
+          <t>297090</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>메지온</t>
+          <t>씨에스베어링</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-41</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="E3" t="n">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>091120</t>
+          <t>131970</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이엠텍</t>
+          <t>두산테스나</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="E4" t="n">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>285490</t>
+          <t>007690</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>노바텍</t>
+          <t>국도화학</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>214420</t>
+          <t>022100</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>토니모리</t>
+          <t>포스코 ICT</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>403</v>
       </c>
       <c r="D6" t="n">
-        <v>-4</v>
+        <v>-329</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>102710</t>
+          <t>267270</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이엔에프테크놀로지</t>
+          <t>HD현대건설기계</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>-71</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>090850</t>
+          <t>041920</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>현대이지웰</t>
+          <t>메디아나</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>110990</t>
+          <t>322310</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>디아이티</t>
+          <t>오로스테크놀로지</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>196490</t>
+          <t>330860</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>디에이테크놀로지</t>
+          <t>네패스아크</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>025560</t>
+          <t>104540</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>미래산업</t>
+          <t>코렌텍</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>330860</t>
+          <t>100840</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>네패스아크</t>
+          <t>SNT에너지</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>089030</t>
+          <t>114810</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>테크윙</t>
+          <t>한솔아이원스</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,19 +759,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>089790</t>
+          <t>252990</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>제이티</t>
+          <t>샘씨엔에스</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="E14" t="n">
         <v>11</v>
@@ -792,10 +792,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" t="n">
         <v>9</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>025820</t>
+          <t>208370</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>이구산업</t>
+          <t>셀바스헬스케어</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
         <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,19 +831,19 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>053610</t>
+          <t>067000</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>프로텍</t>
+          <t>조이시티</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-80</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>011330</t>
+          <t>206400</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>유니켐</t>
+          <t>베노홀딩스</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="D18" t="n">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,19 +879,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>368770</t>
+          <t>004960</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>파이버프로</t>
+          <t>한신공영</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -903,19 +903,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>203690</t>
+          <t>307870</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>프로스테믹스</t>
+          <t>비투엔</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>012610</t>
+          <t>078940</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>경인양행</t>
+          <t>코드네이처</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,25 +951,241 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>284620</t>
+          <t>065950</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>카이노스메드</t>
+          <t>웰크론</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>246710</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>티앤알바이오팹</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>056360</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>코위버</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>035610</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>솔본</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>950200</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>소마젠</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>대구백화점</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>200470</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>에이팩트</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>323230</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>엠에프엠코리아</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>053260</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>금강철강</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>012610</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>경인양행</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>015760</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>동진쎄미켐</t>
+          <t>한국전력</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="D2" t="n">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="E2" t="n">
-        <v>221</v>
+        <v>623</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>297090</t>
+          <t>263750</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>씨에스베어링</t>
+          <t>펄어비스</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>354</v>
       </c>
       <c r="D3" t="n">
-        <v>146</v>
+        <v>-120</v>
       </c>
       <c r="E3" t="n">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>131970</t>
+          <t>011210</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>두산테스나</t>
+          <t>현대위아</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="E4" t="n">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>007690</t>
+          <t>022100</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>국도화학</t>
+          <t>포스코 ICT</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>385</v>
       </c>
       <c r="D5" t="n">
-        <v>42</v>
+        <v>-196</v>
       </c>
       <c r="E5" t="n">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>022100</t>
+          <t>105630</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>포스코 ICT</t>
+          <t>한세실업</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>403</v>
+        <v>101</v>
       </c>
       <c r="D6" t="n">
-        <v>-329</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>267270</t>
+          <t>178920</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HD현대건설기계</t>
+          <t>PI첨단소재</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="D7" t="n">
-        <v>-71</v>
+        <v>-53</v>
       </c>
       <c r="E7" t="n">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>041920</t>
+          <t>322310</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>메디아나</t>
+          <t>오로스테크놀로지</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>322310</t>
+          <t>003030</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>오로스테크놀로지</t>
+          <t>세아제강지주</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>330860</t>
+          <t>033530</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>네패스아크</t>
+          <t>세종공업</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>104540</t>
+          <t>306200</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>코렌텍</t>
+          <t>세아제강</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>100840</t>
+          <t>381970</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SNT에너지</t>
+          <t>케이카</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>-20</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>114810</t>
+          <t>241590</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>한솔아이원스</t>
+          <t>화승엔터프라이즈</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>-10</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>252990</t>
+          <t>299030</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>샘씨엔에스</t>
+          <t>하나기술</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D14" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>170790</t>
+          <t>122990</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>파이오링크</t>
+          <t>와이솔</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>208370</t>
+          <t>900310</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>셀바스헬스케어</t>
+          <t>컬러레이</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>067000</t>
+          <t>264450</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>조이시티</t>
+          <t>유비쿼스</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>206400</t>
+          <t>318410</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>베노홀딩스</t>
+          <t>비비씨</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,19 +879,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>004960</t>
+          <t>260930</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>한신공영</t>
+          <t>씨티케이</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>307870</t>
+          <t>194370</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>비투엔</t>
+          <t>제이에스코퍼레이션</t>
         </is>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
         <v>4</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,19 +927,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>078940</t>
+          <t>071950</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>코드네이처</t>
+          <t>코아스</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -951,19 +951,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>065950</t>
+          <t>053060</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>웰크론</t>
+          <t>세동</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -975,19 +975,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>246710</t>
+          <t>056360</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>티앤알바이오팹</t>
+          <t>코위버</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -999,19 +999,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>056360</t>
+          <t>128660</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>코위버</t>
+          <t>피제이메탈</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -1023,12 +1023,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>035610</t>
+          <t>111110</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>솔본</t>
+          <t>호전실업</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1047,19 +1047,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>950200</t>
+          <t>311390</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>소마젠</t>
+          <t>네오크레마</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -1071,12 +1071,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>066430</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>대구백화점</t>
+          <t>와이오엠</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>200470</t>
+          <t>109080</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>에이팩트</t>
+          <t>옵티시스</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,19 +1119,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>323230</t>
+          <t>073540</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>엠에프엠코리아</t>
+          <t>에프알텍</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -1143,19 +1143,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>053260</t>
+          <t>314930</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>금강철강</t>
+          <t>바이오다인</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1167,16 +1167,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>012610</t>
+          <t>002170</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>경인양행</t>
+          <t>삼양통상</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1186,6 +1186,54 @@
       </c>
       <c r="F31" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>017480</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>삼현철강</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>043100</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>솔고바이오</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>015760</t>
+          <t>105630</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>한국전력</t>
+          <t>한세실업</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>496</v>
+        <v>151</v>
       </c>
       <c r="D2" t="n">
-        <v>127</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>623</v>
+        <v>164</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>263750</t>
+          <t>307950</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>펄어비스</t>
+          <t>현대오토에버</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>354</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>-120</v>
+        <v>114</v>
       </c>
       <c r="E3" t="n">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>011210</t>
+          <t>164060</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>현대위아</t>
+          <t>이루다</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>104</v>
+        <v>-45</v>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="E4" t="n">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>022100</t>
+          <t>299030</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>포스코 ICT</t>
+          <t>하나기술</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>385</v>
+        <v>-23</v>
       </c>
       <c r="D5" t="n">
-        <v>-196</v>
+        <v>133</v>
       </c>
       <c r="E5" t="n">
-        <v>189</v>
+        <v>110</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>105630</t>
+          <t>272450</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>한세실업</t>
+          <t>진에어</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>178920</t>
+          <t>001780</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PI첨단소재</t>
+          <t>알루코</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>172</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>-53</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>322310</t>
+          <t>228670</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>오로스테크놀로지</t>
+          <t>레이</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>-62</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>003030</t>
+          <t>008260</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>세아제강지주</t>
+          <t>NI스틸</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>033530</t>
+          <t>066310</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>세종공업</t>
+          <t>큐에스아이</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>306200</t>
+          <t>090410</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>세아제강</t>
+          <t>덕신하우징</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>381970</t>
+          <t>077500</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>케이카</t>
+          <t>유니퀘스트</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>57</v>
+        <v>-3</v>
       </c>
       <c r="D12" t="n">
-        <v>-20</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>241590</t>
+          <t>217330</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>화승엔터프라이즈</t>
+          <t>싸이토젠</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-10</v>
+        <v>24</v>
       </c>
       <c r="D13" t="n">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>299030</t>
+          <t>071670</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>하나기술</t>
+          <t>에이테크솔루션</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>122990</t>
+          <t>149980</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>와이솔</t>
+          <t>하이로닉</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>900310</t>
+          <t>150900</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>컬러레이</t>
+          <t>파수</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>264450</t>
+          <t>094360</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>유비쿼스</t>
+          <t>칩스앤미디어</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>-19</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>318410</t>
+          <t>206640</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>비비씨</t>
+          <t>바디텍메드</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>260930</t>
+          <t>900310</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>씨티케이</t>
+          <t>컬러레이</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>194370</t>
+          <t>059090</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>제이에스코퍼레이션</t>
+          <t>미코</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>071950</t>
+          <t>391710</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>코아스</t>
+          <t>코닉오토메이션</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>053060</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>세동</t>
+          <t>영원무역홀딩스</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>056360</t>
+          <t>160980</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>코위버</t>
+          <t>싸이맥스</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>128660</t>
+          <t>004840</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>피제이메탈</t>
+          <t>DRB동일</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>111110</t>
+          <t>048260</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>호전실업</t>
+          <t>오스템임플란트</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>-20</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>311390</t>
+          <t>115390</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>네오크레마</t>
+          <t>락앤락</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>066430</t>
+          <t>203690</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>와이오엠</t>
+          <t>프로스테믹스</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>109080</t>
+          <t>327260</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>옵티시스</t>
+          <t>RF머트리얼즈</t>
         </is>
       </c>
       <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
-      <c r="D28" t="n">
-        <v>2</v>
-      </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,22 +1119,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>073540</t>
+          <t>022100</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>에프알텍</t>
+          <t>포스코 ICT</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-331</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1143,19 +1143,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>314930</t>
+          <t>014530</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>바이오다인</t>
+          <t>극동유화</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1167,16 +1167,16 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>002170</t>
+          <t>208710</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>삼양통상</t>
+          <t>바이오로그디바이스</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1191,19 +1191,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>017480</t>
+          <t>007590</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>삼현철강</t>
+          <t>동방아그로</t>
         </is>
       </c>
       <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -1215,25 +1215,49 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>043100</t>
+          <t>018310</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>솔고바이오</t>
+          <t>삼목에스폼</t>
         </is>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
         <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>234080</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>JW생명과학</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>105630</t>
+          <t>307950</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>한세실업</t>
+          <t>현대오토에버</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="E2" t="n">
-        <v>164</v>
+        <v>345</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>307950</t>
+          <t>302440</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>현대오토에버</t>
+          <t>SK바이오사이언스</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>-9</v>
       </c>
       <c r="D3" t="n">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="E3" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>164060</t>
+          <t>089590</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이루다</t>
+          <t>제주항공</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-45</v>
+        <v>115</v>
       </c>
       <c r="D4" t="n">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>299030</t>
+          <t>064290</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>하나기술</t>
+          <t>인텍플러스</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-23</v>
+        <v>61</v>
       </c>
       <c r="D5" t="n">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>272450</t>
+          <t>018250</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>진에어</t>
+          <t>애경산업</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>001780</t>
+          <t>033530</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>알루코</t>
+          <t>세종공업</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>228670</t>
+          <t>022100</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>레이</t>
+          <t>포스코 ICT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-62</v>
+        <v>321</v>
       </c>
       <c r="D8" t="n">
-        <v>122</v>
+        <v>-268</v>
       </c>
       <c r="E8" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>008260</t>
+          <t>064960</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NI스틸</t>
+          <t>SNT모티브</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>066310</t>
+          <t>083930</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>큐에스아이</t>
+          <t>아바코</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>090410</t>
+          <t>060370</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>덕신하우징</t>
+          <t>KT서브마린</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>077500</t>
+          <t>036930</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>유니퀘스트</t>
+          <t>주성엔지니어링</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-3</v>
+        <v>169</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>-135</v>
       </c>
       <c r="E12" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>217330</t>
+          <t>036540</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>싸이토젠</t>
+          <t>SFA반도체</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>-11</v>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>071670</t>
+          <t>011930</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>에이테크솔루션</t>
+          <t>신성이엔지</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>149980</t>
+          <t>090410</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>하이로닉</t>
+          <t>덕신하우징</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>150900</t>
+          <t>243840</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>파수</t>
+          <t>신흥에스이씨</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>094360</t>
+          <t>053450</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>칩스앤미디어</t>
+          <t>세코닉스</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-19</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>206640</t>
+          <t>059090</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>바디텍메드</t>
+          <t>미코</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>900310</t>
+          <t>274090</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>컬러레이</t>
+          <t>켄코아에어로스페이스</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>059090</t>
+          <t>203400</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>미코</t>
+          <t>에이비온</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D20" t="n">
         <v>7</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>391710</t>
+          <t>053080</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>코닉오토메이션</t>
+          <t>케이엔솔</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>041520</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>영원무역홀딩스</t>
+          <t>이라이콤</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>160980</t>
+          <t>066430</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>싸이맥스</t>
+          <t>와이오엠</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>004840</t>
+          <t>048260</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DRB동일</t>
+          <t>오스템임플란트</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D24" t="n">
+        <v>-18</v>
+      </c>
+      <c r="E24" t="n">
         <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>048260</t>
+          <t>025320</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>오스템임플란트</t>
+          <t>시노펙스</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>-20</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>115390</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>락앤락</t>
+          <t>동성제약</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>203690</t>
+          <t>051390</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>프로스테믹스</t>
+          <t>YW</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,12 +1095,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>327260</t>
+          <t>259630</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RF머트리얼즈</t>
+          <t>엠플러스</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,22 +1119,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>022100</t>
+          <t>032980</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>포스코 ICT</t>
+          <t>바이온</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-331</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1143,19 +1143,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>014530</t>
+          <t>236810</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>극동유화</t>
+          <t>엔비티</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -1167,19 +1167,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>208710</t>
+          <t>060260</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>바이오로그디바이스</t>
+          <t>뉴보텍</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -1191,12 +1191,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>007590</t>
+          <t>000970</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>동방아그로</t>
+          <t>한국주철관</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1215,49 +1215,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>018310</t>
+          <t>066360</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>삼목에스폼</t>
+          <t>체리부로</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>234080</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>JW생명과학</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D2" t="n">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="E2" t="n">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>302440</t>
+          <t>089590</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SK바이오사이언스</t>
+          <t>제주항공</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-9</v>
+        <v>123</v>
       </c>
       <c r="D3" t="n">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>089590</t>
+          <t>022100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>제주항공</t>
+          <t>포스코 ICT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>115</v>
+        <v>323</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>-202</v>
       </c>
       <c r="E4" t="n">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>018250</t>
+          <t>033530</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>애경산업</t>
+          <t>세종공업</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E6" t="n">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>033530</t>
+          <t>018250</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>세종공업</t>
+          <t>애경산업</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>-17</v>
       </c>
       <c r="E7" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>022100</t>
+          <t>011930</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>포스코 ICT</t>
+          <t>신성이엔지</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>-268</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>064960</t>
+          <t>090410</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SNT모티브</t>
+          <t>덕신하우징</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-32</v>
+        <v>-3</v>
       </c>
       <c r="D10" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -699,10 +699,10 @@
         <v>31</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>036930</t>
+          <t>064960</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>주성엔지니어링</t>
+          <t>SNT모티브</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>-135</v>
+        <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>036540</t>
+          <t>053450</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SFA반도체</t>
+          <t>세코닉스</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>011930</t>
+          <t>274090</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>신성이엔지</t>
+          <t>켄코아에어로스페이스</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>090410</t>
+          <t>063570</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>덕신하우징</t>
+          <t>한국전자금융</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>-21</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>243840</t>
+          <t>059090</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>신흥에스이씨</t>
+          <t>미코</t>
         </is>
       </c>
       <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="D16" t="n">
-        <v>16</v>
-      </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>053450</t>
+          <t>036930</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>세코닉스</t>
+          <t>주성엔지니어링</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>-172</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>059090</t>
+          <t>243840</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>미코</t>
+          <t>신흥에스이씨</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,19 +879,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>274090</t>
+          <t>053080</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>켄코아에어로스페이스</t>
+          <t>케이엔솔</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-16</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>203400</t>
+          <t>302440</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>에이비온</t>
+          <t>SK바이오사이언스</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>-40</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>053080</t>
+          <t>032980</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>케이엔솔</t>
+          <t>바이온</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>041520</t>
+          <t>368770</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>이라이콤</t>
+          <t>파이버프로</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>066430</t>
+          <t>025320</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>와이오엠</t>
+          <t>시노펙스</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>048260</t>
+          <t>203400</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>오스템임플란트</t>
+          <t>에이비온</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>-18</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>025320</t>
+          <t>041520</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>시노펙스</t>
+          <t>이라이콤</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>066430</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>동성제약</t>
+          <t>와이오엠</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,19 +1071,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>051390</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>YW</t>
+          <t>동성제약</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -1095,12 +1095,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>259630</t>
+          <t>051390</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>엠플러스</t>
+          <t>YW</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1119,19 +1119,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>032980</t>
+          <t>048260</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>바이온</t>
+          <t>오스템임플란트</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>-21</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
@@ -1143,22 +1143,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>236810</t>
+          <t>152550</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>엔비티</t>
+          <t>한국ANKOR유전</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
@@ -1167,12 +1167,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>060260</t>
+          <t>048430</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>뉴보텍</t>
+          <t>유라테크</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1186,54 +1186,6 @@
       </c>
       <c r="F31" t="n">
         <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>000970</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>한국주철관</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>066360</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>체리부로</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>307950</t>
+          <t>086520</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>현대오토에버</t>
+          <t>에코프로</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="D2" t="n">
-        <v>280</v>
+        <v>3799</v>
       </c>
       <c r="E2" t="n">
-        <v>386</v>
+        <v>4085</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>089590</t>
+          <t>022100</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>제주항공</t>
+          <t>포스코 ICT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>123</v>
+        <v>411</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>-175</v>
       </c>
       <c r="E3" t="n">
-        <v>127</v>
+        <v>235</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>022100</t>
+          <t>011930</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>포스코 ICT</t>
+          <t>신성이엔지</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>-202</v>
+        <v>163</v>
       </c>
       <c r="E4" t="n">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>064290</t>
+          <t>095340</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>인텍플러스</t>
+          <t>ISC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>033530</t>
+          <t>009450</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>세종공업</t>
+          <t>경동나비엔</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D6" t="n">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>018250</t>
+          <t>033100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>애경산업</t>
+          <t>제룡전기</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D7" t="n">
-        <v>-17</v>
+        <v>53</v>
       </c>
       <c r="E7" t="n">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>011930</t>
+          <t>103590</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>신성이엔지</t>
+          <t>일진전기</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>090410</t>
+          <t>272110</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>덕신하우징</t>
+          <t>케이엔제이</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>083930</t>
+          <t>036010</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>아바코</t>
+          <t>아비코전자</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3</v>
+        <v>-14</v>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>060370</t>
+          <t>085620</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KT서브마린</t>
+          <t>미래에셋생명</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>-8</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>064960</t>
+          <t>092070</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SNT모티브</t>
+          <t>디엔에프</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
         <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>053450</t>
+          <t>036810</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>세코닉스</t>
+          <t>에프에스티</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>-27</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>274090</t>
+          <t>200710</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>켄코아에어로스페이스</t>
+          <t>에이디테크놀로지</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>063570</t>
+          <t>361570</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>한국전자금융</t>
+          <t>알비더블유</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>44</v>
+        <v>-6</v>
       </c>
       <c r="D15" t="n">
-        <v>-21</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>059090</t>
+          <t>114840</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>미코</t>
+          <t>아이패밀리에스씨</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>036930</t>
+          <t>217190</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>주성엔지니어링</t>
+          <t>제너셈</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>-172</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>243840</t>
+          <t>023800</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>신흥에스이씨</t>
+          <t>인지컨트롤스</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>053080</t>
+          <t>177350</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>케이엔솔</t>
+          <t>베셀</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>302440</t>
+          <t>098120</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SK바이오사이언스</t>
+          <t>마이크로컨텍솔</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>032980</t>
+          <t>037710</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>바이온</t>
+          <t>광주신세계</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>368770</t>
+          <t>094360</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>파이버프로</t>
+          <t>칩스앤미디어</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>-30</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E22" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>025320</t>
+          <t>273640</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>시노펙스</t>
+          <t>와이엠텍</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>203400</t>
+          <t>170030</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>에이비온</t>
+          <t>현대공업</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>041520</t>
+          <t>050860</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>이라이콤</t>
+          <t>아세아텍</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>066430</t>
+          <t>089790</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>와이오엠</t>
+          <t>제이티</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>310200</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>동성제약</t>
+          <t>애니플러스</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>051390</t>
+          <t>011500</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>YW</t>
+          <t>한농화성</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,22 +1119,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>048260</t>
+          <t>222080</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>오스템임플란트</t>
+          <t>씨아이에스</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>-21</v>
+        <v>-3</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1143,22 +1143,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>152550</t>
+          <t>263720</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>한국ANKOR유전</t>
+          <t>디앤씨미디어</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
@@ -1167,25 +1167,265 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>048430</t>
+          <t>054450</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>유라테크</t>
+          <t>텔레칩스</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>083640</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>인콘</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>한일홀딩스</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>147760</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>피엠티</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>309930</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>오하임아이엔티</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>307180</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>아이엘사이언스</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>048260</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>오스템임플란트</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>24</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-21</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>043100</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>솔고바이오</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>017510</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>세명전기</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>043710</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>서울리거</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>263020</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>디케이앤디</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>086520</t>
+          <t>022100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>에코프로</t>
+          <t>포스코 ICT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>285</v>
+        <v>485</v>
       </c>
       <c r="D2" t="n">
-        <v>3799</v>
+        <v>-189</v>
       </c>
       <c r="E2" t="n">
-        <v>4085</v>
+        <v>296</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>022100</t>
+          <t>161890</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>포스코 ICT</t>
+          <t>한국콜마</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>411</v>
+        <v>339</v>
       </c>
       <c r="D3" t="n">
-        <v>-175</v>
+        <v>-59</v>
       </c>
       <c r="E3" t="n">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>011930</t>
+          <t>082740</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>신성이엔지</t>
+          <t>HSD엔진</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>095340</t>
+          <t>034310</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ISC</t>
+          <t>NICE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>009450</t>
+          <t>077500</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>경동나비엔</t>
+          <t>유니퀘스트</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>033100</t>
+          <t>272110</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>제룡전기</t>
+          <t>케이엔제이</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>51</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" t="n">
         <v>92</v>
-      </c>
-      <c r="D7" t="n">
-        <v>53</v>
-      </c>
-      <c r="E7" t="n">
-        <v>145</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>103590</t>
+          <t>104830</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>일진전기</t>
+          <t>원익머트리얼즈</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>-65</v>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>272110</t>
+          <t>262260</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>케이엔제이</t>
+          <t>에이프로</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>036010</t>
+          <t>125210</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>아비코전자</t>
+          <t>아모그린텍</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-14</v>
+        <v>57</v>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>085620</t>
+          <t>252990</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>미래에셋생명</t>
+          <t>샘씨엔에스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>092070</t>
+          <t>083310</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>디엔에프</t>
+          <t>엘오티베큠</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>-12</v>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>036810</t>
+          <t>013030</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>에프에스티</t>
+          <t>하이록코리아</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-27</v>
+        <v>-7</v>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>200710</t>
+          <t>105740</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>에이디테크놀로지</t>
+          <t>디케이락</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>361570</t>
+          <t>089790</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>알비더블유</t>
+          <t>제이티</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-6</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>114840</t>
+          <t>290690</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>아이패밀리에스씨</t>
+          <t>소룩스</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>-6</v>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E16" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>25</v>
@@ -855,19 +855,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>023800</t>
+          <t>073010</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>인지컨트롤스</t>
+          <t>케이에스피</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
@@ -879,19 +879,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>177350</t>
+          <t>000520</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>베셀</t>
+          <t>삼일제약</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
         <v>23</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>098120</t>
+          <t>030210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>마이크로컨텍솔</t>
+          <t>다올투자증권</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D20" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>037710</t>
+          <t>033170</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>광주신세계</t>
+          <t>시그네틱스</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>094360</t>
+          <t>023160</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>칩스앤미디어</t>
+          <t>태광</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-30</v>
+        <v>-37</v>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>273640</t>
+          <t>077360</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>와이엠텍</t>
+          <t>덕산하이메탈</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>-64</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,19 +999,19 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>170030</t>
+          <t>013570</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>현대공업</t>
+          <t>디와이</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
@@ -1023,19 +1023,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>050860</t>
+          <t>014940</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>아세아텍</t>
+          <t>오리엔탈정공</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
@@ -1047,19 +1047,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>089790</t>
+          <t>019010</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>제이티</t>
+          <t>베뉴지</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>9</v>
@@ -1071,19 +1071,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>310200</t>
+          <t>054540</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>애니플러스</t>
+          <t>삼영엠텍</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
         <v>8</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>011500</t>
+          <t>171010</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>한농화성</t>
+          <t>램테크놀러지</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,22 +1119,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>222080</t>
+          <t>092460</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>씨아이에스</t>
+          <t>한라IMS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1143,22 +1143,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>263720</t>
+          <t>096350</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>디앤씨미디어</t>
+          <t>대창솔루션</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
@@ -1167,22 +1167,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>054450</t>
+          <t>214330</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>텔레칩스</t>
+          <t>금호에이치티</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
@@ -1191,22 +1191,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>083640</t>
+          <t>083470</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>인콘</t>
+          <t>이엠앤아이</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>31</v>
@@ -1215,22 +1215,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>003300</t>
+          <t>302550</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>한일홀딩스</t>
+          <t>리메드</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
         <v>4</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
@@ -1239,22 +1239,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>147760</t>
+          <t>069540</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>피엠티</t>
+          <t>라이트론</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
         <v>4</v>
-      </c>
-      <c r="E34" t="n">
-        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
@@ -1263,19 +1263,19 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>309930</t>
+          <t>097230</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>오하임아이엔티</t>
+          <t>HJ중공업</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -1287,22 +1287,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>307180</t>
+          <t>101930</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>아이엘사이언스</t>
+          <t>인화정공</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
@@ -1311,19 +1311,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>048260</t>
+          <t>029460</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>오스템임플란트</t>
+          <t>케이씨</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="D37" t="n">
-        <v>-21</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
         <v>2</v>
@@ -1335,19 +1335,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>043100</t>
+          <t>308170</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>솔고바이오</t>
+          <t>씨티알모빌리티</t>
         </is>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>2</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>2</v>
@@ -1359,22 +1359,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>017510</t>
+          <t>048260</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>세명전기</t>
+          <t>오스템임플란트</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
         <v>38</v>
@@ -1383,19 +1383,19 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>043710</t>
+          <t>085310</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>서울리거</t>
+          <t>엔케이</t>
         </is>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -1407,25 +1407,145 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>263020</t>
+          <t>023000</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>디케이앤디</t>
+          <t>삼원강재</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>044820</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>코스맥스비티아이</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>075970</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>동국알앤에스</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>241770</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>메카로</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>115610</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>이미지스</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>219130</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>타이거일렉</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>022100</t>
+          <t>108320</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>포스코 ICT</t>
+          <t>LX세미콘</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="D2" t="n">
-        <v>-189</v>
+        <v>-32</v>
       </c>
       <c r="E2" t="n">
-        <v>296</v>
+        <v>439</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>161890</t>
+          <t>079550</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>한국콜마</t>
+          <t>LIG넥스원</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="D3" t="n">
-        <v>-59</v>
+        <v>158</v>
       </c>
       <c r="E3" t="n">
-        <v>279</v>
+        <v>362</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>082740</t>
+          <t>022100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HSD엔진</t>
+          <t>포스코 ICT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>77</v>
+        <v>506</v>
       </c>
       <c r="D4" t="n">
-        <v>92</v>
+        <v>-186</v>
       </c>
       <c r="E4" t="n">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>034310</t>
+          <t>078600</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NICE</t>
+          <t>대주전자재료</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="E5" t="n">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>077500</t>
+          <t>089970</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>유니퀘스트</t>
+          <t>에이피티씨</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>-12</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>272110</t>
+          <t>200880</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>케이엔제이</t>
+          <t>서연이화</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>104830</t>
+          <t>125210</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>원익머트리얼즈</t>
+          <t>아모그린텍</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>156</v>
+        <v>-39</v>
       </c>
       <c r="D8" t="n">
-        <v>-65</v>
+        <v>101</v>
       </c>
       <c r="E8" t="n">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>262260</t>
+          <t>041920</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>에이프로</t>
+          <t>메디아나</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>125210</t>
+          <t>004920</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>아모그린텍</t>
+          <t>씨아이테크</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>252990</t>
+          <t>023800</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>샘씨엔에스</t>
+          <t>인지컨트롤스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>083310</t>
+          <t>045970</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>엘오티베큠</t>
+          <t>코아시아</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-12</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>013030</t>
+          <t>041650</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>하이록코리아</t>
+          <t>상신브레이크</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>105740</t>
+          <t>335890</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>디케이락</t>
+          <t>비올</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>089790</t>
+          <t>333620</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>제이티</t>
+          <t>엔시스</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D15" t="n">
         <v>10</v>
       </c>
-      <c r="D15" t="n">
-        <v>17</v>
-      </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>290690</t>
+          <t>171010</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>소룩스</t>
+          <t>램테크놀러지</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>217190</t>
+          <t>263720</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>제너셈</t>
+          <t>디앤씨미디어</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>073010</t>
+          <t>060900</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>케이에스피</t>
+          <t>DGP</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D18" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>000520</t>
+          <t>017370</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>삼일제약</t>
+          <t>우신시스템</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>030210</t>
+          <t>015890</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>다올투자증권</t>
+          <t>태경산업</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>033170</t>
+          <t>101930</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>시그네틱스</t>
+          <t>인화정공</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>023160</t>
+          <t>244920</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>태광</t>
+          <t>에이플러스에셋</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-37</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>077360</t>
+          <t>048260</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>덕산하이메탈</t>
+          <t>오스템임플란트</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="D23" t="n">
-        <v>-64</v>
+        <v>-22</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>013570</t>
+          <t>302550</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>디와이</t>
+          <t>리메드</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,529 +1023,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>014940</t>
+          <t>216080</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>오리엔탈정공</t>
+          <t>제테마</t>
         </is>
       </c>
       <c r="C25" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="n">
         <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>11</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>019010</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>베뉴지</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>10</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9</v>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>054540</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>삼영엠텍</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>8</v>
-      </c>
-      <c r="E27" t="n">
-        <v>8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>171010</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>램테크놀러지</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>7</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7</v>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>092460</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>한라IMS</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>6</v>
-      </c>
-      <c r="E29" t="n">
-        <v>5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>096350</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>대창솔루션</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>7</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>214330</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>금호에이치티</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" t="n">
-        <v>4</v>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>083470</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>이엠앤아이</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>302550</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>리메드</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>069540</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>라이트론</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>4</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>4</v>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>097230</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>HJ중공업</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>5</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>101930</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>인화정공</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>029460</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>케이씨</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>308170</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>씨티알모빌리티</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>048260</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>오스템임플란트</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>24</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-22</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>085310</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>엔케이</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>023000</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>삼원강재</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>044820</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>코스맥스비티아이</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>075970</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>동국알앤에스</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>241770</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>메카로</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>115610</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>이미지스</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>219130</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>타이거일렉</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>108320</t>
+          <t>015750</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LX세미콘</t>
+          <t>성우하이텍</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-32</v>
+        <v>578</v>
       </c>
       <c r="E2" t="n">
-        <v>439</v>
+        <v>578</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>079550</t>
+          <t>022100</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LIG넥스원</t>
+          <t>포스코 ICT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>203</v>
+        <v>429</v>
       </c>
       <c r="D3" t="n">
-        <v>158</v>
+        <v>-282</v>
       </c>
       <c r="E3" t="n">
-        <v>362</v>
+        <v>147</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>022100</t>
+          <t>010690</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>포스코 ICT</t>
+          <t>화신</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>506</v>
+        <v>-23</v>
       </c>
       <c r="D4" t="n">
-        <v>-186</v>
+        <v>154</v>
       </c>
       <c r="E4" t="n">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>078600</t>
+          <t>005850</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>대주전자재료</t>
+          <t>에스엘</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>235</v>
+        <v>98</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>089970</t>
+          <t>376300</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>에이피티씨</t>
+          <t>디어유</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="D6" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="E6" t="n">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>200880</t>
+          <t>125210</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>서연이화</t>
+          <t>아모그린텍</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>-25</v>
       </c>
       <c r="D7" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E7" t="n">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>125210</t>
+          <t>123410</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>아모그린텍</t>
+          <t>코리아에프티</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-39</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>041920</t>
+          <t>084650</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>메디아나</t>
+          <t>랩지노믹스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>-2</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>004920</t>
+          <t>006890</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>씨아이테크</t>
+          <t>태경케미컬</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>023800</t>
+          <t>004920</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>인지컨트롤스</t>
+          <t>씨아이테크</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>045970</t>
+          <t>268280</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>코아시아</t>
+          <t>미원에스씨</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>041650</t>
+          <t>038110</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>상신브레이크</t>
+          <t>에코플라스틱</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>335890</t>
+          <t>043370</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>비올</t>
+          <t>피에이치에이</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-37</v>
+        <v>-12</v>
       </c>
       <c r="D14" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>333620</t>
+          <t>103840</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>엔시스</t>
+          <t>우양</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>-2</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>171010</t>
+          <t>293940</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>램테크놀러지</t>
+          <t>신한알파리츠</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>-28</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>263720</t>
+          <t>030210</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>디앤씨미디어</t>
+          <t>다올투자증권</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>060900</t>
+          <t>053270</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DGP</t>
+          <t>구영테크</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>017370</t>
+          <t>019010</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>우신시스템</t>
+          <t>베뉴지</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
-      <c r="D19" t="n">
-        <v>5</v>
-      </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>015890</t>
+          <t>019540</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>태경산업</t>
+          <t>일지테크</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>101930</t>
+          <t>126640</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>인화정공</t>
+          <t>화신정공</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>244920</t>
+          <t>037710</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>에이플러스에셋</t>
+          <t>광주신세계</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>048260</t>
+          <t>017890</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>오스템임플란트</t>
+          <t>한국알콜</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>-22</v>
+        <v>-7</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>302550</t>
+          <t>053060</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>리메드</t>
+          <t>세동</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,25 +1023,457 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>216080</t>
+          <t>378850</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>제테마</t>
+          <t>화승알앤에이</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>072470</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>우리산업홀딩스</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>092780</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>동양피스톤</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>216080</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>제테마</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>064820</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>케이프</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>092220</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>KEC</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>13</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>017370</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>우신시스템</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>049720</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>고려신용정보</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>013520</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>화승코퍼레이션</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>267320</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>나인테크</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>206400</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>베노홀딩스</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>006660</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>삼성공조</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>066590</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>우수AMS</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>023900</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>풍국주정</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>067570</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>엔브이에이치코리아</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>모베이스전자</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>048260</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>오스템임플란트</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>24</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-22</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>075180</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>새론오토모티브</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>009680</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>모토닉</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>022100</t>
+          <t>010140</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>포스코 ICT</t>
+          <t>삼성중공업</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="D2" t="n">
-        <v>-73</v>
+        <v>851</v>
       </c>
       <c r="E2" t="n">
-        <v>367</v>
+        <v>1343</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>030210</t>
+          <t>028050</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>다올투자증권</t>
+          <t>삼성엔지니어링</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>-131</v>
       </c>
       <c r="D3" t="n">
-        <v>-8</v>
+        <v>962</v>
       </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>831</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>084650</t>
+          <t>131970</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>랩지노믹스</t>
+          <t>두산테스나</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>190</v>
       </c>
       <c r="E4" t="n">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>036620</t>
+          <t>036890</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>감성코퍼레이션</t>
+          <t>진성티이씨</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>-40</v>
+        <v>113</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>204</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>215790</t>
+          <t>001430</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>알비케이그룹</t>
+          <t>세아베스틸지주</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>025320</t>
+          <t>073010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>시노펙스</t>
+          <t>케이에스피</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>187790</t>
+          <t>257720</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>나노</t>
+          <t>실리콘투</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>-74</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>000430</t>
+          <t>005010</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>대원강업</t>
+          <t>휴스틸</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>302550</t>
+          <t>007690</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>리메드</t>
+          <t>국도화학</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>007770</t>
+          <t>357780</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한일화학</t>
+          <t>솔브레인</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>-181</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>168490</t>
+          <t>023160</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>한국패러랠</t>
+          <t>태광</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>-16</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>016800</t>
+          <t>036540</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>퍼시스</t>
+          <t>SFA반도체</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,25 +759,673 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>307870</t>
+          <t>093370</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>비투엔</t>
+          <t>후성</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>-47</v>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>117</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>200710</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>에이디테크놀로지</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>88</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E15" t="n">
+        <v>67</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>015230</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>대창단조</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>48</v>
+      </c>
+      <c r="D16" t="n">
+        <v>13</v>
+      </c>
+      <c r="E16" t="n">
+        <v>61</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>017960</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>한국카본</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>68</v>
+      </c>
+      <c r="E17" t="n">
+        <v>60</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>044490</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>태웅</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>21</v>
+      </c>
+      <c r="D18" t="n">
+        <v>28</v>
+      </c>
+      <c r="E18" t="n">
+        <v>49</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>075580</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>세진중공업</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>39</v>
+      </c>
+      <c r="E19" t="n">
+        <v>40</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>017550</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>수산중공업</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>24</v>
+      </c>
+      <c r="E20" t="n">
+        <v>24</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>277880</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>티에스아이</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
+        <v>23</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>003280</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>흥아해운</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12</v>
+      </c>
+      <c r="E22" t="n">
+        <v>21</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>002710</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TCC스틸</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-116</v>
+      </c>
+      <c r="D23" t="n">
+        <v>133</v>
+      </c>
+      <c r="E23" t="n">
+        <v>16</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>삼화전자</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>078160</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>메디포스트</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>11</v>
+      </c>
+      <c r="E25" t="n">
+        <v>12</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>038880</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>아이에이</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>9</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>120030</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>조선선재</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>10</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>098120</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>마이크로컨텍솔</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>014530</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>극동유화</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>092460</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>한라IMS</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>031820</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>콤텍시스템</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>037560</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LG헬로비전</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E32" t="n">
+        <v>7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>039610</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>화성밸브</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>054180</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>메디콕스</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>006840</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>AK홀딩스</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>314930</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>바이오다인</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>010240</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>흥국</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>333430</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>일승</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>163560</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>동일고무벨트</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>264660</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>씨앤지하이테크</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>070590</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>한솔인티큐브</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>010140</t>
+          <t>012330</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>삼성중공업</t>
+          <t>현대모비스</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>492</v>
+        <v>901</v>
       </c>
       <c r="D2" t="n">
-        <v>851</v>
+        <v>1229</v>
       </c>
       <c r="E2" t="n">
-        <v>1343</v>
+        <v>2131</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>028050</t>
+          <t>042700</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>삼성엔지니어링</t>
+          <t>한미반도체</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-131</v>
+        <v>295</v>
       </c>
       <c r="D3" t="n">
-        <v>962</v>
+        <v>1073</v>
       </c>
       <c r="E3" t="n">
-        <v>831</v>
+        <v>1369</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>131970</t>
+          <t>353200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>두산테스나</t>
+          <t>대덕전자</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>156</v>
+        <v>786</v>
       </c>
       <c r="D4" t="n">
-        <v>190</v>
+        <v>-106</v>
       </c>
       <c r="E4" t="n">
-        <v>346</v>
+        <v>680</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>036890</t>
+          <t>195870</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>진성티이씨</t>
+          <t>해성디에스</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>536</v>
       </c>
       <c r="D5" t="n">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>204</v>
+        <v>554</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>001430</t>
+          <t>058470</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>세아베스틸지주</t>
+          <t>리노공업</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>92</v>
+        <v>757</v>
       </c>
       <c r="D6" t="n">
-        <v>92</v>
+        <v>-492</v>
       </c>
       <c r="E6" t="n">
-        <v>184</v>
+        <v>265</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>073010</t>
+          <t>222800</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>케이에스피</t>
+          <t>심텍</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>-62</v>
       </c>
       <c r="E7" t="n">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>257720</t>
+          <t>016360</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>실리콘투</t>
+          <t>삼성증권</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>169</v>
+        <v>-139</v>
       </c>
       <c r="D8" t="n">
-        <v>-74</v>
+        <v>316</v>
       </c>
       <c r="E8" t="n">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>005010</t>
+          <t>101490</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>휴스틸</t>
+          <t>에스앤에스텍</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>-176</v>
       </c>
       <c r="D9" t="n">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="E9" t="n">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>007690</t>
+          <t>248070</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>국도화학</t>
+          <t>솔루엠</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="D10" t="n">
-        <v>17</v>
+        <v>-47</v>
       </c>
       <c r="E10" t="n">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>357780</t>
+          <t>083650</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>솔브레인</t>
+          <t>비에이치아이</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>270</v>
+        <v>87</v>
       </c>
       <c r="D11" t="n">
-        <v>-181</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>023160</t>
+          <t>330860</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>태광</t>
+          <t>네패스아크</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-16</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
-        <v>91</v>
+        <v>-3</v>
       </c>
       <c r="E12" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,19 +735,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>036540</t>
+          <t>007810</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SFA반도체</t>
+          <t>코리아써키트</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>71</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>093370</t>
+          <t>036010</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>후성</t>
+          <t>아비코전자</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-47</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E14" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>200710</t>
+          <t>217190</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>에이디테크놀로지</t>
+          <t>제너셈</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D15" t="n">
-        <v>-20</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>015230</t>
+          <t>039030</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>대창단조</t>
+          <t>이오테크닉스</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="D16" t="n">
-        <v>13</v>
+        <v>-215</v>
       </c>
       <c r="E16" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>017960</t>
+          <t>281820</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>한국카본</t>
+          <t>케이씨텍</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-8</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>044490</t>
+          <t>001530</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>태웅</t>
+          <t>DI동일</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21</v>
+        <v>-13</v>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E18" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>075580</t>
+          <t>206640</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>세진중공업</t>
+          <t>바디텍메드</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>017550</t>
+          <t>033170</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>수산중공업</t>
+          <t>시그네틱스</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>277880</t>
+          <t>033270</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>티에스아이</t>
+          <t>유나이티드제약</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,19 +951,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>003280</t>
+          <t>252990</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>흥아해운</t>
+          <t>샘씨엔에스</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>002710</t>
+          <t>159010</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TCC스틸</t>
+          <t>아스플로</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-116</v>
+        <v>18</v>
       </c>
       <c r="D23" t="n">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>011230</t>
+          <t>079940</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>삼화전자</t>
+          <t>가비아</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,16 +1023,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>078160</t>
+          <t>003530</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>메디포스트</t>
+          <t>한화투자증권</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>11</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>038880</t>
+          <t>067570</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>아이에이</t>
+          <t>엔브이에이치코리아</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>120030</t>
+          <t>005860</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>조선선재</t>
+          <t>한일사료</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>098120</t>
+          <t>275630</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>마이크로컨텍솔</t>
+          <t>에스에스알</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,16 +1119,16 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>014530</t>
+          <t>142210</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>극동유화</t>
+          <t>유니트론텍</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>7</v>
@@ -1143,22 +1143,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>092460</t>
+          <t>036200</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>한라IMS</t>
+          <t>유니셈</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
@@ -1167,19 +1167,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>031820</t>
+          <t>092870</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>콤텍시스템</t>
+          <t>엑시콘</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>-16</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
@@ -1191,19 +1191,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>037560</t>
+          <t>377450</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>LG헬로비전</t>
+          <t>리파인</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
@@ -1215,22 +1215,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>039610</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>화성밸브</t>
+          <t>대덕</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
@@ -1239,22 +1239,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>054180</t>
+          <t>036710</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>메디콕스</t>
+          <t>심텍홀딩스</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
@@ -1263,22 +1263,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>006840</t>
+          <t>092300</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AK홀딩스</t>
+          <t>현우산업</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>34</v>
@@ -1287,22 +1287,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>314930</t>
+          <t>376190</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>바이오다인</t>
+          <t>LB루셈</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
@@ -1311,22 +1311,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>010240</t>
+          <t>086960</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>흥국</t>
+          <t>MDS테크</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" t="n">
         <v>36</v>
@@ -1335,22 +1335,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>333430</t>
+          <t>016590</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>일승</t>
+          <t>신대양제지</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
         <v>37</v>
@@ -1359,22 +1359,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>163560</t>
+          <t>041020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>동일고무벨트</t>
+          <t>폴라리스오피스</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
         <v>38</v>
@@ -1383,22 +1383,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>264660</t>
+          <t>033160</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>씨앤지하이테크</t>
+          <t>엠케이전자</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>39</v>
@@ -1407,25 +1407,217 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>070590</t>
+          <t>009520</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>한솔인티큐브</t>
+          <t>포스코엠텍</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>-16</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>232140</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>와이아이케이</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>052860</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>아이앤씨</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>044480</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>블레이드 Ent</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>051160</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>지어소프트</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>147760</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>피엠티</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>072520</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>제넨바이오</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>096760</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>JW홀딩스</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>093520</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>매커스</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>012330</t>
+          <t>247540</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>현대모비스</t>
+          <t>에코프로비엠</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>901</v>
+        <v>-404</v>
       </c>
       <c r="D2" t="n">
-        <v>1229</v>
+        <v>1559</v>
       </c>
       <c r="E2" t="n">
-        <v>2131</v>
+        <v>1154</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>042700</t>
+          <t>078600</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>한미반도체</t>
+          <t>대주전자재료</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>1073</v>
+        <v>171</v>
       </c>
       <c r="E3" t="n">
-        <v>1369</v>
+        <v>266</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>353200</t>
+          <t>257720</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>대덕전자</t>
+          <t>실리콘투</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>786</v>
+        <v>106</v>
       </c>
       <c r="D4" t="n">
-        <v>-106</v>
+        <v>-41</v>
       </c>
       <c r="E4" t="n">
-        <v>680</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>195870</t>
+          <t>079960</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>해성디에스</t>
+          <t>동양이엔피</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>536</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>554</v>
+        <v>44</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>058470</t>
+          <t>114190</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>리노공업</t>
+          <t>강원에너지</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>757</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>-492</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>222800</t>
+          <t>304100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>심텍</t>
+          <t>솔트룩스</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>319</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>-62</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>016360</t>
+          <t>278280</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>삼성증권</t>
+          <t>천보</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-139</v>
+        <v>-104</v>
       </c>
       <c r="D8" t="n">
-        <v>316</v>
+        <v>138</v>
       </c>
       <c r="E8" t="n">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>101490</t>
+          <t>033270</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>에스앤에스텍</t>
+          <t>유나이티드제약</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-176</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>313</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>248070</t>
+          <t>012340</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>솔루엠</t>
+          <t>뉴인텍</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>174</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>-47</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>083650</t>
+          <t>216080</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>비에이치아이</t>
+          <t>제테마</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>87</v>
+        <v>-13</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>330860</t>
+          <t>019010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>네패스아크</t>
+          <t>베뉴지</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E12" t="n">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>007810</t>
+          <t>000320</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>코리아써키트</t>
+          <t>노루홀딩스</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>036010</t>
+          <t>041020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>아비코전자</t>
+          <t>폴라리스오피스</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>-4</v>
       </c>
       <c r="E14" t="n">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>217190</t>
+          <t>060240</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>제너셈</t>
+          <t>룽투코리아</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>039030</t>
+          <t>251970</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>이오테크닉스</t>
+          <t>펌텍코리아</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>-215</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>281820</t>
+          <t>041520</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>케이씨텍</t>
+          <t>이라이콤</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="E17" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>001530</t>
+          <t>083500</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DI동일</t>
+          <t>에프엔에스테크</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>206640</t>
+          <t>059210</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>바디텍메드</t>
+          <t>메타바이오메드</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>-32</v>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>033170</t>
+          <t>020710</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>시그네틱스</t>
+          <t>시공테크</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>033270</t>
+          <t>314930</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>유나이티드제약</t>
+          <t>바이오다인</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>252990</t>
+          <t>002680</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>샘씨엔에스</t>
+          <t>한탑</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>159010</t>
+          <t>002200</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>아스플로</t>
+          <t>한국수출포장</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
         <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>21</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,625 +999,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>079940</t>
+          <t>089140</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>가비아</t>
+          <t>넥스턴바이오</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>-3</v>
       </c>
       <c r="E24" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>003530</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>한화투자증권</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11</v>
-      </c>
-      <c r="E25" t="n">
-        <v>12</v>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>067570</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>엔브이에이치코리아</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>13</v>
-      </c>
-      <c r="E26" t="n">
-        <v>11</v>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>005860</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>한일사료</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="n">
-        <v>7</v>
-      </c>
-      <c r="E27" t="n">
-        <v>11</v>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>275630</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>에스에스알</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>8</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>11</v>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>142210</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>유니트론텍</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>7</v>
-      </c>
-      <c r="E29" t="n">
-        <v>8</v>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>036200</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>유니셈</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>-20</v>
-      </c>
-      <c r="D30" t="n">
-        <v>28</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>092870</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>엑시콘</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>23</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-16</v>
-      </c>
-      <c r="E31" t="n">
-        <v>7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>377450</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>리파인</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" t="n">
-        <v>5</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>대덕</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>6</v>
-      </c>
-      <c r="E33" t="n">
-        <v>7</v>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>036710</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>심텍홀딩스</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7</v>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>092300</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>현우산업</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>376190</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>LB루셈</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>5</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6</v>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>086960</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>MDS테크</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>6</v>
-      </c>
-      <c r="E37" t="n">
-        <v>5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>016590</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>신대양제지</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4</v>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>041020</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>폴라리스오피스</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4</v>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>033160</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>엠케이전자</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>009520</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>포스코엠텍</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>-16</v>
-      </c>
-      <c r="D41" t="n">
-        <v>21</v>
-      </c>
-      <c r="E41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>232140</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>와이아이케이</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>4</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>052860</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>아이앤씨</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>3</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>044480</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>블레이드 Ent</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>2</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>051160</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>지어소프트</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>3</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>147760</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>피엠티</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>3</v>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>072520</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>제넨바이오</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>096760</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>JW홀딩스</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>093520</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>매커스</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>9</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>247540</t>
+          <t>084650</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>에코프로비엠</t>
+          <t>랩지노믹스</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-404</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>1559</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
-        <v>1154</v>
+        <v>84</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>078600</t>
+          <t>087010</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>대주전자재료</t>
+          <t>펩트론</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
-        <v>171</v>
+        <v>-26</v>
       </c>
       <c r="E3" t="n">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,19 +519,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>257720</t>
+          <t>214430</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>실리콘투</t>
+          <t>아이쓰리시스템</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>-41</v>
+        <v>44</v>
       </c>
       <c r="E4" t="n">
         <v>65</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>079960</t>
+          <t>236810</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>동양이엔피</t>
+          <t>엔비티</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>-3</v>
       </c>
       <c r="E5" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>114190</t>
+          <t>304100</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>강원에너지</t>
+          <t>솔트룩스</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E6" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>304100</t>
+          <t>272290</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>솔트룩스</t>
+          <t>이녹스첨단소재</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>-3</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>278280</t>
+          <t>099430</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>천보</t>
+          <t>바이오플러스</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-104</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>033270</t>
+          <t>315640</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>유나이티드제약</t>
+          <t>딥노이드</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>012340</t>
+          <t>055490</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>뉴인텍</t>
+          <t>테이팩스</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>-32</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>216080</t>
+          <t>026890</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>제테마</t>
+          <t>스틱인베스트먼트</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>019010</t>
+          <t>317830</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>베뉴지</t>
+          <t>에스피시스템스</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>000320</t>
+          <t>149980</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>노루홀딩스</t>
+          <t>하이로닉</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>-18</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>041020</t>
+          <t>118990</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>폴라리스오피스</t>
+          <t>모트렉스</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>060240</t>
+          <t>071670</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>룽투코리아</t>
+          <t>에이테크솔루션</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>251970</t>
+          <t>023440</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>펌텍코리아</t>
+          <t>제이스코홀딩스</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>041520</t>
+          <t>226950</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>이라이콤</t>
+          <t>올릭스</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>083500</t>
+          <t>053080</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>에프엔에스테크</t>
+          <t>케이엔솔</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>-13</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>059210</t>
+          <t>123010</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>메타바이오메드</t>
+          <t>아이윈플러스</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-32</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>020710</t>
+          <t>090360</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>시공테크</t>
+          <t>로보스타</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>314930</t>
+          <t>137080</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>바이오다인</t>
+          <t>나래나노텍</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>002680</t>
+          <t>220100</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>한탑</t>
+          <t>퓨쳐켐</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,19 +975,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>002200</t>
+          <t>313760</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>한국수출포장</t>
+          <t>윌링스</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -999,25 +999,97 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>089140</t>
+          <t>229000</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>넥스턴바이오</t>
+          <t>젠큐릭스</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>한올바이오파마</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-39</v>
+      </c>
+      <c r="D25" t="n">
+        <v>41</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>039290</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>인포뱅크</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>047560</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>이스트소프트</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-11</v>
+      </c>
+      <c r="D27" t="n">
+        <v>13</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>084650</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>랩지노믹스</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>59</v>
+        <v>-326</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>922</v>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>595</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>087010</t>
+          <t>025900</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>펩트론</t>
+          <t>동화기업</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="D3" t="n">
-        <v>-26</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>214430</t>
+          <t>272290</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>아이쓰리시스템</t>
+          <t>이녹스첨단소재</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>236810</t>
+          <t>262260</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>엔비티</t>
+          <t>에이프로</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>-3</v>
+        <v>91</v>
       </c>
       <c r="E5" t="n">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>304100</t>
+          <t>348370</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>솔트룩스</t>
+          <t>엔켐</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>-84</v>
       </c>
       <c r="D6" t="n">
-        <v>-6</v>
+        <v>146</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>272290</t>
+          <t>287410</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이녹스첨단소재</t>
+          <t>제이시스메디칼</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3</v>
+        <v>-36</v>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E7" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>099430</t>
+          <t>079370</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>바이오플러스</t>
+          <t>제우스</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>-45</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>315640</t>
+          <t>068240</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>딥노이드</t>
+          <t>다원시스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>055490</t>
+          <t>126700</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>테이팩스</t>
+          <t>하이비젼시스템</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-32</v>
+        <v>-27</v>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>026890</t>
+          <t>010780</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>스틱인베스트먼트</t>
+          <t>아이에스동서</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>-19</v>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>317830</t>
+          <t>149980</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>에스피시스템스</t>
+          <t>하이로닉</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>26</v>
+        <v>-13</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>149980</t>
+          <t>220100</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>하이로닉</t>
+          <t>퓨쳐켐</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>-18</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>118990</t>
+          <t>214260</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>모트렉스</t>
+          <t>라파스</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>071670</t>
+          <t>242040</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>에이테크솔루션</t>
+          <t>나무기술</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
         <v>6</v>
       </c>
-      <c r="D15" t="n">
-        <v>12</v>
-      </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>023440</t>
+          <t>003720</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>제이스코홀딩스</t>
+          <t>삼영</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>-3</v>
       </c>
       <c r="E16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>226950</t>
+          <t>217500</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>올릭스</t>
+          <t>러셀</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>053080</t>
+          <t>142210</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>케이엔솔</t>
+          <t>유니트론텍</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>123010</t>
+          <t>340930</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>아이윈플러스</t>
+          <t>유일에너테크</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>090360</t>
+          <t>088390</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>로보스타</t>
+          <t>이녹스</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>137080</t>
+          <t>322180</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>나래나노텍</t>
+          <t>티라유텍</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,19 +951,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>220100</t>
+          <t>377330</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>퓨쳐켐</t>
+          <t>이지트로닉스</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
         <v>4</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>313760</t>
+          <t>214610</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>윌링스</t>
+          <t>미코바이오메드</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>229000</t>
+          <t>023440</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>젠큐릭스</t>
+          <t>제이스코홀딩스</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>009420</t>
+          <t>313760</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>한올바이오파마</t>
+          <t>윌링스</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-39</v>
+        <v>-3</v>
       </c>
       <c r="D25" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,19 +1047,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>039290</t>
+          <t>043710</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>인포뱅크</t>
+          <t>서울리거</t>
         </is>
       </c>
       <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -1071,25 +1071,97 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>047560</t>
+          <t>333050</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>이스트소프트</t>
+          <t>모코엠시스</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-11</v>
+        <v>-3</v>
       </c>
       <c r="D27" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>010100</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>한국무브넥스</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>047920</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HLB제약</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>148780</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>비플라이소프트</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>000100</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>유한양행</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-326</v>
+        <v>505</v>
       </c>
       <c r="D2" t="n">
-        <v>922</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>595</v>
+        <v>522</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>025900</t>
+          <t>011200</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>동화기업</t>
+          <t>HMM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>245</v>
+        <v>-356</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>701</v>
       </c>
       <c r="E3" t="n">
-        <v>248</v>
+        <v>344</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>272290</t>
+          <t>304100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이녹스첨단소재</t>
+          <t>솔트룩스</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
-        <v>228</v>
+        <v>124</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>262260</t>
+          <t>089970</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>에이프로</t>
+          <t>에이피티씨</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,19 +567,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>348370</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>엔켐</t>
+          <t>우리종금</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-84</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>62</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>287410</t>
+          <t>009240</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>제이시스메디칼</t>
+          <t>한샘</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-36</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>079370</t>
+          <t>039840</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>제우스</t>
+          <t>디오</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D8" t="n">
-        <v>-45</v>
+        <v>-44</v>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>068240</t>
+          <t>023440</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>다원시스</t>
+          <t>제이스코홀딩스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="D9" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>126700</t>
+          <t>045970</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>하이비젼시스템</t>
+          <t>코아시아</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>010780</t>
+          <t>018470</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>아이에스동서</t>
+          <t>조일알미늄</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-19</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>149980</t>
+          <t>005500</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>하이로닉</t>
+          <t>삼진제약</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>220100</t>
+          <t>003220</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>퓨쳐켐</t>
+          <t>대원제약</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D13" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>214260</t>
+          <t>226950</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>라파스</t>
+          <t>올릭스</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>242040</t>
+          <t>096630</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>나무기술</t>
+          <t>에스코넥</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>003720</t>
+          <t>011330</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>삼영</t>
+          <t>유니켐</t>
         </is>
       </c>
       <c r="C16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
         <v>17</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>217500</t>
+          <t>242040</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>러셀</t>
+          <t>나무기술</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>142210</t>
+          <t>078140</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>유니트론텍</t>
+          <t>대봉엘에스</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>340930</t>
+          <t>006120</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>유일에너테크</t>
+          <t>SK디스커버리</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>-28</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>088390</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이녹스</t>
+          <t>동성제약</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>322180</t>
+          <t>048530</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>티라유텍</t>
+          <t>인트론바이오</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
         <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>377330</t>
+          <t>175250</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>이지트로닉스</t>
+          <t>아이큐어</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>214610</t>
+          <t>225220</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>미코바이오메드</t>
+          <t>제놀루션</t>
         </is>
       </c>
       <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
-      <c r="D23" t="n">
-        <v>3</v>
-      </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>023440</t>
+          <t>053160</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>제이스코홀딩스</t>
+          <t>프리엠스</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D24" t="n">
         <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>313760</t>
+          <t>348150</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>윌링스</t>
+          <t>고바이오랩</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,19 +1047,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>043710</t>
+          <t>102260</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>서울리거</t>
+          <t>동성케미컬</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -1071,97 +1071,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>333050</t>
+          <t>032300</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>모코엠시스</t>
+          <t>한국파마</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>010100</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>한국무브넥스</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>10</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>047920</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>HLB제약</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>148780</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>비플라이소프트</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000100</t>
+          <t>121600</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>유한양행</t>
+          <t>나노신소재</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>505</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="E2" t="n">
-        <v>522</v>
+        <v>249</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>011200</t>
+          <t>049950</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HMM</t>
+          <t>미래컴퍼니</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-356</v>
+        <v>46</v>
       </c>
       <c r="D3" t="n">
-        <v>701</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>344</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>304100</t>
+          <t>009520</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>솔트룩스</t>
+          <t>포스코엠텍</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>089970</t>
+          <t>060370</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>에이피티씨</t>
+          <t>KT서브마린</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="n">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>091580</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>우리종금</t>
+          <t>상신이디피</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>009240</t>
+          <t>018470</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>조일알미늄</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E7" t="n">
         <v>19</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30</v>
-      </c>
-      <c r="E7" t="n">
-        <v>49</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>039840</t>
+          <t>122640</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>디오</t>
+          <t>예스티</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>85</v>
+        <v>-1</v>
       </c>
       <c r="D8" t="n">
-        <v>-44</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>023440</t>
+          <t>040300</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>제이스코홀딩스</t>
+          <t>YTN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-2</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>-3</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>045970</t>
+          <t>254120</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>코아시아</t>
+          <t>자비스</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>018470</t>
+          <t>009290</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>조일알미늄</t>
+          <t>광동제약</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>005500</t>
+          <t>174900</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>삼진제약</t>
+          <t>앱클론</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>003220</t>
+          <t>263770</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>대원제약</t>
+          <t>유에스티</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>226950</t>
+          <t>096630</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>올릭스</t>
+          <t>에스코넥</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
+        <v>-12</v>
+      </c>
+      <c r="E14" t="n">
         <v>5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>096630</t>
+          <t>011330</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>에스코넥</t>
+          <t>유니켐</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>011330</t>
+          <t>023000</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>유니켐</t>
+          <t>삼원강재</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>242040</t>
+          <t>333620</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>나무기술</t>
+          <t>엔시스</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>078140</t>
+          <t>141000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>대봉엘에스</t>
+          <t>비아트론</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
-      <c r="D18" t="n">
-        <v>5</v>
-      </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>006120</t>
+          <t>076080</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SK디스커버리</t>
+          <t>웰크론한텍</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-28</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>041920</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>동성제약</t>
+          <t>메디아나</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,169 +927,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>048530</t>
+          <t>084180</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>인트론바이오</t>
+          <t>수성샐바시온</t>
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
         <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>175250</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>아이큐어</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>225220</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>제놀루션</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>053160</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>프리엠스</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>-2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2</v>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>348150</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>고바이오랩</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>4</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>102260</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>동성케미컬</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>032300</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>한국파마</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>121600</t>
+          <t>000660</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>나노신소재</t>
+          <t>SK하이닉스</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>2648</v>
       </c>
       <c r="D2" t="n">
-        <v>228</v>
+        <v>3250</v>
       </c>
       <c r="E2" t="n">
-        <v>249</v>
+        <v>5899</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>049950</t>
+          <t>090430</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>미래컴퍼니</t>
+          <t>아모레퍼시픽</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>386</v>
       </c>
       <c r="E3" t="n">
-        <v>49</v>
+        <v>533</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>009520</t>
+          <t>195870</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>포스코엠텍</t>
+          <t>해성디에스</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>415</v>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>-51</v>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>363</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>060370</t>
+          <t>207940</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KT서브마린</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>642</v>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>-322</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>319</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>091580</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>상신이디피</t>
+          <t>우리종금</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>018470</t>
+          <t>140860</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>조일알미늄</t>
+          <t>파크시스템스</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>-4</v>
+        <v>76</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>122640</t>
+          <t>039030</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>예스티</t>
+          <t>이오테크닉스</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>287</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>-179</v>
       </c>
       <c r="E8" t="n">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>040300</t>
+          <t>298870</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>YTN</t>
+          <t>우리벤처파트너스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D9" t="n">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>254120</t>
+          <t>049950</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>자비스</t>
+          <t>미래컴퍼니</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>-13</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>009290</t>
+          <t>019170</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>광동제약</t>
+          <t>신풍제약</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>174900</t>
+          <t>017370</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>앱클론</t>
+          <t>우신시스템</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,217 +735,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>263770</t>
+          <t>066980</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>유에스티</t>
+          <t>이엔코퍼레이션</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>096630</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>에스코넥</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>18</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>011330</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>유니켐</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>6</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>023000</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>삼원강재</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>333620</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>엔시스</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>141000</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>비아트론</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>076080</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>웰크론한텍</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>041920</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>메디아나</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>084180</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>수성샐바시온</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2648</v>
+        <v>1383</v>
       </c>
       <c r="D2" t="n">
-        <v>3250</v>
+        <v>6329</v>
       </c>
       <c r="E2" t="n">
-        <v>5899</v>
+        <v>7713</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>147</v>
+        <v>230</v>
       </c>
       <c r="D3" t="n">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="E3" t="n">
-        <v>533</v>
+        <v>645</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>195870</t>
+          <t>207940</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>해성디에스</t>
+          <t>삼성바이오로직스</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>415</v>
+        <v>561</v>
       </c>
       <c r="D4" t="n">
-        <v>-51</v>
+        <v>-21</v>
       </c>
       <c r="E4" t="n">
-        <v>363</v>
+        <v>540</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>195870</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>해성디에스</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>642</v>
+        <v>434</v>
       </c>
       <c r="D5" t="n">
-        <v>-322</v>
+        <v>-23</v>
       </c>
       <c r="E5" t="n">
-        <v>319</v>
+        <v>411</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>240810</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>우리종금</t>
+          <t>원익IPS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>231</v>
       </c>
       <c r="E6" t="n">
-        <v>143</v>
+        <v>387</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>140860</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>파크시스템스</t>
+          <t>우리종금</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>039030</t>
+          <t>049950</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>이오테크닉스</t>
+          <t>미래컴퍼니</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>287</v>
+        <v>93</v>
       </c>
       <c r="D8" t="n">
-        <v>-179</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="n">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>298870</t>
+          <t>335890</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>우리벤처파트너스</t>
+          <t>비올</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="E9" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>049950</t>
+          <t>054210</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>미래컴퍼니</t>
+          <t>이랜텍</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76</v>
+        <v>-9</v>
       </c>
       <c r="D10" t="n">
-        <v>-13</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>019170</t>
+          <t>041520</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>신풍제약</t>
+          <t>이라이콤</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E11" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>017370</t>
+          <t>049520</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>우신시스템</t>
+          <t>유아이엘</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>-15</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,25 +735,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>066980</t>
+          <t>017370</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>이엔코퍼레이션</t>
+          <t>우신시스템</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>-29</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>032980</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>바이온</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -480,13 +480,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1383</v>
+        <v>764</v>
       </c>
       <c r="D2" t="n">
-        <v>6329</v>
+        <v>5981</v>
       </c>
       <c r="E2" t="n">
-        <v>7713</v>
+        <v>6745</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>230</v>
+        <v>404</v>
       </c>
       <c r="D3" t="n">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E3" t="n">
-        <v>645</v>
+        <v>806</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -528,13 +528,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D4" t="n">
-        <v>-21</v>
+        <v>-103</v>
       </c>
       <c r="E4" t="n">
-        <v>540</v>
+        <v>448</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -552,13 +552,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="D5" t="n">
-        <v>-23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>240810</t>
+          <t>277810</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>원익IPS</t>
+          <t>레인보우로보틱스</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>156</v>
+        <v>-13</v>
       </c>
       <c r="D6" t="n">
-        <v>231</v>
+        <v>329</v>
       </c>
       <c r="E6" t="n">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>304100</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>우리종금</t>
+          <t>솔트룩스</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>049950</t>
+          <t>036540</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>미래컴퍼니</t>
+          <t>SFA반도체</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D8" t="n">
-        <v>-2</v>
+        <v>136</v>
       </c>
       <c r="E8" t="n">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>335890</t>
+          <t>010050</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>비올</t>
+          <t>우리종금</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="D9" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>054210</t>
+          <t>347860</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이랜텍</t>
+          <t>알체라</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-9</v>
+        <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>041520</t>
+          <t>017370</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이라이콤</t>
+          <t>우신시스템</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>26</v>
+        <v>-9</v>
       </c>
       <c r="E11" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>049520</t>
+          <t>110990</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>유아이엘</t>
+          <t>디아이티</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>017370</t>
+          <t>377480</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>우신시스템</t>
+          <t>마음AI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>-29</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,25 +759,121 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>032980</t>
+          <t>012340</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>바이온</t>
+          <t>뉴인텍</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>089850</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>유비벨록스</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>065350</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>신성델타테크</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>156100</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>엘앤케이바이오</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>084730</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>팅크웨어</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000660</t>
+          <t>302440</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SK하이닉스</t>
+          <t>SK바이오사이언스</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>764</v>
+        <v>95</v>
       </c>
       <c r="D2" t="n">
-        <v>5981</v>
+        <v>608</v>
       </c>
       <c r="E2" t="n">
-        <v>6745</v>
+        <v>703</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>090430</t>
+          <t>033270</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>아모레퍼시픽</t>
+          <t>유나이티드제약</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>401</v>
+        <v>-11</v>
       </c>
       <c r="E3" t="n">
-        <v>806</v>
+        <v>71</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>207940</t>
+          <t>084650</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>삼성바이오로직스</t>
+          <t>랩지노믹스</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>551</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>-103</v>
+        <v>32</v>
       </c>
       <c r="E4" t="n">
-        <v>448</v>
+        <v>61</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>195870</t>
+          <t>012510</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>해성디에스</t>
+          <t>더존비즈온</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>366</v>
+        <v>-26</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
-        <v>387</v>
+        <v>39</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>277810</t>
+          <t>003220</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>레인보우로보틱스</t>
+          <t>대원제약</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-13</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>329</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>315</v>
+        <v>39</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>304100</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>솔트룩스</t>
+          <t>롯데칠성</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>-10</v>
       </c>
       <c r="E7" t="n">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>036540</t>
+          <t>049520</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SFA반도체</t>
+          <t>유아이엘</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>010050</t>
+          <t>007160</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>우리종금</t>
+          <t>사조산업</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>347860</t>
+          <t>047560</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>알체라</t>
+          <t>이스트소프트</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>017370</t>
+          <t>130660</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>우신시스템</t>
+          <t>한전산업</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>-9</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>110990</t>
+          <t>042370</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>디아이티</t>
+          <t>비츠로테크</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>377480</t>
+          <t>105550</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>마음AI</t>
+          <t>트루윈</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>012340</t>
+          <t>286750</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>뉴인텍</t>
+          <t>나노브릭</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>-4</v>
       </c>
       <c r="E14" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>089850</t>
+          <t>097780</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>유비벨록스</t>
+          <t>에스맥</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>065350</t>
+          <t>033290</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>신성델타테크</t>
+          <t>코웰패션</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>-11</v>
       </c>
       <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
         <v>5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>156100</t>
+          <t>046310</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>엘앤케이바이오</t>
+          <t>백금T&amp;A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,25 +855,193 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>084730</t>
+          <t>065660</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>팅크웨어</t>
+          <t>안트로젠</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>048530</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>인트론바이오</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>042510</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>라온시큐어</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>291650</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>압타머사이언스</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>142280</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>녹십자엠에스</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>127120</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>디엔에이링크</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>109820</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>진매트릭스</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>065950</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>웰크론</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>8</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>302440</t>
+          <t>161890</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SK바이오사이언스</t>
+          <t>한국콜마</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>299</v>
       </c>
       <c r="D2" t="n">
-        <v>608</v>
+        <v>131</v>
       </c>
       <c r="E2" t="n">
-        <v>703</v>
+        <v>430</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>033270</t>
+          <t>004370</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>유나이티드제약</t>
+          <t>농심</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>-11</v>
+        <v>144</v>
       </c>
       <c r="E3" t="n">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>084650</t>
+          <t>241710</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>랩지노믹스</t>
+          <t>코스메카코리아</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E4" t="n">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>012510</t>
+          <t>009240</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>더존비즈온</t>
+          <t>한샘</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-26</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>003220</t>
+          <t>251970</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>대원제약</t>
+          <t>펌텍코리아</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>068400</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>롯데칠성</t>
+          <t>SK렌터카</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>049520</t>
+          <t>060150</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>유아이엘</t>
+          <t>인선이엔티</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>007160</t>
+          <t>060590</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>사조산업</t>
+          <t>씨티씨바이오</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>047560</t>
+          <t>005860</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>이스트소프트</t>
+          <t>한일사료</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>130660</t>
+          <t>950140</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한전산업</t>
+          <t>잉글우드랩</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>-15</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>042370</t>
+          <t>079940</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>비츠로테크</t>
+          <t>가비아</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>105550</t>
+          <t>217330</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>트루윈</t>
+          <t>싸이토젠</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>286750</t>
+          <t>291230</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>나노브릭</t>
+          <t>엔피</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>097780</t>
+          <t>060240</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>에스맥</t>
+          <t>룽투코리아</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>033290</t>
+          <t>270660</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>코웰패션</t>
+          <t>에브리봇</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>046310</t>
+          <t>304840</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>백금T&amp;A</t>
+          <t>피플바이오</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>065660</t>
+          <t>052400</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>안트로젠</t>
+          <t>코나아이</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>048530</t>
+          <t>034310</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>인트론바이오</t>
+          <t>NICE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>042510</t>
+          <t>008700</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>라온시큐어</t>
+          <t>아남전자</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>291650</t>
+          <t>030190</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>압타머사이언스</t>
+          <t>NICE평가정보</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>142280</t>
+          <t>142760</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>녹십자엠에스</t>
+          <t>비엘</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>127120</t>
+          <t>277410</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>디엔에이링크</t>
+          <t>인산가</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-19</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>109820</t>
+          <t>044820</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>진매트릭스</t>
+          <t>코스맥스비티아이</t>
         </is>
       </c>
       <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,25 +1023,169 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>065950</t>
+          <t>002140</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>웰크론</t>
+          <t>고려산업</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>000760</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>이화산업</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>331380</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>포커스에이치엔에스</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>031310</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>아이즈비전</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>079430</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>현대리바트</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>056080</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>유진로봇</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>019570</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>리더스 기술투자</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>161890</t>
+          <t>097950</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>한국콜마</t>
+          <t>CJ제일제당</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>299</v>
+        <v>549</v>
       </c>
       <c r="D2" t="n">
-        <v>131</v>
+        <v>-29</v>
       </c>
       <c r="E2" t="n">
-        <v>430</v>
+        <v>520</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>004370</t>
+          <t>248070</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>농심</t>
+          <t>솔루엠</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E3" t="n">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>241710</t>
+          <t>014620</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>코스메카코리아</t>
+          <t>성광벤드</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>009240</t>
+          <t>023160</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>한샘</t>
+          <t>태광</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>-25</v>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E5" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>251970</t>
+          <t>192650</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>펌텍코리아</t>
+          <t>드림텍</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="D6" t="n">
-        <v>-5</v>
+        <v>-114</v>
       </c>
       <c r="E6" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>068400</t>
+          <t>004980</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SK렌터카</t>
+          <t>성신양회</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>060150</t>
+          <t>149980</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>인선이엔티</t>
+          <t>하이로닉</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>060590</t>
+          <t>243070</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>씨티씨바이오</t>
+          <t>휴온스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
         <v>23</v>
-      </c>
-      <c r="E9" t="n">
-        <v>26</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>005860</t>
+          <t>013030</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>한일사료</t>
+          <t>하이록코리아</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>-34</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>950140</t>
+          <t>214260</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>잉글우드랩</t>
+          <t>라파스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>079940</t>
+          <t>065680</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>가비아</t>
+          <t>우주일렉트로</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>217330</t>
+          <t>090150</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>싸이토젠</t>
+          <t>아이윈</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>291230</t>
+          <t>042370</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>엔피</t>
+          <t>비츠로테크</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>060240</t>
+          <t>270660</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>룽투코리아</t>
+          <t>에브리봇</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>270660</t>
+          <t>208710</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>에브리봇</t>
+          <t>바이오로그디바이스</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>304840</t>
+          <t>115500</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>피플바이오</t>
+          <t>케이씨에스</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>052400</t>
+          <t>072990</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>코나아이</t>
+          <t>에이치시티</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-10</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>034310</t>
+          <t>060260</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NICE</t>
+          <t>뉴보텍</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>008700</t>
+          <t>011330</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>아남전자</t>
+          <t>유니켐</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1</v>
+        <v>-28</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>030190</t>
+          <t>001840</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NICE평가정보</t>
+          <t>이화공영</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>142760</t>
+          <t>263920</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>비엘</t>
+          <t>휴엠앤씨</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>277410</t>
+          <t>009440</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>인산가</t>
+          <t>KC그린홀딩스</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,193 +999,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>044820</t>
+          <t>043910</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>코스맥스비티아이</t>
+          <t>자연과환경</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>002140</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>고려산업</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>000760</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>이화산업</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>331380</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>포커스에이치엔에스</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>031310</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>아이즈비전</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>079430</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>현대리바트</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>056080</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>유진로봇</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>9</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-7</v>
-      </c>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>019570</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>리더스 기술투자</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>097950</t>
+          <t>087010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CJ제일제당</t>
+          <t>펩트론</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>549</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>-29</v>
+        <v>14</v>
       </c>
       <c r="E2" t="n">
-        <v>520</v>
+        <v>215</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>248070</t>
+          <t>128940</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>솔루엠</t>
+          <t>한미약품</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>441</v>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>-258</v>
       </c>
       <c r="E3" t="n">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>014620</t>
+          <t>206640</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>성광벤드</t>
+          <t>바디텍메드</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E4" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>023160</t>
+          <t>003220</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>태광</t>
+          <t>대원제약</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-25</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>192650</t>
+          <t>060150</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>드림텍</t>
+          <t>인선이엔티</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>162</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>-114</v>
+        <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>004980</t>
+          <t>000640</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>성신양회</t>
+          <t>동아쏘시오홀딩스</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>149980</t>
+          <t>270520</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>하이로닉</t>
+          <t>지오릿에너지</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>243070</t>
+          <t>214260</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>휴온스</t>
+          <t>라파스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>013030</t>
+          <t>149980</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>하이록코리아</t>
+          <t>하이로닉</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-34</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>214260</t>
+          <t>008930</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>라파스</t>
+          <t>한미사이언스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D11" t="n">
-        <v>-10</v>
+        <v>-54</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>065680</t>
+          <t>307750</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>우주일렉트로</t>
+          <t>국전약품</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>090150</t>
+          <t>256840</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>아이윈</t>
+          <t>한국비엔씨</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>042370</t>
+          <t>092070</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>비츠로테크</t>
+          <t>디엔에프</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>-35</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>270660</t>
+          <t>031860</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>에브리봇</t>
+          <t>에스유홀딩스</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>-4</v>
       </c>
       <c r="D15" t="n">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>208710</t>
+          <t>242040</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>바이오로그디바이스</t>
+          <t>나무기술</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>115500</t>
+          <t>170900</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>케이씨에스</t>
+          <t>동아에스티</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>072990</t>
+          <t>251970</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>에이치시티</t>
+          <t>펌텍코리아</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>-17</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>060260</t>
+          <t>099440</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>뉴보텍</t>
+          <t>스맥</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>011330</t>
+          <t>009290</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>유니켐</t>
+          <t>광동제약</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-28</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>001840</t>
+          <t>950140</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>이화공영</t>
+          <t>잉글우드랩</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>-41</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>263920</t>
+          <t>011330</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>휴엠앤씨</t>
+          <t>유니켐</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-24</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>009440</t>
+          <t>950220</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>KC그린홀딩스</t>
+          <t>네오이뮨텍</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,25 +999,409 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>043910</t>
+          <t>214180</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>자연과환경</t>
+          <t>헥토이노베이션</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>304840</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>피플바이오</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>311690</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CJ 바이오사이언스</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>226950</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>올릭스</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>067370</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>선바이오</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>금비</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>039010</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>현대에이치티</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>067290</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>JW신약</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>079970</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>투비소프트</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>007460</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>에이프로젠</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>101330</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>모베이스</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>222110</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>팬젠</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>002460</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>화성산업</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>206650</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>유바이오로직스</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>060260</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>뉴보텍</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>019660</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>글로본</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>950170</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>JTC</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>087010</t>
+          <t>090430</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>펩트론</t>
+          <t>아모레퍼시픽</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>1420</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>215</v>
+        <v>1516</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>128940</t>
+          <t>008770</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>한미약품</t>
+          <t>호텔신라</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>441</v>
+        <v>581</v>
       </c>
       <c r="D3" t="n">
-        <v>-258</v>
+        <v>891</v>
       </c>
       <c r="E3" t="n">
-        <v>182</v>
+        <v>1472</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>206640</t>
+          <t>004170</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>바디텍메드</t>
+          <t>신세계</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>372</v>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="E4" t="n">
-        <v>108</v>
+        <v>839</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>003220</t>
+          <t>069960</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>대원제약</t>
+          <t>현대백화점</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>585</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E5" t="n">
-        <v>74</v>
+        <v>649</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>060150</t>
+          <t>161890</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>인선이엔티</t>
+          <t>한국콜마</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>335</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c r="E6" t="n">
-        <v>54</v>
+        <v>509</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>000640</t>
+          <t>192820</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>동아쏘시오홀딩스</t>
+          <t>코스맥스</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>-19</v>
       </c>
       <c r="E7" t="n">
-        <v>46</v>
+        <v>271</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>270520</t>
+          <t>002790</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>지오릿에너지</t>
+          <t>아모레G</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>387</v>
       </c>
       <c r="D8" t="n">
-        <v>34</v>
+        <v>-231</v>
       </c>
       <c r="E8" t="n">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>214260</t>
+          <t>034230</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>라파스</t>
+          <t>파라다이스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>36</v>
+        <v>-150</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>149980</t>
+          <t>069620</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>하이로닉</t>
+          <t>대웅제약</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>-62</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="E10" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>008930</t>
+          <t>007700</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한미사이언스</t>
+          <t>F&amp;F홀딩스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D11" t="n">
-        <v>-54</v>
+        <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>307750</t>
+          <t>032350</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>국전약품</t>
+          <t>롯데관광개발</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>256840</t>
+          <t>051900</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>한국비엔씨</t>
+          <t>LG생활건강</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>-434</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>092070</t>
+          <t>023530</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>디엔에프</t>
+          <t>롯데쇼핑</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D14" t="n">
-        <v>-35</v>
+        <v>-2</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>031860</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>에스유홀딩스</t>
+          <t>CJ</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4</v>
+        <v>354</v>
       </c>
       <c r="D15" t="n">
-        <v>32</v>
+        <v>-283</v>
       </c>
       <c r="E15" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>242040</t>
+          <t>031430</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>나무기술</t>
+          <t>신세계인터내셔날</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>170900</t>
+          <t>204620</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>동아에스티</t>
+          <t>글로벌텍스프리</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>-4</v>
       </c>
       <c r="D17" t="n">
-        <v>-3</v>
+        <v>46</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>251970</t>
+          <t>094850</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>펌텍코리아</t>
+          <t>참좋은여행</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>31</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
         <v>39</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-17</v>
-      </c>
-      <c r="E18" t="n">
-        <v>21</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>099440</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>스맥</t>
+          <t>서부T&amp;D</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>009290</t>
+          <t>017390</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>광동제약</t>
+          <t>서울가스</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D20" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>950140</t>
+          <t>383220</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>잉글우드랩</t>
+          <t>F&amp;F</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>56</v>
+        <v>-255</v>
       </c>
       <c r="D21" t="n">
-        <v>-41</v>
+        <v>279</v>
       </c>
       <c r="E21" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>011330</t>
+          <t>293780</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>유니켐</t>
+          <t>압타바이오</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-24</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>950220</t>
+          <t>013890</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>네오이뮨텍</t>
+          <t>지누스</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>214180</t>
+          <t>039130</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>헥토이노베이션</t>
+          <t>하나투어</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>-104</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>304840</t>
+          <t>006840</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>피플바이오</t>
+          <t>AK홀딩스</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>311690</t>
+          <t>009290</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CJ 바이오사이언스</t>
+          <t>광동제약</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,22 +1071,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>226950</t>
+          <t>086710</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>올릭스</t>
+          <t>선진뷰티사이언스</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>-13</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1095,22 +1095,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>067370</t>
+          <t>025770</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>선바이오</t>
+          <t>한국정보통신</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1119,22 +1119,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>008870</t>
+          <t>080160</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>금비</t>
+          <t>모두투어</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1143,22 +1143,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>039010</t>
+          <t>020560</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>현대에이치티</t>
+          <t>아시아나항공</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F30" t="n">
         <v>29</v>
@@ -1167,22 +1167,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>067290</t>
+          <t>145020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JW신약</t>
+          <t>휴젤</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>-110</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
         <v>30</v>
@@ -1191,22 +1191,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>079970</t>
+          <t>123570</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>투비소프트</t>
+          <t>이엠넷</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>31</v>
@@ -1215,22 +1215,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>007460</t>
+          <t>037710</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>에이프로젠</t>
+          <t>광주신세계</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>32</v>
@@ -1239,22 +1239,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>101330</t>
+          <t>079430</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>모베이스</t>
+          <t>현대리바트</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
@@ -1263,22 +1263,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>222110</t>
+          <t>036120</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>팬젠</t>
+          <t>SCI평가정보</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F35" t="n">
         <v>34</v>
@@ -1287,22 +1287,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>002460</t>
+          <t>053050</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>화성산업</t>
+          <t>지에스이</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
@@ -1311,22 +1311,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>206650</t>
+          <t>035080</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>유바이오로직스</t>
+          <t>그래디언트</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F37" t="n">
         <v>36</v>
@@ -1335,22 +1335,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>060260</t>
+          <t>108230</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>뉴보텍</t>
+          <t>톱텍</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
         <v>37</v>
@@ -1359,22 +1359,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>019660</t>
+          <t>104620</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>글로본</t>
+          <t>노랑풍선</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
         <v>38</v>
@@ -1383,25 +1383,481 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>950170</t>
+          <t>318410</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JTC</t>
+          <t>비비씨</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>044820</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>코스맥스비티아이</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>082920</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>비츠로셀</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>070960</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>용평리조트</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>244460</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>올리패스</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>317530</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>캐리소프트</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>011320</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>유니크</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>265560</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>영화테크</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>260930</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>씨티케이</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>019660</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>글로본</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>204020</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>그리티</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>038060</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>루멘스</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>339770</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>교촌에프앤비</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>084680</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>이월드</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>267850</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>아시아나IDT</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>330730</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>스톤브릿지벤처스</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>019540</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>일지테크</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>043710</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>서울리거</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>950170</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>JTC</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>036000</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>예림당</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>090430</t>
+          <t>161890</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>아모레퍼시픽</t>
+          <t>한국콜마</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1420</v>
+        <v>335</v>
       </c>
       <c r="D2" t="n">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="E2" t="n">
-        <v>1516</v>
+        <v>588</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>008770</t>
+          <t>004370</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>호텔신라</t>
+          <t>농심</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>581</v>
+        <v>102</v>
       </c>
       <c r="D3" t="n">
-        <v>891</v>
+        <v>136</v>
       </c>
       <c r="E3" t="n">
-        <v>1472</v>
+        <v>238</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>004170</t>
+          <t>083310</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>신세계</t>
+          <t>엘오티베큠</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>372</v>
+        <v>-5</v>
       </c>
       <c r="D4" t="n">
-        <v>466</v>
+        <v>136</v>
       </c>
       <c r="E4" t="n">
-        <v>839</v>
+        <v>131</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>069960</t>
+          <t>011790</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>현대백화점</t>
+          <t>SKC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>585</v>
+        <v>66</v>
       </c>
       <c r="D5" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E5" t="n">
-        <v>649</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>161890</t>
+          <t>230240</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>한국콜마</t>
+          <t>에치에프알</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n">
-        <v>173</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="n">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>192820</t>
+          <t>026890</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>코스맥스</t>
+          <t>스틱인베스트먼트</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>290</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>-19</v>
+        <v>64</v>
       </c>
       <c r="E7" t="n">
-        <v>271</v>
+        <v>72</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>094850</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>아모레G</t>
+          <t>참좋은여행</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>387</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>-231</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>034230</t>
+          <t>003230</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>파라다이스</t>
+          <t>삼양식품</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-150</v>
+        <v>-47</v>
       </c>
       <c r="D9" t="n">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="E9" t="n">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>069620</t>
+          <t>032350</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>대웅제약</t>
+          <t>롯데관광개발</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-62</v>
+        <v>-6</v>
       </c>
       <c r="D10" t="n">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>007700</t>
+          <t>336370</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>F&amp;F홀딩스</t>
+          <t>솔루스첨단소재</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>81</v>
+        <v>-15</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>032350</t>
+          <t>006840</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>롯데관광개발</t>
+          <t>AK홀딩스</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>051900</t>
+          <t>009270</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LG생활건강</t>
+          <t>신원</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>516</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>-434</v>
+        <v>-2</v>
       </c>
       <c r="E13" t="n">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>023530</t>
+          <t>365590</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>롯데쇼핑</t>
+          <t>하이딥</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>096350</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CJ</t>
+          <t>대창솔루션</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>354</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>-283</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>031430</t>
+          <t>129890</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>신세계인터내셔날</t>
+          <t>앱코</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>204620</t>
+          <t>035080</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>글로벌텍스프리</t>
+          <t>그래디언트</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>094850</t>
+          <t>004100</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>참좋은여행</t>
+          <t>태양금속</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>006730</t>
+          <t>138070</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>서부T&amp;D</t>
+          <t>신진에스엠</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>017390</t>
+          <t>015260</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>서울가스</t>
+          <t>에이엔피</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>383220</t>
+          <t>307280</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>F&amp;F</t>
+          <t>원바이오젠</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-255</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>279</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>293780</t>
+          <t>334970</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>압타바이오</t>
+          <t>프레스티지바이오로직스</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
         <v>4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>19</v>
-      </c>
-      <c r="E22" t="n">
-        <v>23</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>013890</t>
+          <t>065420</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>지누스</t>
+          <t>에스아이리소스</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>039130</t>
+          <t>352940</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>하나투어</t>
+          <t>인바이오</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-104</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>006840</t>
+          <t>023770</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AK홀딩스</t>
+          <t>플레이위드</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,22 +1047,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>009290</t>
+          <t>108230</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>광동제약</t>
+          <t>톱텍</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1071,793 +1071,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>086710</t>
+          <t>276730</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>선진뷰티사이언스</t>
+          <t>제주맥주</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-13</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>025770</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>한국정보통신</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>10</v>
-      </c>
-      <c r="E28" t="n">
-        <v>11</v>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>080160</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>모두투어</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D29" t="n">
-        <v>12</v>
-      </c>
-      <c r="E29" t="n">
-        <v>11</v>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>020560</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>아시아나항공</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>14</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E30" t="n">
-        <v>11</v>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>145020</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>휴젤</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>120</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-110</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10</v>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>123570</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>이엠넷</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D32" t="n">
-        <v>9</v>
-      </c>
-      <c r="E32" t="n">
-        <v>8</v>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>037710</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>광주신세계</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>-8</v>
-      </c>
-      <c r="D33" t="n">
-        <v>16</v>
-      </c>
-      <c r="E33" t="n">
-        <v>7</v>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>079430</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>현대리바트</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7</v>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>036120</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SCI평가정보</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>6</v>
-      </c>
-      <c r="E35" t="n">
-        <v>6</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>053050</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>지에스이</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6</v>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>035080</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>그래디언트</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D37" t="n">
-        <v>9</v>
-      </c>
-      <c r="E37" t="n">
-        <v>6</v>
-      </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>108230</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>톱텍</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>7</v>
-      </c>
-      <c r="E38" t="n">
-        <v>5</v>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>104620</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>노랑풍선</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>7</v>
-      </c>
-      <c r="E39" t="n">
-        <v>5</v>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>318410</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>비비씨</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>3</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" t="n">
-        <v>4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>044820</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>코스맥스비티아이</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>3</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3</v>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>082920</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>비츠로셀</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>-4</v>
-      </c>
-      <c r="D42" t="n">
-        <v>7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>3</v>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>070960</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>용평리조트</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-      <c r="D43" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" t="n">
-        <v>3</v>
-      </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>244460</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>올리패스</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>1</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>317530</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>캐리소프트</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>011320</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>유니크</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>265560</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>영화테크</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>260930</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>씨티케이</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D48" t="n">
-        <v>4</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>019660</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>글로본</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2</v>
-      </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>204020</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>그리티</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>038060</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>루멘스</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>2</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>339770</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>교촌에프앤비</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>084680</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>이월드</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="n">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>267850</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>아시아나IDT</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>330730</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>스톤브릿지벤처스</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>019540</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>일지테크</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>-3</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>043710</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>서울리거</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>1</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
-      <c r="F57" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>950170</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>JTC</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2</v>
-      </c>
-      <c r="E58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>036000</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>예림당</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>161890</t>
+          <t>100090</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>한국콜마</t>
+          <t>SK오션플랜트</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>335</v>
+        <v>240</v>
       </c>
       <c r="D2" t="n">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>588</v>
+        <v>252</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>004370</t>
+          <t>071970</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>농심</t>
+          <t>STX중공업</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>136</v>
+        <v>28</v>
       </c>
       <c r="E3" t="n">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>083310</t>
+          <t>182400</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>엘오티베큠</t>
+          <t>엔케이맥스</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>011790</t>
+          <t>049720</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SKC</t>
+          <t>고려신용정보</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>230240</t>
+          <t>205100</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>에치에프알</t>
+          <t>엑셈</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>81</v>
+        <v>-7</v>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="E6" t="n">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>026890</t>
+          <t>130660</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>스틱인베스트먼트</t>
+          <t>한전산업</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>094850</t>
+          <t>194700</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>참좋은여행</t>
+          <t>노바렉스</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>003230</t>
+          <t>097780</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>삼양식품</t>
+          <t>에스맥</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-47</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>032350</t>
+          <t>393210</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>롯데관광개발</t>
+          <t>토마토시스템</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>-3</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>336370</t>
+          <t>014280</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>솔루스첨단소재</t>
+          <t>금강공업</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>006840</t>
+          <t>023410</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AK홀딩스</t>
+          <t>유진기업</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>009270</t>
+          <t>260930</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>신원</t>
+          <t>씨티케이</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>365590</t>
+          <t>084850</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>하이딥</t>
+          <t>아이티엠반도체</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>096350</t>
+          <t>000910</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>대창솔루션</t>
+          <t>유니온</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>129890</t>
+          <t>000320</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>앱코</t>
+          <t>노루홀딩스</t>
         </is>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
         <v>4</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>035080</t>
+          <t>082210</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>그래디언트</t>
+          <t>옵트론텍</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,19 +855,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>004100</t>
+          <t>009300</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>태양금속</t>
+          <t>삼아제약</t>
         </is>
       </c>
       <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
         <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>138070</t>
+          <t>006920</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>신진에스엠</t>
+          <t>모헨즈</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>015260</t>
+          <t>031310</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>에이엔피</t>
+          <t>아이즈비전</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>307280</t>
+          <t>016610</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>원바이오젠</t>
+          <t>DB금융투자</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E21" t="n">
         <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>334970</t>
+          <t>030960</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>프레스티지바이오로직스</t>
+          <t>양지사</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,121 +975,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>065420</t>
+          <t>104540</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>에스아이리소스</t>
+          <t>코렌텍</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>352940</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>인바이오</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>023770</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>플레이위드</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>108230</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>톱텍</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>276730</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>제주맥주</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100090</t>
+          <t>230240</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SK오션플랜트</t>
+          <t>에치에프알</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>071970</t>
+          <t>046890</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>STX중공업</t>
+          <t>서울반도체</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>182400</t>
+          <t>017370</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>엔케이맥스</t>
+          <t>우신시스템</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>049720</t>
+          <t>060590</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>고려신용정보</t>
+          <t>씨티씨바이오</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>205100</t>
+          <t>063170</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>엑셈</t>
+          <t>서울옥션</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-7</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>130660</t>
+          <t>318000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>한전산업</t>
+          <t>KBG</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>194700</t>
+          <t>052460</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>노바렉스</t>
+          <t>아이크래프트</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>097780</t>
+          <t>008110</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>에스맥</t>
+          <t>대동전자</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>393210</t>
+          <t>011300</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>토마토시스템</t>
+          <t>성안</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>014280</t>
+          <t>365590</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>금강공업</t>
+          <t>하이딥</t>
         </is>
       </c>
       <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="n">
-        <v>8</v>
-      </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>023410</t>
+          <t>025550</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>유진기업</t>
+          <t>한국선재</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="n">
-        <v>6</v>
-      </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>260930</t>
+          <t>006920</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>씨티케이</t>
+          <t>모헨즈</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,241 +759,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>084850</t>
+          <t>015260</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>아이티엠반도체</t>
+          <t>에이엔피</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>000910</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>유니온</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>000320</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>노루홀딩스</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>082210</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>옵트론텍</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>9</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>009300</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>삼아제약</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>006920</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>모헨즈</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>031310</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>아이즈비전</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>016610</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DB금융투자</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>030960</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>양지사</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>104540</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>코렌텍</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>230240</t>
+          <t>091990</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>에치에프알</t>
+          <t>셀트리온헬스케어</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>481</v>
       </c>
       <c r="E2" t="n">
-        <v>111</v>
+        <v>589</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>046890</t>
+          <t>068270</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>서울반도체</t>
+          <t>셀트리온</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>-126</v>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>321</v>
       </c>
       <c r="E3" t="n">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>017370</t>
+          <t>060590</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>우신시스템</t>
+          <t>씨티씨바이오</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>060590</t>
+          <t>001390</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>씨티씨바이오</t>
+          <t>KG케미칼</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>-17</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>063170</t>
+          <t>006120</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>서울옥션</t>
+          <t>SK디스커버리</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>318000</t>
+          <t>119610</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KBG</t>
+          <t>인터로조</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>052460</t>
+          <t>079960</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>아이크래프트</t>
+          <t>동양이엔피</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>-14</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>008110</t>
+          <t>066700</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>대동전자</t>
+          <t>테라젠이텍스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>011300</t>
+          <t>041590</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>성안</t>
+          <t>플래스크</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
         <v>9</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>365590</t>
+          <t>357580</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>하이딥</t>
+          <t>아모센스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>025550</t>
+          <t>010040</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>한국선재</t>
+          <t>한국내화</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>006920</t>
+          <t>012860</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>모헨즈</t>
+          <t>모베이스전자</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,25 +759,217 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>015260</t>
+          <t>293580</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>에이엔피</t>
+          <t>나우IB</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>234920</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>자이글</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>024890</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>대원화성</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>052460</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>아이크래프트</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>014570</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>고려제약</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>003010</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>혜인</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>032960</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>동일기연</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>245620</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EDGC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>145990</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>삼양사</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>091990</t>
+          <t>068400</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>셀트리온헬스케어</t>
+          <t>SK렌터카</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="D2" t="n">
-        <v>481</v>
+        <v>-7</v>
       </c>
       <c r="E2" t="n">
-        <v>589</v>
+        <v>213</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>068270</t>
+          <t>060590</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>셀트리온</t>
+          <t>씨티씨바이오</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-126</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>321</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>060590</t>
+          <t>298000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>씨티씨바이오</t>
+          <t>효성화학</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>001390</t>
+          <t>049520</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KG케미칼</t>
+          <t>유아이엘</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>006120</t>
+          <t>149980</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SK디스커버리</t>
+          <t>하이로닉</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>119610</t>
+          <t>033290</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>인터로조</t>
+          <t>코웰패션</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>-9</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>079960</t>
+          <t>012860</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>동양이엔피</t>
+          <t>모베이스전자</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-14</v>
+        <v>23</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>066700</t>
+          <t>173130</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>테라젠이텍스</t>
+          <t>오파스넷</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>041590</t>
+          <t>376180</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>플래스크</t>
+          <t>피코그램</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>357580</t>
+          <t>000910</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>아모센스</t>
+          <t>유니온</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>010040</t>
+          <t>214680</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>한국내화</t>
+          <t>디알텍</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>012860</t>
+          <t>037030</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>모베이스전자</t>
+          <t>파워넷</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>293580</t>
+          <t>195500</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>나우IB</t>
+          <t>마니커에프앤지</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>234920</t>
+          <t>208140</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>자이글</t>
+          <t>정다운</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>024890</t>
+          <t>348350</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>대원화성</t>
+          <t>위드텍</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>052460</t>
+          <t>314130</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>아이크래프트</t>
+          <t>지놈앤컴퍼니</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>014570</t>
+          <t>009200</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>고려제약</t>
+          <t>무림페이퍼</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>003010</t>
+          <t>084440</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>혜인</t>
+          <t>유비온</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>032960</t>
+          <t>014580</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>동일기연</t>
+          <t>태경비케이</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,22 +927,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>245620</t>
+          <t>066900</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EDGC</t>
+          <t>디에이피</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="n">
         <v>3</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,25 +951,121 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>145990</t>
+          <t>101390</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>삼양사</t>
+          <t>아이엠</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>248170</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>샘표식품</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>284620</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>카이노스메드</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>006050</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>국영지앤엠</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>339770</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>교촌에프앤비</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>068400</t>
+          <t>290650</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SK렌터카</t>
+          <t>엘앤씨바이오</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>221</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>-7</v>
+        <v>169</v>
       </c>
       <c r="E2" t="n">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>060590</t>
+          <t>259630</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>씨티씨바이오</t>
+          <t>엠플러스</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>298000</t>
+          <t>204270</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>효성화학</t>
+          <t>제이앤티씨</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>049520</t>
+          <t>064350</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>유아이엘</t>
+          <t>현대로템</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E5" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>149980</t>
+          <t>215200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>하이로닉</t>
+          <t>메가스터디교육</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>033290</t>
+          <t>108860</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>코웰패션</t>
+          <t>셀바스AI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-9</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>012860</t>
+          <t>226950</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>모베이스전자</t>
+          <t>올릭스</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>-12</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>173130</t>
+          <t>061250</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>오파스넷</t>
+          <t>화일약품</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>-9</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>376180</t>
+          <t>317830</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>피코그램</t>
+          <t>에스피시스템스</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>000910</t>
+          <t>223250</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>유니온</t>
+          <t>드림씨아이에스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>214680</t>
+          <t>004720</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>디알텍</t>
+          <t>팜젠사이언스</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>037030</t>
+          <t>001360</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>파워넷</t>
+          <t>삼성제약</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>195500</t>
+          <t>950130</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>마니커에프앤지</t>
+          <t>엑세스바이오</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>208140</t>
+          <t>205100</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>정다운</t>
+          <t>엑셈</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>348350</t>
+          <t>009730</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>위드텍</t>
+          <t>코센</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>314130</t>
+          <t>323230</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>지놈앤컴퍼니</t>
+          <t>엠에프엠코리아</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>009200</t>
+          <t>025900</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>무림페이퍼</t>
+          <t>동화기업</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>084440</t>
+          <t>014470</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>유비온</t>
+          <t>부방</t>
         </is>
       </c>
       <c r="C19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="n">
         <v>7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,22 +903,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>014580</t>
+          <t>003920</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>태경비케이</t>
+          <t>남양유업</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
@@ -927,12 +927,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>066900</t>
+          <t>082210</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>디에이피</t>
+          <t>옵트론텍</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -942,7 +942,7 @@
         <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -951,22 +951,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>101390</t>
+          <t>308080</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>아이엠</t>
+          <t>바이젠셀</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -975,22 +975,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>248170</t>
+          <t>263860</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>샘표식품</t>
+          <t>지니언스</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
         <v>22</v>
@@ -999,22 +999,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>284620</t>
+          <t>139050</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>카이노스메드</t>
+          <t>시티랩스</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1023,22 +1023,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>006050</t>
+          <t>222110</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>국영지앤엠</t>
+          <t>팬젠</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
@@ -1047,25 +1047,313 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>339770</t>
+          <t>049180</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>교촌에프앤비</t>
+          <t>셀루메드</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>063160</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>종근당바이오</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>006620</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>동구바이오제약</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>224060</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>더코디</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>291650</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>압타머사이언스</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>009810</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>플레이그램</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>263050</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>유틸렉스</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>041910</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>에스텍파마</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>215790</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>이노인스트루먼트</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>066670</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>디스플레이텍</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>134380</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>미원화학</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>048430</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>유라테크</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>071200</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>인피니트헬스케어</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>290650</t>
+          <t>054450</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>엘앤씨바이오</t>
+          <t>텔레칩스</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D2" t="n">
-        <v>169</v>
+        <v>101</v>
       </c>
       <c r="E2" t="n">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>259630</t>
+          <t>088350</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>엠플러스</t>
+          <t>한화생명</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="D3" t="n">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>204270</t>
+          <t>000210</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>제이앤티씨</t>
+          <t>DL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>-40</v>
       </c>
       <c r="E4" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>064350</t>
+          <t>048410</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>현대로템</t>
+          <t>현대바이오</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E5" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>215200</t>
+          <t>003720</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>메가스터디교육</t>
+          <t>삼영</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>108860</t>
+          <t>085620</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>셀바스AI</t>
+          <t>미래에셋생명</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>226950</t>
+          <t>090350</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>올릭스</t>
+          <t>노루페인트</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-12</v>
+        <v>39</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>061250</t>
+          <t>210980</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>화일약품</t>
+          <t>SK디앤디</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>-9</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>317830</t>
+          <t>000430</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>에스피시스템스</t>
+          <t>대원강업</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
-        <v>13</v>
-      </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>223250</t>
+          <t>183190</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>드림씨아이에스</t>
+          <t>아세아시멘트</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>004720</t>
+          <t>050890</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>팜젠사이언스</t>
+          <t>쏠리드</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>001360</t>
+          <t>046140</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>삼성제약</t>
+          <t>SBS콘텐츠허브</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="n">
-        <v>14</v>
-      </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>950130</t>
+          <t>203650</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>엑세스바이오</t>
+          <t>드림시큐리티</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>-1</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>205100</t>
+          <t>017650</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>엑셈</t>
+          <t>대림제지</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>009730</t>
+          <t>073490</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>코센</t>
+          <t>이노와이어리스</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>323230</t>
+          <t>088800</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>엠에프엠코리아</t>
+          <t>에이스테크</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>025900</t>
+          <t>000320</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>동화기업</t>
+          <t>노루홀딩스</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>014470</t>
+          <t>195990</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>부방</t>
+          <t>에이비프로바이오</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,457 +903,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>003920</t>
+          <t>061040</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>남양유업</t>
+          <t>알에프텍</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>082210</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>옵트론텍</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>308080</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>바이젠셀</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>263860</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>지니언스</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>139050</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>시티랩스</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>222110</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>팬젠</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>049180</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>셀루메드</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>063160</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>종근당바이오</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>006620</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>동구바이오제약</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>2</v>
-      </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>224060</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>더코디</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2</v>
-      </c>
-      <c r="E29" t="n">
-        <v>2</v>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>291650</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>압타머사이언스</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>009810</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>플레이그램</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>263050</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>유틸렉스</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>041910</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>에스텍파마</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>215790</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>이노인스트루먼트</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>066670</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>디스플레이텍</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>3</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>134380</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>미원화학</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>048430</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>유라테크</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>071200</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>인피니트헬스케어</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>054450</t>
+          <t>000120</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>텔레칩스</t>
+          <t>CJ대한통운</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="D2" t="n">
-        <v>101</v>
+        <v>-33</v>
       </c>
       <c r="E2" t="n">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>088350</t>
+          <t>060590</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>한화생명</t>
+          <t>씨티씨바이오</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>-30</v>
       </c>
       <c r="E3" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>000210</t>
+          <t>078520</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DL</t>
+          <t>에이블씨엔씨</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>-40</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>048410</t>
+          <t>004980</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>현대바이오</t>
+          <t>성신양회</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>003720</t>
+          <t>357550</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>삼영</t>
+          <t>석경에이티</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>35</v>
+      </c>
+      <c r="E6" t="n">
         <v>34</v>
-      </c>
-      <c r="E6" t="n">
-        <v>49</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>085620</t>
+          <t>025950</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>미래에셋생명</t>
+          <t>동신건설</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>090350</t>
+          <t>049480</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>노루페인트</t>
+          <t>오픈베이스</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>210980</t>
+          <t>126340</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SK디앤디</t>
+          <t>비나텍</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="n">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>000430</t>
+          <t>003780</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>대원강업</t>
+          <t>진양산업</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>183190</t>
+          <t>002780</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>아세아시멘트</t>
+          <t>진흥기업</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>050890</t>
+          <t>010640</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>쏠리드</t>
+          <t>진양폴리</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>046140</t>
+          <t>361390</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SBS콘텐츠허브</t>
+          <t>제노코</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,22 +759,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>203650</t>
+          <t>311390</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>드림시큐리티</t>
+          <t>네오크레마</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
@@ -783,22 +783,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>017650</t>
+          <t>004140</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>대림제지</t>
+          <t>동방</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
@@ -807,22 +807,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>073490</t>
+          <t>110990</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>이노와이어리스</t>
+          <t>디아이티</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -831,22 +831,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>088800</t>
+          <t>265560</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>에이스테크</t>
+          <t>영화테크</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
         <v>4</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -855,22 +855,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>000320</t>
+          <t>014580</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>노루홀딩스</t>
+          <t>태경비케이</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -879,22 +879,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>195990</t>
+          <t>024940</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>에이비프로바이오</t>
+          <t>PN풍년</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -903,25 +903,193 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>061040</t>
+          <t>112040</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>알에프텍</t>
+          <t>위메이드</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>238120</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>얼라인드</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>036030</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>케이티알파</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KISCO홀딩스</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>002170</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>삼양통상</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>086820</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>바이오솔루션</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>050960</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>수산아이앤티</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>356890</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>싸이버원</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000120</t>
+          <t>069620</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CJ대한통운</t>
+          <t>대웅제약</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="D2" t="n">
-        <v>-33</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>060590</t>
+          <t>093320</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>씨티씨바이오</t>
+          <t>케이아이엔엑스</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>124</v>
+        <v>-40</v>
       </c>
       <c r="D3" t="n">
-        <v>-30</v>
+        <v>98</v>
       </c>
       <c r="E3" t="n">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>078520</t>
+          <t>079940</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>에이블씨엔씨</t>
+          <t>가비아</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>004980</t>
+          <t>003090</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>성신양회</t>
+          <t>대웅</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>357550</t>
+          <t>024060</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>석경에이티</t>
+          <t>흥구석유</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>025950</t>
+          <t>191410</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>동신건설</t>
+          <t>육일씨엔에쓰</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>049480</t>
+          <t>000040</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>오픈베이스</t>
+          <t>KR모터스</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,457 +639,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>126340</t>
+          <t>000590</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>비나텍</t>
+          <t>CS홀딩스</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>003780</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>진양산업</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>002780</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>진흥기업</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" t="n">
-        <v>6</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>010640</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>진양폴리</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>5</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>361390</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>제노코</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>311390</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>네오크레마</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>004140</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>동방</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>110990</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>디아이티</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>265560</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>영화테크</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>014580</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>태경비케이</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>024940</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PN풍년</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>112040</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>위메이드</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>-41</v>
-      </c>
-      <c r="D20" t="n">
-        <v>45</v>
-      </c>
-      <c r="E20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>238120</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>얼라인드</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>-6</v>
-      </c>
-      <c r="D21" t="n">
-        <v>9</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>036030</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>케이티알파</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>KISCO홀딩스</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>002170</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>삼양통상</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>086820</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>바이오솔루션</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>050960</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>수산아이앤티</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>356890</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>싸이버원</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>069620</t>
+          <t>039030</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>대웅제약</t>
+          <t>이오테크닉스</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>326</v>
       </c>
       <c r="E2" t="n">
-        <v>107</v>
+        <v>333</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>093320</t>
+          <t>051600</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>케이아이엔엑스</t>
+          <t>한전KPS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-40</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>079940</t>
+          <t>035150</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>가비아</t>
+          <t>백산</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>003090</t>
+          <t>014830</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>대웅</t>
+          <t>유니드</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>-4</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>024060</t>
+          <t>094970</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>흥구석유</t>
+          <t>제이엠티</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>191410</t>
+          <t>138580</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>육일씨엔에쓰</t>
+          <t>비즈니스온</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>000040</t>
+          <t>007160</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KR모터스</t>
+          <t>사조산업</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,25 +639,289 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>000590</t>
+          <t>007810</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CS홀딩스</t>
+          <t>코리아써키트</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>대한제당</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>110020</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>전진바이오팜</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>053050</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>지에스이</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>340360</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>다보링크</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>7</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>원풍물산</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>006090</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>사조오양</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D15" t="n">
+        <v>22</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>005860</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>한일사료</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>005110</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>한창</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SH에너지화학</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>097870</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>효성오앤비</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>333430</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>일승</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>039030</t>
+          <t>294870</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이오테크닉스</t>
+          <t>HDC현대산업개발</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>333</v>
+        <v>91</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>051600</t>
+          <t>000240</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>한전KPS</t>
+          <t>한국앤컴퍼니</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D3" t="n">
-        <v>55</v>
+        <v>-15</v>
       </c>
       <c r="E3" t="n">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>035150</t>
+          <t>010100</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>백산</t>
+          <t>한국무브넥스</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>-42</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>014830</t>
+          <t>182400</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>유니드</t>
+          <t>엔케이맥스</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>094970</t>
+          <t>268280</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>제이엠티</t>
+          <t>미원에스씨</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>138580</t>
+          <t>290090</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>비즈니스온</t>
+          <t>트윔</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>007160</t>
+          <t>005110</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>사조산업</t>
+          <t>한창</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>007810</t>
+          <t>004920</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>코리아써키트</t>
+          <t>씨아이테크</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,22 +663,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>001790</t>
+          <t>102370</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>대한제당</t>
+          <t>케이옥션</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -687,22 +687,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>110020</t>
+          <t>096240</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>전진바이오팜</t>
+          <t>크레버스</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -711,22 +711,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>053050</t>
+          <t>258610</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>지에스이</t>
+          <t>케일럼</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -735,22 +735,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>340360</t>
+          <t>072710</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>다보링크</t>
+          <t>농심홀딩스</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>-9</v>
       </c>
       <c r="D13" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -759,169 +759,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>008290</t>
+          <t>069540</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>원풍물산</t>
+          <t>라이트론</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E14" t="n">
         <v>1</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>006090</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>사조오양</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>-18</v>
-      </c>
-      <c r="D15" t="n">
-        <v>22</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>005860</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>한일사료</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>005110</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>한창</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SH에너지화학</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>097870</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>효성오앤비</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>333430</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>일승</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/배당농부법종목.xlsx
+++ b/Data/배당농부법종목.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -471,22 +471,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>294870</t>
+          <t>000080</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HDC현대산업개발</t>
+          <t>하이트진로</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>171</v>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -495,22 +495,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>000240</t>
+          <t>014830</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>한국앤컴퍼니</t>
+          <t>유니드</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="D3" t="n">
-        <v>-15</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -519,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>010100</t>
+          <t>105630</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>한국무브넥스</t>
+          <t>한세실업</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="E4" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
@@ -543,22 +543,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>182400</t>
+          <t>013990</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>엔케이맥스</t>
+          <t>아가방컴퍼니</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -567,22 +567,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>268280</t>
+          <t>036620</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>미원에스씨</t>
+          <t>감성코퍼레이션</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>5</v>
@@ -591,22 +591,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>290090</t>
+          <t>250060</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>트윔</t>
+          <t>모비스</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -615,22 +615,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>005110</t>
+          <t>005810</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>한창</t>
+          <t>풍산홀딩스</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
         <v>7</v>
@@ -639,22 +639,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>004920</t>
+          <t>027050</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>씨아이테크</t>
+          <t>코리아나</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -663,19 +663,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>102370</t>
+          <t>025550</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>케이옥션</t>
+          <t>한국선재</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -687,19 +687,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>096240</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>크레버스</t>
+          <t>동성제약</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -711,19 +711,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>258610</t>
+          <t>094850</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>케일럼</t>
+          <t>참좋은여행</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -735,49 +735,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>072710</t>
+          <t>147760</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>농심홀딩스</t>
+          <t>피엠티</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-9</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>069540</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>라이트론</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
